--- a/data_process/simtime_prediction/data/sim_time.xlsx
+++ b/data_process/simtime_prediction/data/sim_time.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W580"/>
+  <dimension ref="A1:W643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38262,43 +38262,43 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>86.7516</v>
+        <v>86419.814982</v>
       </c>
       <c r="C542" t="n">
-        <v>3.0859375</v>
+        <v>3.8359375</v>
       </c>
       <c r="D542" t="n">
-        <v>8.41796875e-09</v>
+        <v>6.34375e-09</v>
       </c>
       <c r="E542" t="n">
-        <v>0.68046875</v>
+        <v>0.4453125</v>
       </c>
       <c r="F542" t="n">
-        <v>0.13671875</v>
+        <v>1.625</v>
       </c>
       <c r="G542" t="n">
-        <v>8.8671875</v>
+        <v>8.33984375</v>
       </c>
       <c r="H542" t="n">
-        <v>9.542968750000001e-09</v>
+        <v>5.65234375e-09</v>
       </c>
       <c r="I542" t="n">
-        <v>0.394921875</v>
+        <v>0.1125</v>
       </c>
       <c r="J542" t="n">
-        <v>240.46875</v>
+        <v>158.203125</v>
       </c>
       <c r="K542" t="n">
-        <v>0.4375</v>
+        <v>0.3546875</v>
       </c>
       <c r="L542" t="n">
-        <v>791</v>
+        <v>264</v>
       </c>
       <c r="M542" t="n">
-        <v>0.01314453125</v>
+        <v>0.0123828125</v>
       </c>
       <c r="N542" t="n">
-        <v>717</v>
+        <v>520</v>
       </c>
       <c r="O542" t="n">
         <v>2045</v>
@@ -38310,56 +38310,66 @@
         <v>25</v>
       </c>
       <c r="R542" t="b">
-        <v>1</v>
-      </c>
-      <c r="S542" t="s"/>
-      <c r="T542" t="s"/>
-      <c r="U542" t="s"/>
-      <c r="V542" t="s"/>
-      <c r="W542" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="S542" t="s">
+        <v>24</v>
+      </c>
+      <c r="T542" t="n">
+        <v>707</v>
+      </c>
+      <c r="U542" t="n">
+        <v>722</v>
+      </c>
+      <c r="V542" t="n">
+        <v>705</v>
+      </c>
+      <c r="W542" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="543" spans="1:23">
       <c r="A543" s="1" t="n">
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>85.4256</v>
+        <v>86445.94577400001</v>
       </c>
       <c r="C543" t="n">
-        <v>3.0859375</v>
+        <v>3.8359375</v>
       </c>
       <c r="D543" t="n">
-        <v>8.41796875e-09</v>
+        <v>6.34375e-09</v>
       </c>
       <c r="E543" t="n">
-        <v>0.68046875</v>
+        <v>0.4453125</v>
       </c>
       <c r="F543" t="n">
-        <v>0.13671875</v>
+        <v>1.625</v>
       </c>
       <c r="G543" t="n">
-        <v>8.8671875</v>
+        <v>8.33984375</v>
       </c>
       <c r="H543" t="n">
-        <v>9.542968750000001e-09</v>
+        <v>5.65234375e-09</v>
       </c>
       <c r="I543" t="n">
-        <v>0.394921875</v>
+        <v>0.1125</v>
       </c>
       <c r="J543" t="n">
-        <v>240.46875</v>
+        <v>158.203125</v>
       </c>
       <c r="K543" t="n">
-        <v>0.4375</v>
+        <v>0.3546875</v>
       </c>
       <c r="L543" t="n">
-        <v>791</v>
+        <v>264</v>
       </c>
       <c r="M543" t="n">
-        <v>0.01314453125</v>
+        <v>0.0123828125</v>
       </c>
       <c r="N543" t="n">
-        <v>717</v>
+        <v>520</v>
       </c>
       <c r="O543" t="n">
         <v>2045</v>
@@ -38371,13 +38381,13 @@
         <v>25</v>
       </c>
       <c r="R543" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S543" t="s">
         <v>24</v>
       </c>
       <c r="T543" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U543" t="n">
         <v>722</v>
@@ -38386,7 +38396,7 @@
         <v>705</v>
       </c>
       <c r="W543" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="544" spans="1:23">
@@ -38394,43 +38404,43 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>231.48</v>
+        <v>86417.72177400001</v>
       </c>
       <c r="C544" t="n">
-        <v>3.0859375</v>
+        <v>3.8359375</v>
       </c>
       <c r="D544" t="n">
-        <v>8.41796875e-09</v>
+        <v>6.34375e-09</v>
       </c>
       <c r="E544" t="n">
-        <v>0.68046875</v>
+        <v>0.4453125</v>
       </c>
       <c r="F544" t="n">
-        <v>0.13671875</v>
+        <v>1.625</v>
       </c>
       <c r="G544" t="n">
-        <v>8.8671875</v>
+        <v>8.33984375</v>
       </c>
       <c r="H544" t="n">
-        <v>9.542968750000001e-09</v>
+        <v>5.65234375e-09</v>
       </c>
       <c r="I544" t="n">
-        <v>0.394921875</v>
+        <v>0.1125</v>
       </c>
       <c r="J544" t="n">
-        <v>240.46875</v>
+        <v>158.203125</v>
       </c>
       <c r="K544" t="n">
-        <v>0.4375</v>
+        <v>0.3546875</v>
       </c>
       <c r="L544" t="n">
-        <v>791</v>
+        <v>264</v>
       </c>
       <c r="M544" t="n">
-        <v>0.01314453125</v>
+        <v>0.0123828125</v>
       </c>
       <c r="N544" t="n">
-        <v>717</v>
+        <v>520</v>
       </c>
       <c r="O544" t="n">
         <v>2045</v>
@@ -38442,13 +38452,13 @@
         <v>25</v>
       </c>
       <c r="R544" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S544" t="s">
         <v>24</v>
       </c>
       <c r="T544" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U544" t="n">
         <v>722</v>
@@ -38465,7 +38475,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>76.215</v>
+        <v>86.7516</v>
       </c>
       <c r="C545" t="n">
         <v>3.0859375</v>
@@ -38513,30 +38523,20 @@
         <v>25</v>
       </c>
       <c r="R545" t="b">
-        <v>0</v>
-      </c>
-      <c r="S545" t="s">
-        <v>24</v>
-      </c>
-      <c r="T545" t="n">
-        <v>707</v>
-      </c>
-      <c r="U545" t="n">
-        <v>722</v>
-      </c>
-      <c r="V545" t="n">
-        <v>705</v>
-      </c>
-      <c r="W545" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S545" t="s"/>
+      <c r="T545" t="s"/>
+      <c r="U545" t="s"/>
+      <c r="V545" t="s"/>
+      <c r="W545" t="s"/>
     </row>
     <row r="546" spans="1:23">
       <c r="A546" s="1" t="n">
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>116.021</v>
+        <v>36000</v>
       </c>
       <c r="C546" t="n">
         <v>3.0859375</v>
@@ -38584,197 +38584,207 @@
         <v>25</v>
       </c>
       <c r="R546" t="b">
-        <v>1</v>
-      </c>
-      <c r="S546" t="s">
-        <v>24</v>
-      </c>
-      <c r="T546" t="n">
-        <v>706</v>
-      </c>
-      <c r="U546" t="n">
-        <v>722</v>
-      </c>
-      <c r="V546" t="n">
-        <v>705</v>
-      </c>
-      <c r="W546" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S546" t="s"/>
+      <c r="T546" t="s"/>
+      <c r="U546" t="s"/>
+      <c r="V546" t="s"/>
+      <c r="W546" t="s"/>
     </row>
     <row r="547" spans="1:23">
       <c r="A547" s="1" t="n">
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>269.347</v>
+        <v>85.4256</v>
       </c>
       <c r="C547" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D547" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E547" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F547" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G547" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H547" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I547" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J547" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K547" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L547" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M547" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N547" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O547" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P547" t="s">
         <v>22</v>
       </c>
       <c r="Q547" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R547" t="b">
         <v>1</v>
       </c>
-      <c r="S547" t="s"/>
-      <c r="T547" t="s"/>
-      <c r="U547" t="s"/>
-      <c r="V547" t="s"/>
-      <c r="W547" t="s"/>
+      <c r="S547" t="s">
+        <v>24</v>
+      </c>
+      <c r="T547" t="n">
+        <v>707</v>
+      </c>
+      <c r="U547" t="n">
+        <v>722</v>
+      </c>
+      <c r="V547" t="n">
+        <v>705</v>
+      </c>
+      <c r="W547" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="548" spans="1:23">
       <c r="A548" s="1" t="n">
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>78.261</v>
+        <v>76.2372</v>
       </c>
       <c r="C548" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D548" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E548" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F548" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G548" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H548" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I548" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J548" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K548" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L548" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M548" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N548" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O548" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P548" t="s">
         <v>22</v>
       </c>
       <c r="Q548" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R548" t="b">
-        <v>0</v>
-      </c>
-      <c r="S548" t="s"/>
-      <c r="T548" t="s"/>
-      <c r="U548" t="s"/>
-      <c r="V548" t="s"/>
-      <c r="W548" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="S548" t="s">
+        <v>24</v>
+      </c>
+      <c r="T548" t="n">
+        <v>707</v>
+      </c>
+      <c r="U548" t="n">
+        <v>722</v>
+      </c>
+      <c r="V548" t="n">
+        <v>705</v>
+      </c>
+      <c r="W548" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="549" spans="1:23">
       <c r="A549" s="1" t="n">
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>505.083</v>
+        <v>117</v>
       </c>
       <c r="C549" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D549" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E549" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F549" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G549" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H549" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I549" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J549" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K549" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L549" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M549" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N549" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O549" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P549" t="s">
         <v>22</v>
       </c>
       <c r="Q549" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R549" t="b">
         <v>1</v>
@@ -38792,7 +38802,7 @@
         <v>705</v>
       </c>
       <c r="W549" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="550" spans="1:23">
@@ -38800,52 +38810,52 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>648.8584</v>
+        <v>231.48</v>
       </c>
       <c r="C550" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D550" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E550" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F550" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G550" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H550" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I550" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J550" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K550" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L550" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M550" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N550" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O550" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P550" t="s">
         <v>22</v>
       </c>
       <c r="Q550" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R550" t="b">
         <v>1</v>
@@ -38863,7 +38873,7 @@
         <v>705</v>
       </c>
       <c r="W550" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="551" spans="1:23">
@@ -38871,55 +38881,55 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>1266.1384</v>
+        <v>68</v>
       </c>
       <c r="C551" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D551" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E551" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F551" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G551" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H551" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I551" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J551" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K551" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L551" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M551" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N551" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O551" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P551" t="s">
         <v>22</v>
       </c>
       <c r="Q551" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R551" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S551" t="s">
         <v>24</v>
@@ -38934,7 +38944,7 @@
         <v>705</v>
       </c>
       <c r="W551" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="552" spans="1:23">
@@ -38942,52 +38952,52 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>80.411</v>
+        <v>75.9252</v>
       </c>
       <c r="C552" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D552" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E552" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F552" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G552" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H552" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I552" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J552" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K552" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L552" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M552" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N552" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O552" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P552" t="s">
         <v>22</v>
       </c>
       <c r="Q552" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R552" t="b">
         <v>0</v>
@@ -39005,7 +39015,7 @@
         <v>705</v>
       </c>
       <c r="W552" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="553" spans="1:23">
@@ -39013,52 +39023,52 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>106.414</v>
+        <v>68</v>
       </c>
       <c r="C553" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D553" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E553" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F553" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G553" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H553" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I553" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J553" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K553" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L553" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M553" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N553" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O553" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P553" t="s">
         <v>22</v>
       </c>
       <c r="Q553" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R553" t="b">
         <v>0</v>
@@ -39076,7 +39086,7 @@
         <v>705</v>
       </c>
       <c r="W553" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="554" spans="1:23">
@@ -39084,52 +39094,52 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>70.46899999999999</v>
+        <v>76.215</v>
       </c>
       <c r="C554" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D554" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E554" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F554" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G554" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H554" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I554" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J554" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K554" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L554" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M554" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N554" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O554" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P554" t="s">
         <v>22</v>
       </c>
       <c r="Q554" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R554" t="b">
         <v>0</v>
@@ -39147,7 +39157,7 @@
         <v>705</v>
       </c>
       <c r="W554" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="555" spans="1:23">
@@ -39155,61 +39165,61 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>76.129</v>
+        <v>78</v>
       </c>
       <c r="C555" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D555" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E555" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F555" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G555" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H555" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I555" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J555" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K555" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L555" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M555" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N555" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O555" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P555" t="s">
         <v>22</v>
       </c>
       <c r="Q555" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S555" t="s">
         <v>24</v>
       </c>
       <c r="T555" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U555" t="n">
         <v>722</v>
@@ -39218,7 +39228,7 @@
         <v>705</v>
       </c>
       <c r="W555" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="556" spans="1:23">
@@ -39226,52 +39236,52 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>594.8258</v>
+        <v>137.67</v>
       </c>
       <c r="C556" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D556" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E556" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F556" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G556" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H556" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I556" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J556" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K556" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L556" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M556" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N556" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O556" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P556" t="s">
         <v>22</v>
       </c>
       <c r="Q556" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R556" t="b">
         <v>1</v>
@@ -39289,7 +39299,7 @@
         <v>705</v>
       </c>
       <c r="W556" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="557" spans="1:23">
@@ -39297,52 +39307,52 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>407.9964</v>
+        <v>80</v>
       </c>
       <c r="C557" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D557" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E557" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F557" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G557" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H557" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I557" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J557" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K557" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L557" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M557" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N557" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O557" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P557" t="s">
         <v>22</v>
       </c>
       <c r="Q557" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R557" t="b">
         <v>1</v>
@@ -39360,7 +39370,7 @@
         <v>705</v>
       </c>
       <c r="W557" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="558" spans="1:23">
@@ -39368,52 +39378,52 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>525.3626</v>
+        <v>116.021</v>
       </c>
       <c r="C558" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D558" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E558" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F558" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G558" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H558" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I558" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J558" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K558" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L558" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M558" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N558" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O558" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P558" t="s">
         <v>22</v>
       </c>
       <c r="Q558" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R558" t="b">
         <v>1</v>
@@ -39431,7 +39441,7 @@
         <v>705</v>
       </c>
       <c r="W558" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="559" spans="1:23">
@@ -39439,52 +39449,52 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>142.9768</v>
+        <v>80</v>
       </c>
       <c r="C559" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D559" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E559" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F559" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G559" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H559" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I559" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J559" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K559" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L559" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M559" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N559" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O559" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P559" t="s">
         <v>22</v>
       </c>
       <c r="Q559" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R559" t="b">
         <v>0</v>
@@ -39510,52 +39520,52 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>76.0656</v>
+        <v>81.4008</v>
       </c>
       <c r="C560" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D560" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E560" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F560" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G560" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H560" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I560" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J560" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K560" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L560" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M560" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N560" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O560" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P560" t="s">
         <v>22</v>
       </c>
       <c r="Q560" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R560" t="b">
         <v>0</v>
@@ -39581,52 +39591,52 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>129.7764</v>
+        <v>76.03440000000001</v>
       </c>
       <c r="C561" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D561" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E561" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F561" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G561" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H561" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I561" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J561" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K561" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L561" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M561" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N561" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O561" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P561" t="s">
         <v>22</v>
       </c>
       <c r="Q561" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R561" t="b">
         <v>0</v>
@@ -39652,52 +39662,52 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>76.1748</v>
+        <v>81.86879999999999</v>
       </c>
       <c r="C562" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D562" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E562" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F562" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G562" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H562" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I562" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J562" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K562" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L562" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M562" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N562" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O562" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P562" t="s">
         <v>22</v>
       </c>
       <c r="Q562" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R562" t="b">
         <v>0</v>
@@ -39723,46 +39733,46 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>276.8532</v>
+        <v>269.347</v>
       </c>
       <c r="C563" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D563" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E563" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F563" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G563" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H563" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I563" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J563" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K563" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L563" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M563" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N563" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O563" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P563" t="s">
         <v>22</v>
@@ -39784,46 +39794,46 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>56.1912</v>
+        <v>78.261</v>
       </c>
       <c r="C564" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D564" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E564" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F564" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G564" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H564" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I564" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J564" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K564" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L564" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M564" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N564" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O564" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P564" t="s">
         <v>22</v>
@@ -39845,46 +39855,46 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>388.7208</v>
+        <v>478.7172</v>
       </c>
       <c r="C565" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D565" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E565" t="n">
-        <v>0.51875</v>
+        <v>0.5453125</v>
       </c>
       <c r="F565" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G565" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H565" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I565" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J565" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K565" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L565" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M565" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N565" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O565" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P565" t="s">
         <v>22</v>
@@ -39916,46 +39926,46 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>400.7952</v>
+        <v>505.083</v>
       </c>
       <c r="C566" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D566" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E566" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F566" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G566" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H566" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I566" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J566" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K566" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L566" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M566" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N566" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O566" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P566" t="s">
         <v>22</v>
@@ -39987,46 +39997,46 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>403.6344</v>
+        <v>648.8584</v>
       </c>
       <c r="C567" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D567" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E567" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F567" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G567" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H567" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I567" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J567" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K567" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L567" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M567" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N567" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O567" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P567" t="s">
         <v>22</v>
@@ -40058,46 +40068,46 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>563.0976000000001</v>
+        <v>1266.1384</v>
       </c>
       <c r="C568" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D568" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E568" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F568" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G568" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H568" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I568" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J568" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K568" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L568" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M568" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N568" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O568" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P568" t="s">
         <v>22</v>
@@ -40129,46 +40139,46 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>66.0972</v>
+        <v>80.411</v>
       </c>
       <c r="C569" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D569" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E569" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F569" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G569" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H569" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I569" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J569" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K569" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L569" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M569" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N569" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O569" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P569" t="s">
         <v>22</v>
@@ -40200,46 +40210,46 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>78.2496</v>
+        <v>106.414</v>
       </c>
       <c r="C570" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D570" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E570" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F570" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G570" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H570" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I570" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J570" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K570" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L570" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M570" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N570" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O570" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P570" t="s">
         <v>22</v>
@@ -40271,46 +40281,46 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>142.3344</v>
+        <v>70.46899999999999</v>
       </c>
       <c r="C571" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D571" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E571" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F571" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G571" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H571" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I571" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J571" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K571" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L571" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M571" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N571" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O571" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P571" t="s">
         <v>22</v>
@@ -40342,46 +40352,46 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>71.0424</v>
+        <v>76.129</v>
       </c>
       <c r="C572" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D572" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E572" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F572" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G572" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H572" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I572" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J572" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K572" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L572" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M572" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N572" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O572" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P572" t="s">
         <v>22</v>
@@ -40413,46 +40423,46 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>331.5936</v>
+        <v>594.8258</v>
       </c>
       <c r="C573" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D573" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E573" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F573" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G573" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H573" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I573" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J573" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K573" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L573" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M573" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N573" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O573" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P573" t="s">
         <v>22</v>
@@ -40484,46 +40494,46 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>522.8028</v>
+        <v>407.9964</v>
       </c>
       <c r="C574" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D574" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E574" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F574" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G574" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H574" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I574" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J574" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K574" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L574" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M574" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N574" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O574" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P574" t="s">
         <v>22</v>
@@ -40555,46 +40565,46 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>471.7752</v>
+        <v>525.3626</v>
       </c>
       <c r="C575" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D575" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E575" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F575" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G575" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H575" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I575" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J575" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K575" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L575" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M575" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N575" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O575" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P575" t="s">
         <v>22</v>
@@ -40626,46 +40636,46 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>475.4412</v>
+        <v>616.2468</v>
       </c>
       <c r="C576" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D576" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E576" t="n">
-        <v>0.51875</v>
+        <v>0.5453125</v>
       </c>
       <c r="F576" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G576" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H576" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I576" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J576" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K576" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L576" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M576" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N576" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O576" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P576" t="s">
         <v>22</v>
@@ -40697,46 +40707,46 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>78.8892</v>
+        <v>142.9768</v>
       </c>
       <c r="C577" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D577" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E577" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F577" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G577" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H577" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I577" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J577" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K577" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L577" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M577" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N577" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O577" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P577" t="s">
         <v>22</v>
@@ -40768,46 +40778,46 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>81.30719999999999</v>
+        <v>76.0656</v>
       </c>
       <c r="C578" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D578" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E578" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F578" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G578" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H578" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I578" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J578" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K578" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L578" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M578" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N578" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O578" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P578" t="s">
         <v>22</v>
@@ -40839,46 +40849,46 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>71.19840000000001</v>
+        <v>129.7764</v>
       </c>
       <c r="C579" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D579" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E579" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F579" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G579" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H579" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I579" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J579" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K579" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L579" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M579" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N579" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O579" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P579" t="s">
         <v>22</v>
@@ -40910,46 +40920,46 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>78.3432</v>
+        <v>76.1748</v>
       </c>
       <c r="C580" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D580" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E580" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F580" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G580" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H580" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I580" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J580" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K580" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L580" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M580" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N580" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O580" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P580" t="s">
         <v>22</v>
@@ -40973,6 +40983,4409 @@
         <v>705</v>
       </c>
       <c r="W580" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="581" spans="1:23">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>276.8532</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D581" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G581" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H581" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J581" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K581" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L581" t="n">
+        <v>497</v>
+      </c>
+      <c r="M581" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N581" t="n">
+        <v>628</v>
+      </c>
+      <c r="O581" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P581" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q581" t="s">
+        <v>23</v>
+      </c>
+      <c r="R581" t="b">
+        <v>1</v>
+      </c>
+      <c r="S581" t="s"/>
+      <c r="T581" t="s"/>
+      <c r="U581" t="s"/>
+      <c r="V581" t="s"/>
+      <c r="W581" t="s"/>
+    </row>
+    <row r="582" spans="1:23">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>56.1912</v>
+      </c>
+      <c r="C582" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D582" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G582" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H582" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J582" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K582" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L582" t="n">
+        <v>497</v>
+      </c>
+      <c r="M582" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N582" t="n">
+        <v>628</v>
+      </c>
+      <c r="O582" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P582" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q582" t="s">
+        <v>23</v>
+      </c>
+      <c r="R582" t="b">
+        <v>0</v>
+      </c>
+      <c r="S582" t="s"/>
+      <c r="T582" t="s"/>
+      <c r="U582" t="s"/>
+      <c r="V582" t="s"/>
+      <c r="W582" t="s"/>
+    </row>
+    <row r="583" spans="1:23">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>388.7208</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D583" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E583" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G583" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H583" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J583" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K583" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L583" t="n">
+        <v>497</v>
+      </c>
+      <c r="M583" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N583" t="n">
+        <v>628</v>
+      </c>
+      <c r="O583" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P583" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q583" t="s">
+        <v>23</v>
+      </c>
+      <c r="R583" t="b">
+        <v>1</v>
+      </c>
+      <c r="S583" t="s">
+        <v>24</v>
+      </c>
+      <c r="T583" t="n">
+        <v>707</v>
+      </c>
+      <c r="U583" t="n">
+        <v>722</v>
+      </c>
+      <c r="V583" t="n">
+        <v>705</v>
+      </c>
+      <c r="W583" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="584" spans="1:23">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>400.7952</v>
+      </c>
+      <c r="C584" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D584" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G584" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H584" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J584" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L584" t="n">
+        <v>497</v>
+      </c>
+      <c r="M584" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N584" t="n">
+        <v>628</v>
+      </c>
+      <c r="O584" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P584" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q584" t="s">
+        <v>23</v>
+      </c>
+      <c r="R584" t="b">
+        <v>1</v>
+      </c>
+      <c r="S584" t="s">
+        <v>24</v>
+      </c>
+      <c r="T584" t="n">
+        <v>707</v>
+      </c>
+      <c r="U584" t="n">
+        <v>722</v>
+      </c>
+      <c r="V584" t="n">
+        <v>705</v>
+      </c>
+      <c r="W584" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="585" spans="1:23">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>403.6344</v>
+      </c>
+      <c r="C585" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D585" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G585" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H585" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J585" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K585" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L585" t="n">
+        <v>497</v>
+      </c>
+      <c r="M585" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N585" t="n">
+        <v>628</v>
+      </c>
+      <c r="O585" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P585" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q585" t="s">
+        <v>23</v>
+      </c>
+      <c r="R585" t="b">
+        <v>1</v>
+      </c>
+      <c r="S585" t="s">
+        <v>24</v>
+      </c>
+      <c r="T585" t="n">
+        <v>707</v>
+      </c>
+      <c r="U585" t="n">
+        <v>722</v>
+      </c>
+      <c r="V585" t="n">
+        <v>705</v>
+      </c>
+      <c r="W585" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="586" spans="1:23">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>563.0976000000001</v>
+      </c>
+      <c r="C586" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D586" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E586" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G586" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H586" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J586" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K586" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L586" t="n">
+        <v>497</v>
+      </c>
+      <c r="M586" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N586" t="n">
+        <v>628</v>
+      </c>
+      <c r="O586" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P586" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q586" t="s">
+        <v>23</v>
+      </c>
+      <c r="R586" t="b">
+        <v>1</v>
+      </c>
+      <c r="S586" t="s">
+        <v>24</v>
+      </c>
+      <c r="T586" t="n">
+        <v>707</v>
+      </c>
+      <c r="U586" t="n">
+        <v>722</v>
+      </c>
+      <c r="V586" t="n">
+        <v>705</v>
+      </c>
+      <c r="W586" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="587" spans="1:23">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>66.0972</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D587" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G587" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H587" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J587" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K587" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L587" t="n">
+        <v>497</v>
+      </c>
+      <c r="M587" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N587" t="n">
+        <v>628</v>
+      </c>
+      <c r="O587" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P587" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q587" t="s">
+        <v>23</v>
+      </c>
+      <c r="R587" t="b">
+        <v>0</v>
+      </c>
+      <c r="S587" t="s">
+        <v>24</v>
+      </c>
+      <c r="T587" t="n">
+        <v>707</v>
+      </c>
+      <c r="U587" t="n">
+        <v>722</v>
+      </c>
+      <c r="V587" t="n">
+        <v>705</v>
+      </c>
+      <c r="W587" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="588" spans="1:23">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>78.2496</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D588" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G588" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H588" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J588" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K588" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L588" t="n">
+        <v>497</v>
+      </c>
+      <c r="M588" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N588" t="n">
+        <v>628</v>
+      </c>
+      <c r="O588" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P588" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q588" t="s">
+        <v>23</v>
+      </c>
+      <c r="R588" t="b">
+        <v>0</v>
+      </c>
+      <c r="S588" t="s">
+        <v>24</v>
+      </c>
+      <c r="T588" t="n">
+        <v>707</v>
+      </c>
+      <c r="U588" t="n">
+        <v>722</v>
+      </c>
+      <c r="V588" t="n">
+        <v>705</v>
+      </c>
+      <c r="W588" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="589" spans="1:23">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>142.3344</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D589" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G589" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H589" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J589" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K589" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L589" t="n">
+        <v>497</v>
+      </c>
+      <c r="M589" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N589" t="n">
+        <v>628</v>
+      </c>
+      <c r="O589" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P589" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q589" t="s">
+        <v>23</v>
+      </c>
+      <c r="R589" t="b">
+        <v>0</v>
+      </c>
+      <c r="S589" t="s">
+        <v>24</v>
+      </c>
+      <c r="T589" t="n">
+        <v>707</v>
+      </c>
+      <c r="U589" t="n">
+        <v>722</v>
+      </c>
+      <c r="V589" t="n">
+        <v>705</v>
+      </c>
+      <c r="W589" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="590" spans="1:23">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>71.0424</v>
+      </c>
+      <c r="C590" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D590" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E590" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G590" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H590" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J590" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K590" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L590" t="n">
+        <v>497</v>
+      </c>
+      <c r="M590" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N590" t="n">
+        <v>628</v>
+      </c>
+      <c r="O590" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P590" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q590" t="s">
+        <v>23</v>
+      </c>
+      <c r="R590" t="b">
+        <v>0</v>
+      </c>
+      <c r="S590" t="s">
+        <v>24</v>
+      </c>
+      <c r="T590" t="n">
+        <v>707</v>
+      </c>
+      <c r="U590" t="n">
+        <v>722</v>
+      </c>
+      <c r="V590" t="n">
+        <v>705</v>
+      </c>
+      <c r="W590" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="591" spans="1:23">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>331.5936</v>
+      </c>
+      <c r="C591" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D591" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E591" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G591" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H591" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J591" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K591" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L591" t="n">
+        <v>497</v>
+      </c>
+      <c r="M591" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N591" t="n">
+        <v>628</v>
+      </c>
+      <c r="O591" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P591" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q591" t="s">
+        <v>23</v>
+      </c>
+      <c r="R591" t="b">
+        <v>1</v>
+      </c>
+      <c r="S591" t="s">
+        <v>24</v>
+      </c>
+      <c r="T591" t="n">
+        <v>706</v>
+      </c>
+      <c r="U591" t="n">
+        <v>722</v>
+      </c>
+      <c r="V591" t="n">
+        <v>705</v>
+      </c>
+      <c r="W591" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="592" spans="1:23">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>522.8028</v>
+      </c>
+      <c r="C592" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D592" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G592" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H592" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J592" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K592" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L592" t="n">
+        <v>497</v>
+      </c>
+      <c r="M592" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N592" t="n">
+        <v>628</v>
+      </c>
+      <c r="O592" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P592" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q592" t="s">
+        <v>23</v>
+      </c>
+      <c r="R592" t="b">
+        <v>1</v>
+      </c>
+      <c r="S592" t="s">
+        <v>24</v>
+      </c>
+      <c r="T592" t="n">
+        <v>706</v>
+      </c>
+      <c r="U592" t="n">
+        <v>722</v>
+      </c>
+      <c r="V592" t="n">
+        <v>705</v>
+      </c>
+      <c r="W592" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="593" spans="1:23">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>471.7752</v>
+      </c>
+      <c r="C593" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D593" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G593" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H593" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J593" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K593" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L593" t="n">
+        <v>497</v>
+      </c>
+      <c r="M593" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N593" t="n">
+        <v>628</v>
+      </c>
+      <c r="O593" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P593" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q593" t="s">
+        <v>23</v>
+      </c>
+      <c r="R593" t="b">
+        <v>1</v>
+      </c>
+      <c r="S593" t="s">
+        <v>24</v>
+      </c>
+      <c r="T593" t="n">
+        <v>706</v>
+      </c>
+      <c r="U593" t="n">
+        <v>722</v>
+      </c>
+      <c r="V593" t="n">
+        <v>705</v>
+      </c>
+      <c r="W593" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="594" spans="1:23">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>475.4412</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D594" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G594" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H594" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J594" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L594" t="n">
+        <v>497</v>
+      </c>
+      <c r="M594" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N594" t="n">
+        <v>628</v>
+      </c>
+      <c r="O594" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P594" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q594" t="s">
+        <v>23</v>
+      </c>
+      <c r="R594" t="b">
+        <v>1</v>
+      </c>
+      <c r="S594" t="s">
+        <v>24</v>
+      </c>
+      <c r="T594" t="n">
+        <v>706</v>
+      </c>
+      <c r="U594" t="n">
+        <v>722</v>
+      </c>
+      <c r="V594" t="n">
+        <v>705</v>
+      </c>
+      <c r="W594" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="595" spans="1:23">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>78.8892</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D595" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G595" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H595" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J595" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K595" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L595" t="n">
+        <v>497</v>
+      </c>
+      <c r="M595" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N595" t="n">
+        <v>628</v>
+      </c>
+      <c r="O595" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P595" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q595" t="s">
+        <v>23</v>
+      </c>
+      <c r="R595" t="b">
+        <v>0</v>
+      </c>
+      <c r="S595" t="s">
+        <v>24</v>
+      </c>
+      <c r="T595" t="n">
+        <v>706</v>
+      </c>
+      <c r="U595" t="n">
+        <v>722</v>
+      </c>
+      <c r="V595" t="n">
+        <v>705</v>
+      </c>
+      <c r="W595" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="596" spans="1:23">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>81.30719999999999</v>
+      </c>
+      <c r="C596" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D596" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E596" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G596" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H596" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J596" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L596" t="n">
+        <v>497</v>
+      </c>
+      <c r="M596" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N596" t="n">
+        <v>628</v>
+      </c>
+      <c r="O596" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P596" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q596" t="s">
+        <v>23</v>
+      </c>
+      <c r="R596" t="b">
+        <v>0</v>
+      </c>
+      <c r="S596" t="s">
+        <v>24</v>
+      </c>
+      <c r="T596" t="n">
+        <v>706</v>
+      </c>
+      <c r="U596" t="n">
+        <v>722</v>
+      </c>
+      <c r="V596" t="n">
+        <v>705</v>
+      </c>
+      <c r="W596" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="597" spans="1:23">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>71.19840000000001</v>
+      </c>
+      <c r="C597" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D597" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G597" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H597" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J597" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K597" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L597" t="n">
+        <v>497</v>
+      </c>
+      <c r="M597" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N597" t="n">
+        <v>628</v>
+      </c>
+      <c r="O597" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P597" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q597" t="s">
+        <v>23</v>
+      </c>
+      <c r="R597" t="b">
+        <v>0</v>
+      </c>
+      <c r="S597" t="s">
+        <v>24</v>
+      </c>
+      <c r="T597" t="n">
+        <v>706</v>
+      </c>
+      <c r="U597" t="n">
+        <v>722</v>
+      </c>
+      <c r="V597" t="n">
+        <v>705</v>
+      </c>
+      <c r="W597" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="598" spans="1:23">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>78.3432</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1.36328125</v>
+      </c>
+      <c r="D598" t="n">
+        <v>9.531250000000001e-09</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="G598" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="H598" t="n">
+        <v>7.890625000000001e-09</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0.331640625</v>
+      </c>
+      <c r="J598" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="K598" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="L598" t="n">
+        <v>497</v>
+      </c>
+      <c r="M598" t="n">
+        <v>0.018828125</v>
+      </c>
+      <c r="N598" t="n">
+        <v>628</v>
+      </c>
+      <c r="O598" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P598" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q598" t="s">
+        <v>23</v>
+      </c>
+      <c r="R598" t="b">
+        <v>0</v>
+      </c>
+      <c r="S598" t="s">
+        <v>24</v>
+      </c>
+      <c r="T598" t="n">
+        <v>706</v>
+      </c>
+      <c r="U598" t="n">
+        <v>722</v>
+      </c>
+      <c r="V598" t="n">
+        <v>705</v>
+      </c>
+      <c r="W598" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="599" spans="1:23">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>15134.674106</v>
+      </c>
+      <c r="C599" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D599" t="n">
+        <v>8.980468750000001e-09</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.440625</v>
+      </c>
+      <c r="F599" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="G599" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="H599" t="n">
+        <v>7.656249999999999e-09</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0.10078125</v>
+      </c>
+      <c r="J599" t="n">
+        <v>225</v>
+      </c>
+      <c r="K599" t="n">
+        <v>0.309375</v>
+      </c>
+      <c r="L599" t="n">
+        <v>494</v>
+      </c>
+      <c r="M599" t="n">
+        <v>0.01126953125</v>
+      </c>
+      <c r="N599" t="n">
+        <v>520</v>
+      </c>
+      <c r="O599" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P599" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q599" t="s">
+        <v>25</v>
+      </c>
+      <c r="R599" t="b">
+        <v>1</v>
+      </c>
+      <c r="S599" t="s"/>
+      <c r="T599" t="s"/>
+      <c r="U599" t="s"/>
+      <c r="V599" t="s"/>
+      <c r="W599" t="s"/>
+    </row>
+    <row r="600" spans="1:23">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>27787.658179</v>
+      </c>
+      <c r="C600" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D600" t="n">
+        <v>8.980468750000001e-09</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.440625</v>
+      </c>
+      <c r="F600" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="G600" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="H600" t="n">
+        <v>7.656249999999999e-09</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.10078125</v>
+      </c>
+      <c r="J600" t="n">
+        <v>225</v>
+      </c>
+      <c r="K600" t="n">
+        <v>0.309375</v>
+      </c>
+      <c r="L600" t="n">
+        <v>494</v>
+      </c>
+      <c r="M600" t="n">
+        <v>0.01126953125</v>
+      </c>
+      <c r="N600" t="n">
+        <v>520</v>
+      </c>
+      <c r="O600" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P600" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q600" t="s">
+        <v>25</v>
+      </c>
+      <c r="R600" t="b">
+        <v>1</v>
+      </c>
+      <c r="S600" t="s">
+        <v>24</v>
+      </c>
+      <c r="T600" t="n">
+        <v>707</v>
+      </c>
+      <c r="U600" t="n">
+        <v>722</v>
+      </c>
+      <c r="V600" t="n">
+        <v>705</v>
+      </c>
+      <c r="W600" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="601" spans="1:23">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>41261.205517</v>
+      </c>
+      <c r="C601" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D601" t="n">
+        <v>8.980468750000001e-09</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.440625</v>
+      </c>
+      <c r="F601" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="G601" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="H601" t="n">
+        <v>7.656249999999999e-09</v>
+      </c>
+      <c r="I601" t="n">
+        <v>0.10078125</v>
+      </c>
+      <c r="J601" t="n">
+        <v>225</v>
+      </c>
+      <c r="K601" t="n">
+        <v>0.309375</v>
+      </c>
+      <c r="L601" t="n">
+        <v>494</v>
+      </c>
+      <c r="M601" t="n">
+        <v>0.01126953125</v>
+      </c>
+      <c r="N601" t="n">
+        <v>520</v>
+      </c>
+      <c r="O601" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P601" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q601" t="s">
+        <v>25</v>
+      </c>
+      <c r="R601" t="b">
+        <v>1</v>
+      </c>
+      <c r="S601" t="s">
+        <v>24</v>
+      </c>
+      <c r="T601" t="n">
+        <v>707</v>
+      </c>
+      <c r="U601" t="n">
+        <v>722</v>
+      </c>
+      <c r="V601" t="n">
+        <v>705</v>
+      </c>
+      <c r="W601" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="602" spans="1:23">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>41526.577117</v>
+      </c>
+      <c r="C602" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D602" t="n">
+        <v>8.980468750000001e-09</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.440625</v>
+      </c>
+      <c r="F602" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="G602" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="H602" t="n">
+        <v>7.656249999999999e-09</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0.10078125</v>
+      </c>
+      <c r="J602" t="n">
+        <v>225</v>
+      </c>
+      <c r="K602" t="n">
+        <v>0.309375</v>
+      </c>
+      <c r="L602" t="n">
+        <v>494</v>
+      </c>
+      <c r="M602" t="n">
+        <v>0.01126953125</v>
+      </c>
+      <c r="N602" t="n">
+        <v>520</v>
+      </c>
+      <c r="O602" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P602" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q602" t="s">
+        <v>25</v>
+      </c>
+      <c r="R602" t="b">
+        <v>1</v>
+      </c>
+      <c r="S602" t="s">
+        <v>24</v>
+      </c>
+      <c r="T602" t="n">
+        <v>707</v>
+      </c>
+      <c r="U602" t="n">
+        <v>722</v>
+      </c>
+      <c r="V602" t="n">
+        <v>705</v>
+      </c>
+      <c r="W602" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="603" spans="1:23">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>51941.939778</v>
+      </c>
+      <c r="C603" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D603" t="n">
+        <v>8.980468750000001e-09</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0.440625</v>
+      </c>
+      <c r="F603" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="G603" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="H603" t="n">
+        <v>7.656249999999999e-09</v>
+      </c>
+      <c r="I603" t="n">
+        <v>0.10078125</v>
+      </c>
+      <c r="J603" t="n">
+        <v>225</v>
+      </c>
+      <c r="K603" t="n">
+        <v>0.309375</v>
+      </c>
+      <c r="L603" t="n">
+        <v>494</v>
+      </c>
+      <c r="M603" t="n">
+        <v>0.01126953125</v>
+      </c>
+      <c r="N603" t="n">
+        <v>520</v>
+      </c>
+      <c r="O603" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P603" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q603" t="s">
+        <v>25</v>
+      </c>
+      <c r="R603" t="b">
+        <v>1</v>
+      </c>
+      <c r="S603" t="s">
+        <v>24</v>
+      </c>
+      <c r="T603" t="n">
+        <v>707</v>
+      </c>
+      <c r="U603" t="n">
+        <v>722</v>
+      </c>
+      <c r="V603" t="n">
+        <v>705</v>
+      </c>
+      <c r="W603" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="604" spans="1:23">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>27837.437779</v>
+      </c>
+      <c r="C604" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D604" t="n">
+        <v>8.980468750000001e-09</v>
+      </c>
+      <c r="E604" t="n">
+        <v>0.440625</v>
+      </c>
+      <c r="F604" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="G604" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="H604" t="n">
+        <v>7.656249999999999e-09</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0.10078125</v>
+      </c>
+      <c r="J604" t="n">
+        <v>225</v>
+      </c>
+      <c r="K604" t="n">
+        <v>0.309375</v>
+      </c>
+      <c r="L604" t="n">
+        <v>494</v>
+      </c>
+      <c r="M604" t="n">
+        <v>0.01126953125</v>
+      </c>
+      <c r="N604" t="n">
+        <v>520</v>
+      </c>
+      <c r="O604" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P604" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q604" t="s">
+        <v>25</v>
+      </c>
+      <c r="R604" t="b">
+        <v>1</v>
+      </c>
+      <c r="S604" t="s">
+        <v>24</v>
+      </c>
+      <c r="T604" t="n">
+        <v>706</v>
+      </c>
+      <c r="U604" t="n">
+        <v>722</v>
+      </c>
+      <c r="V604" t="n">
+        <v>705</v>
+      </c>
+      <c r="W604" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="605" spans="1:23">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>41440.823917</v>
+      </c>
+      <c r="C605" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D605" t="n">
+        <v>8.980468750000001e-09</v>
+      </c>
+      <c r="E605" t="n">
+        <v>0.440625</v>
+      </c>
+      <c r="F605" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="G605" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="H605" t="n">
+        <v>7.656249999999999e-09</v>
+      </c>
+      <c r="I605" t="n">
+        <v>0.10078125</v>
+      </c>
+      <c r="J605" t="n">
+        <v>225</v>
+      </c>
+      <c r="K605" t="n">
+        <v>0.309375</v>
+      </c>
+      <c r="L605" t="n">
+        <v>494</v>
+      </c>
+      <c r="M605" t="n">
+        <v>0.01126953125</v>
+      </c>
+      <c r="N605" t="n">
+        <v>520</v>
+      </c>
+      <c r="O605" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P605" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q605" t="s">
+        <v>25</v>
+      </c>
+      <c r="R605" t="b">
+        <v>1</v>
+      </c>
+      <c r="S605" t="s">
+        <v>24</v>
+      </c>
+      <c r="T605" t="n">
+        <v>706</v>
+      </c>
+      <c r="U605" t="n">
+        <v>722</v>
+      </c>
+      <c r="V605" t="n">
+        <v>705</v>
+      </c>
+      <c r="W605" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="606" spans="1:23">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>40094.419672</v>
+      </c>
+      <c r="C606" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D606" t="n">
+        <v>8.980468750000001e-09</v>
+      </c>
+      <c r="E606" t="n">
+        <v>0.440625</v>
+      </c>
+      <c r="F606" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="G606" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="H606" t="n">
+        <v>7.656249999999999e-09</v>
+      </c>
+      <c r="I606" t="n">
+        <v>0.10078125</v>
+      </c>
+      <c r="J606" t="n">
+        <v>225</v>
+      </c>
+      <c r="K606" t="n">
+        <v>0.309375</v>
+      </c>
+      <c r="L606" t="n">
+        <v>494</v>
+      </c>
+      <c r="M606" t="n">
+        <v>0.01126953125</v>
+      </c>
+      <c r="N606" t="n">
+        <v>520</v>
+      </c>
+      <c r="O606" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P606" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q606" t="s">
+        <v>25</v>
+      </c>
+      <c r="R606" t="b">
+        <v>1</v>
+      </c>
+      <c r="S606" t="s">
+        <v>24</v>
+      </c>
+      <c r="T606" t="n">
+        <v>706</v>
+      </c>
+      <c r="U606" t="n">
+        <v>722</v>
+      </c>
+      <c r="V606" t="n">
+        <v>705</v>
+      </c>
+      <c r="W606" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="607" spans="1:23">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>44720.214012</v>
+      </c>
+      <c r="C607" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D607" t="n">
+        <v>8.980468750000001e-09</v>
+      </c>
+      <c r="E607" t="n">
+        <v>0.440625</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="G607" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="H607" t="n">
+        <v>7.656249999999999e-09</v>
+      </c>
+      <c r="I607" t="n">
+        <v>0.10078125</v>
+      </c>
+      <c r="J607" t="n">
+        <v>225</v>
+      </c>
+      <c r="K607" t="n">
+        <v>0.309375</v>
+      </c>
+      <c r="L607" t="n">
+        <v>494</v>
+      </c>
+      <c r="M607" t="n">
+        <v>0.01126953125</v>
+      </c>
+      <c r="N607" t="n">
+        <v>520</v>
+      </c>
+      <c r="O607" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P607" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q607" t="s">
+        <v>25</v>
+      </c>
+      <c r="R607" t="b">
+        <v>1</v>
+      </c>
+      <c r="S607" t="s">
+        <v>24</v>
+      </c>
+      <c r="T607" t="n">
+        <v>706</v>
+      </c>
+      <c r="U607" t="n">
+        <v>722</v>
+      </c>
+      <c r="V607" t="n">
+        <v>705</v>
+      </c>
+      <c r="W607" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="608" spans="1:23">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>697.944</v>
+      </c>
+      <c r="C608" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D608" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E608" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F608" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G608" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H608" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I608" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J608" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K608" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L608" t="n">
+        <v>467</v>
+      </c>
+      <c r="M608" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N608" t="n">
+        <v>629</v>
+      </c>
+      <c r="O608" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P608" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q608" t="s">
+        <v>25</v>
+      </c>
+      <c r="R608" t="b">
+        <v>1</v>
+      </c>
+      <c r="S608" t="s"/>
+      <c r="T608" t="s"/>
+      <c r="U608" t="s"/>
+      <c r="V608" t="s"/>
+      <c r="W608" t="s"/>
+    </row>
+    <row r="609" spans="1:23">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>78.8112</v>
+      </c>
+      <c r="C609" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D609" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E609" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F609" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G609" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H609" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I609" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J609" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K609" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L609" t="n">
+        <v>467</v>
+      </c>
+      <c r="M609" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N609" t="n">
+        <v>629</v>
+      </c>
+      <c r="O609" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P609" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q609" t="s">
+        <v>25</v>
+      </c>
+      <c r="R609" t="b">
+        <v>0</v>
+      </c>
+      <c r="S609" t="s"/>
+      <c r="T609" t="s"/>
+      <c r="U609" t="s"/>
+      <c r="V609" t="s"/>
+      <c r="W609" t="s"/>
+    </row>
+    <row r="610" spans="1:23">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>730.7976</v>
+      </c>
+      <c r="C610" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D610" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E610" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G610" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H610" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I610" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J610" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K610" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L610" t="n">
+        <v>467</v>
+      </c>
+      <c r="M610" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N610" t="n">
+        <v>629</v>
+      </c>
+      <c r="O610" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P610" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q610" t="s">
+        <v>25</v>
+      </c>
+      <c r="R610" t="b">
+        <v>1</v>
+      </c>
+      <c r="S610" t="s">
+        <v>24</v>
+      </c>
+      <c r="T610" t="n">
+        <v>707</v>
+      </c>
+      <c r="U610" t="n">
+        <v>722</v>
+      </c>
+      <c r="V610" t="n">
+        <v>705</v>
+      </c>
+      <c r="W610" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="611" spans="1:23">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>614.0628</v>
+      </c>
+      <c r="C611" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D611" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E611" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G611" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H611" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J611" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K611" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L611" t="n">
+        <v>467</v>
+      </c>
+      <c r="M611" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N611" t="n">
+        <v>629</v>
+      </c>
+      <c r="O611" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P611" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q611" t="s">
+        <v>25</v>
+      </c>
+      <c r="R611" t="b">
+        <v>1</v>
+      </c>
+      <c r="S611" t="s">
+        <v>24</v>
+      </c>
+      <c r="T611" t="n">
+        <v>707</v>
+      </c>
+      <c r="U611" t="n">
+        <v>722</v>
+      </c>
+      <c r="V611" t="n">
+        <v>705</v>
+      </c>
+      <c r="W611" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="612" spans="1:23">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>734.4012</v>
+      </c>
+      <c r="C612" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D612" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G612" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H612" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J612" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K612" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L612" t="n">
+        <v>467</v>
+      </c>
+      <c r="M612" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N612" t="n">
+        <v>629</v>
+      </c>
+      <c r="O612" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P612" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q612" t="s">
+        <v>25</v>
+      </c>
+      <c r="R612" t="b">
+        <v>1</v>
+      </c>
+      <c r="S612" t="s">
+        <v>24</v>
+      </c>
+      <c r="T612" t="n">
+        <v>707</v>
+      </c>
+      <c r="U612" t="n">
+        <v>722</v>
+      </c>
+      <c r="V612" t="n">
+        <v>705</v>
+      </c>
+      <c r="W612" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="613" spans="1:23">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>1109.5968</v>
+      </c>
+      <c r="C613" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D613" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G613" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H613" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J613" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K613" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L613" t="n">
+        <v>467</v>
+      </c>
+      <c r="M613" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N613" t="n">
+        <v>629</v>
+      </c>
+      <c r="O613" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P613" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q613" t="s">
+        <v>25</v>
+      </c>
+      <c r="R613" t="b">
+        <v>1</v>
+      </c>
+      <c r="S613" t="s">
+        <v>24</v>
+      </c>
+      <c r="T613" t="n">
+        <v>707</v>
+      </c>
+      <c r="U613" t="n">
+        <v>722</v>
+      </c>
+      <c r="V613" t="n">
+        <v>705</v>
+      </c>
+      <c r="W613" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="614" spans="1:23">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>76.128</v>
+      </c>
+      <c r="C614" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D614" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G614" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H614" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J614" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K614" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L614" t="n">
+        <v>467</v>
+      </c>
+      <c r="M614" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N614" t="n">
+        <v>629</v>
+      </c>
+      <c r="O614" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P614" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q614" t="s">
+        <v>25</v>
+      </c>
+      <c r="R614" t="b">
+        <v>0</v>
+      </c>
+      <c r="S614" t="s">
+        <v>24</v>
+      </c>
+      <c r="T614" t="n">
+        <v>707</v>
+      </c>
+      <c r="U614" t="n">
+        <v>722</v>
+      </c>
+      <c r="V614" t="n">
+        <v>705</v>
+      </c>
+      <c r="W614" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="615" spans="1:23">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>75.9252</v>
+      </c>
+      <c r="C615" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D615" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G615" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H615" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J615" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L615" t="n">
+        <v>467</v>
+      </c>
+      <c r="M615" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N615" t="n">
+        <v>629</v>
+      </c>
+      <c r="O615" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P615" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q615" t="s">
+        <v>25</v>
+      </c>
+      <c r="R615" t="b">
+        <v>0</v>
+      </c>
+      <c r="S615" t="s">
+        <v>24</v>
+      </c>
+      <c r="T615" t="n">
+        <v>707</v>
+      </c>
+      <c r="U615" t="n">
+        <v>722</v>
+      </c>
+      <c r="V615" t="n">
+        <v>705</v>
+      </c>
+      <c r="W615" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="616" spans="1:23">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>79.248</v>
+      </c>
+      <c r="C616" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D616" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G616" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H616" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J616" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K616" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L616" t="n">
+        <v>467</v>
+      </c>
+      <c r="M616" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N616" t="n">
+        <v>629</v>
+      </c>
+      <c r="O616" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P616" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q616" t="s">
+        <v>25</v>
+      </c>
+      <c r="R616" t="b">
+        <v>0</v>
+      </c>
+      <c r="S616" t="s">
+        <v>24</v>
+      </c>
+      <c r="T616" t="n">
+        <v>707</v>
+      </c>
+      <c r="U616" t="n">
+        <v>722</v>
+      </c>
+      <c r="V616" t="n">
+        <v>705</v>
+      </c>
+      <c r="W616" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="617" spans="1:23">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>79.3884</v>
+      </c>
+      <c r="C617" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D617" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G617" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H617" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J617" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K617" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L617" t="n">
+        <v>467</v>
+      </c>
+      <c r="M617" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N617" t="n">
+        <v>629</v>
+      </c>
+      <c r="O617" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P617" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q617" t="s">
+        <v>25</v>
+      </c>
+      <c r="R617" t="b">
+        <v>0</v>
+      </c>
+      <c r="S617" t="s">
+        <v>24</v>
+      </c>
+      <c r="T617" t="n">
+        <v>707</v>
+      </c>
+      <c r="U617" t="n">
+        <v>722</v>
+      </c>
+      <c r="V617" t="n">
+        <v>705</v>
+      </c>
+      <c r="W617" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="618" spans="1:23">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>530.1660000000001</v>
+      </c>
+      <c r="C618" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D618" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E618" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G618" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H618" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J618" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K618" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L618" t="n">
+        <v>467</v>
+      </c>
+      <c r="M618" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N618" t="n">
+        <v>629</v>
+      </c>
+      <c r="O618" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P618" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q618" t="s">
+        <v>25</v>
+      </c>
+      <c r="R618" t="b">
+        <v>1</v>
+      </c>
+      <c r="S618" t="s">
+        <v>24</v>
+      </c>
+      <c r="T618" t="n">
+        <v>706</v>
+      </c>
+      <c r="U618" t="n">
+        <v>722</v>
+      </c>
+      <c r="V618" t="n">
+        <v>705</v>
+      </c>
+      <c r="W618" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="619" spans="1:23">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>898.4664</v>
+      </c>
+      <c r="C619" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D619" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E619" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G619" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H619" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J619" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K619" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L619" t="n">
+        <v>467</v>
+      </c>
+      <c r="M619" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N619" t="n">
+        <v>629</v>
+      </c>
+      <c r="O619" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P619" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q619" t="s">
+        <v>25</v>
+      </c>
+      <c r="R619" t="b">
+        <v>1</v>
+      </c>
+      <c r="S619" t="s">
+        <v>24</v>
+      </c>
+      <c r="T619" t="n">
+        <v>706</v>
+      </c>
+      <c r="U619" t="n">
+        <v>722</v>
+      </c>
+      <c r="V619" t="n">
+        <v>705</v>
+      </c>
+      <c r="W619" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="620" spans="1:23">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>691.0176</v>
+      </c>
+      <c r="C620" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D620" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E620" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G620" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H620" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J620" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K620" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L620" t="n">
+        <v>467</v>
+      </c>
+      <c r="M620" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N620" t="n">
+        <v>629</v>
+      </c>
+      <c r="O620" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P620" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q620" t="s">
+        <v>25</v>
+      </c>
+      <c r="R620" t="b">
+        <v>1</v>
+      </c>
+      <c r="S620" t="s">
+        <v>24</v>
+      </c>
+      <c r="T620" t="n">
+        <v>706</v>
+      </c>
+      <c r="U620" t="n">
+        <v>722</v>
+      </c>
+      <c r="V620" t="n">
+        <v>705</v>
+      </c>
+      <c r="W620" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="621" spans="1:23">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>799.9836</v>
+      </c>
+      <c r="C621" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D621" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E621" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G621" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H621" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J621" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K621" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L621" t="n">
+        <v>467</v>
+      </c>
+      <c r="M621" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N621" t="n">
+        <v>629</v>
+      </c>
+      <c r="O621" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P621" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q621" t="s">
+        <v>25</v>
+      </c>
+      <c r="R621" t="b">
+        <v>1</v>
+      </c>
+      <c r="S621" t="s">
+        <v>24</v>
+      </c>
+      <c r="T621" t="n">
+        <v>706</v>
+      </c>
+      <c r="U621" t="n">
+        <v>722</v>
+      </c>
+      <c r="V621" t="n">
+        <v>705</v>
+      </c>
+      <c r="W621" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="622" spans="1:23">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>81.432</v>
+      </c>
+      <c r="C622" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D622" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E622" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G622" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H622" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J622" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K622" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L622" t="n">
+        <v>467</v>
+      </c>
+      <c r="M622" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N622" t="n">
+        <v>629</v>
+      </c>
+      <c r="O622" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P622" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q622" t="s">
+        <v>25</v>
+      </c>
+      <c r="R622" t="b">
+        <v>0</v>
+      </c>
+      <c r="S622" t="s">
+        <v>24</v>
+      </c>
+      <c r="T622" t="n">
+        <v>706</v>
+      </c>
+      <c r="U622" t="n">
+        <v>722</v>
+      </c>
+      <c r="V622" t="n">
+        <v>705</v>
+      </c>
+      <c r="W622" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="623" spans="1:23">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>77.2512</v>
+      </c>
+      <c r="C623" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D623" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E623" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G623" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H623" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J623" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K623" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L623" t="n">
+        <v>467</v>
+      </c>
+      <c r="M623" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N623" t="n">
+        <v>629</v>
+      </c>
+      <c r="O623" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P623" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q623" t="s">
+        <v>25</v>
+      </c>
+      <c r="R623" t="b">
+        <v>0</v>
+      </c>
+      <c r="S623" t="s">
+        <v>24</v>
+      </c>
+      <c r="T623" t="n">
+        <v>706</v>
+      </c>
+      <c r="U623" t="n">
+        <v>722</v>
+      </c>
+      <c r="V623" t="n">
+        <v>705</v>
+      </c>
+      <c r="W623" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="624" spans="1:23">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>80.91719999999999</v>
+      </c>
+      <c r="C624" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D624" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E624" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G624" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H624" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J624" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K624" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L624" t="n">
+        <v>467</v>
+      </c>
+      <c r="M624" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N624" t="n">
+        <v>629</v>
+      </c>
+      <c r="O624" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P624" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q624" t="s">
+        <v>25</v>
+      </c>
+      <c r="R624" t="b">
+        <v>0</v>
+      </c>
+      <c r="S624" t="s">
+        <v>24</v>
+      </c>
+      <c r="T624" t="n">
+        <v>706</v>
+      </c>
+      <c r="U624" t="n">
+        <v>722</v>
+      </c>
+      <c r="V624" t="n">
+        <v>705</v>
+      </c>
+      <c r="W624" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="625" spans="1:23">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>76.2684</v>
+      </c>
+      <c r="C625" t="n">
+        <v>2.921875</v>
+      </c>
+      <c r="D625" t="n">
+        <v>4.8203125e-09</v>
+      </c>
+      <c r="E625" t="n">
+        <v>0.7140625</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0.76953125</v>
+      </c>
+      <c r="G625" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H625" t="n">
+        <v>7.97265625e-09</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="J625" t="n">
+        <v>336.09375</v>
+      </c>
+      <c r="K625" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L625" t="n">
+        <v>467</v>
+      </c>
+      <c r="M625" t="n">
+        <v>0.012578125</v>
+      </c>
+      <c r="N625" t="n">
+        <v>629</v>
+      </c>
+      <c r="O625" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P625" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q625" t="s">
+        <v>25</v>
+      </c>
+      <c r="R625" t="b">
+        <v>0</v>
+      </c>
+      <c r="S625" t="s">
+        <v>24</v>
+      </c>
+      <c r="T625" t="n">
+        <v>706</v>
+      </c>
+      <c r="U625" t="n">
+        <v>722</v>
+      </c>
+      <c r="V625" t="n">
+        <v>705</v>
+      </c>
+      <c r="W625" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="626" spans="1:23">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>275.7924</v>
+      </c>
+      <c r="C626" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D626" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E626" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G626" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H626" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J626" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K626" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L626" t="n">
+        <v>510</v>
+      </c>
+      <c r="M626" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N626" t="n">
+        <v>150</v>
+      </c>
+      <c r="O626" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P626" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q626" t="s">
+        <v>23</v>
+      </c>
+      <c r="R626" t="b">
+        <v>1</v>
+      </c>
+      <c r="S626" t="s"/>
+      <c r="T626" t="s"/>
+      <c r="U626" t="s"/>
+      <c r="V626" t="s"/>
+      <c r="W626" t="s"/>
+    </row>
+    <row r="627" spans="1:23">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>90.9012</v>
+      </c>
+      <c r="C627" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D627" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E627" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G627" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H627" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J627" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K627" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L627" t="n">
+        <v>510</v>
+      </c>
+      <c r="M627" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N627" t="n">
+        <v>150</v>
+      </c>
+      <c r="O627" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P627" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q627" t="s">
+        <v>23</v>
+      </c>
+      <c r="R627" t="b">
+        <v>0</v>
+      </c>
+      <c r="S627" t="s"/>
+      <c r="T627" t="s"/>
+      <c r="U627" t="s"/>
+      <c r="V627" t="s"/>
+      <c r="W627" t="s"/>
+    </row>
+    <row r="628" spans="1:23">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>640.1928</v>
+      </c>
+      <c r="C628" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D628" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E628" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G628" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H628" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J628" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K628" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L628" t="n">
+        <v>510</v>
+      </c>
+      <c r="M628" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N628" t="n">
+        <v>150</v>
+      </c>
+      <c r="O628" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P628" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q628" t="s">
+        <v>23</v>
+      </c>
+      <c r="R628" t="b">
+        <v>1</v>
+      </c>
+      <c r="S628" t="s">
+        <v>24</v>
+      </c>
+      <c r="T628" t="n">
+        <v>707</v>
+      </c>
+      <c r="U628" t="n">
+        <v>722</v>
+      </c>
+      <c r="V628" t="n">
+        <v>705</v>
+      </c>
+      <c r="W628" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="629" spans="1:23">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>655.5119999999999</v>
+      </c>
+      <c r="C629" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D629" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E629" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F629" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G629" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H629" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J629" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K629" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L629" t="n">
+        <v>510</v>
+      </c>
+      <c r="M629" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N629" t="n">
+        <v>150</v>
+      </c>
+      <c r="O629" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P629" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q629" t="s">
+        <v>23</v>
+      </c>
+      <c r="R629" t="b">
+        <v>1</v>
+      </c>
+      <c r="S629" t="s">
+        <v>24</v>
+      </c>
+      <c r="T629" t="n">
+        <v>707</v>
+      </c>
+      <c r="U629" t="n">
+        <v>722</v>
+      </c>
+      <c r="V629" t="n">
+        <v>705</v>
+      </c>
+      <c r="W629" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="630" spans="1:23">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>973.2216</v>
+      </c>
+      <c r="C630" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D630" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E630" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F630" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G630" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H630" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J630" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K630" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L630" t="n">
+        <v>510</v>
+      </c>
+      <c r="M630" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N630" t="n">
+        <v>150</v>
+      </c>
+      <c r="O630" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P630" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q630" t="s">
+        <v>23</v>
+      </c>
+      <c r="R630" t="b">
+        <v>1</v>
+      </c>
+      <c r="S630" t="s">
+        <v>24</v>
+      </c>
+      <c r="T630" t="n">
+        <v>707</v>
+      </c>
+      <c r="U630" t="n">
+        <v>722</v>
+      </c>
+      <c r="V630" t="n">
+        <v>705</v>
+      </c>
+      <c r="W630" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="631" spans="1:23">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>1032.8604</v>
+      </c>
+      <c r="C631" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D631" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E631" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F631" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G631" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H631" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J631" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K631" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L631" t="n">
+        <v>510</v>
+      </c>
+      <c r="M631" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N631" t="n">
+        <v>150</v>
+      </c>
+      <c r="O631" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P631" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q631" t="s">
+        <v>23</v>
+      </c>
+      <c r="R631" t="b">
+        <v>1</v>
+      </c>
+      <c r="S631" t="s">
+        <v>24</v>
+      </c>
+      <c r="T631" t="n">
+        <v>707</v>
+      </c>
+      <c r="U631" t="n">
+        <v>722</v>
+      </c>
+      <c r="V631" t="n">
+        <v>705</v>
+      </c>
+      <c r="W631" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="632" spans="1:23">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>80.02800000000001</v>
+      </c>
+      <c r="C632" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D632" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E632" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G632" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H632" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J632" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K632" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L632" t="n">
+        <v>510</v>
+      </c>
+      <c r="M632" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N632" t="n">
+        <v>150</v>
+      </c>
+      <c r="O632" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P632" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q632" t="s">
+        <v>23</v>
+      </c>
+      <c r="R632" t="b">
+        <v>0</v>
+      </c>
+      <c r="S632" t="s">
+        <v>24</v>
+      </c>
+      <c r="T632" t="n">
+        <v>707</v>
+      </c>
+      <c r="U632" t="n">
+        <v>722</v>
+      </c>
+      <c r="V632" t="n">
+        <v>705</v>
+      </c>
+      <c r="W632" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="633" spans="1:23">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>70.94880000000001</v>
+      </c>
+      <c r="C633" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D633" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E633" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F633" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G633" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H633" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J633" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K633" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L633" t="n">
+        <v>510</v>
+      </c>
+      <c r="M633" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N633" t="n">
+        <v>150</v>
+      </c>
+      <c r="O633" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P633" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q633" t="s">
+        <v>23</v>
+      </c>
+      <c r="R633" t="b">
+        <v>0</v>
+      </c>
+      <c r="S633" t="s">
+        <v>24</v>
+      </c>
+      <c r="T633" t="n">
+        <v>707</v>
+      </c>
+      <c r="U633" t="n">
+        <v>722</v>
+      </c>
+      <c r="V633" t="n">
+        <v>705</v>
+      </c>
+      <c r="W633" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="634" spans="1:23">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>77.1576</v>
+      </c>
+      <c r="C634" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D634" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G634" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H634" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J634" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K634" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L634" t="n">
+        <v>510</v>
+      </c>
+      <c r="M634" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N634" t="n">
+        <v>150</v>
+      </c>
+      <c r="O634" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P634" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q634" t="s">
+        <v>23</v>
+      </c>
+      <c r="R634" t="b">
+        <v>0</v>
+      </c>
+      <c r="S634" t="s">
+        <v>24</v>
+      </c>
+      <c r="T634" t="n">
+        <v>707</v>
+      </c>
+      <c r="U634" t="n">
+        <v>722</v>
+      </c>
+      <c r="V634" t="n">
+        <v>705</v>
+      </c>
+      <c r="W634" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="635" spans="1:23">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>82.7268</v>
+      </c>
+      <c r="C635" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D635" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E635" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G635" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H635" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J635" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K635" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L635" t="n">
+        <v>510</v>
+      </c>
+      <c r="M635" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N635" t="n">
+        <v>150</v>
+      </c>
+      <c r="O635" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P635" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q635" t="s">
+        <v>23</v>
+      </c>
+      <c r="R635" t="b">
+        <v>0</v>
+      </c>
+      <c r="S635" t="s">
+        <v>24</v>
+      </c>
+      <c r="T635" t="n">
+        <v>707</v>
+      </c>
+      <c r="U635" t="n">
+        <v>722</v>
+      </c>
+      <c r="V635" t="n">
+        <v>705</v>
+      </c>
+      <c r="W635" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="636" spans="1:23">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>549.12</v>
+      </c>
+      <c r="C636" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D636" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F636" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G636" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H636" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J636" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K636" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L636" t="n">
+        <v>510</v>
+      </c>
+      <c r="M636" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N636" t="n">
+        <v>150</v>
+      </c>
+      <c r="O636" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P636" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q636" t="s">
+        <v>23</v>
+      </c>
+      <c r="R636" t="b">
+        <v>1</v>
+      </c>
+      <c r="S636" t="s">
+        <v>24</v>
+      </c>
+      <c r="T636" t="n">
+        <v>706</v>
+      </c>
+      <c r="U636" t="n">
+        <v>722</v>
+      </c>
+      <c r="V636" t="n">
+        <v>705</v>
+      </c>
+      <c r="W636" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="637" spans="1:23">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>641.16</v>
+      </c>
+      <c r="C637" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D637" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E637" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G637" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H637" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J637" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K637" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L637" t="n">
+        <v>510</v>
+      </c>
+      <c r="M637" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N637" t="n">
+        <v>150</v>
+      </c>
+      <c r="O637" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P637" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q637" t="s">
+        <v>23</v>
+      </c>
+      <c r="R637" t="b">
+        <v>1</v>
+      </c>
+      <c r="S637" t="s">
+        <v>24</v>
+      </c>
+      <c r="T637" t="n">
+        <v>706</v>
+      </c>
+      <c r="U637" t="n">
+        <v>722</v>
+      </c>
+      <c r="V637" t="n">
+        <v>705</v>
+      </c>
+      <c r="W637" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="638" spans="1:23">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>670.9872</v>
+      </c>
+      <c r="C638" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D638" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E638" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G638" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H638" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J638" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K638" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L638" t="n">
+        <v>510</v>
+      </c>
+      <c r="M638" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N638" t="n">
+        <v>150</v>
+      </c>
+      <c r="O638" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P638" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q638" t="s">
+        <v>23</v>
+      </c>
+      <c r="R638" t="b">
+        <v>1</v>
+      </c>
+      <c r="S638" t="s">
+        <v>24</v>
+      </c>
+      <c r="T638" t="n">
+        <v>706</v>
+      </c>
+      <c r="U638" t="n">
+        <v>722</v>
+      </c>
+      <c r="V638" t="n">
+        <v>705</v>
+      </c>
+      <c r="W638" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="639" spans="1:23">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>730.7976</v>
+      </c>
+      <c r="C639" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D639" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E639" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G639" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H639" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J639" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K639" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L639" t="n">
+        <v>510</v>
+      </c>
+      <c r="M639" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N639" t="n">
+        <v>150</v>
+      </c>
+      <c r="O639" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P639" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q639" t="s">
+        <v>23</v>
+      </c>
+      <c r="R639" t="b">
+        <v>1</v>
+      </c>
+      <c r="S639" t="s">
+        <v>24</v>
+      </c>
+      <c r="T639" t="n">
+        <v>706</v>
+      </c>
+      <c r="U639" t="n">
+        <v>722</v>
+      </c>
+      <c r="V639" t="n">
+        <v>705</v>
+      </c>
+      <c r="W639" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="640" spans="1:23">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>80.7612</v>
+      </c>
+      <c r="C640" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D640" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E640" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G640" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H640" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J640" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K640" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L640" t="n">
+        <v>510</v>
+      </c>
+      <c r="M640" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N640" t="n">
+        <v>150</v>
+      </c>
+      <c r="O640" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P640" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q640" t="s">
+        <v>23</v>
+      </c>
+      <c r="R640" t="b">
+        <v>0</v>
+      </c>
+      <c r="S640" t="s">
+        <v>24</v>
+      </c>
+      <c r="T640" t="n">
+        <v>706</v>
+      </c>
+      <c r="U640" t="n">
+        <v>722</v>
+      </c>
+      <c r="V640" t="n">
+        <v>705</v>
+      </c>
+      <c r="W640" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="641" spans="1:23">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>77.5476</v>
+      </c>
+      <c r="C641" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D641" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E641" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G641" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H641" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J641" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K641" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L641" t="n">
+        <v>510</v>
+      </c>
+      <c r="M641" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N641" t="n">
+        <v>150</v>
+      </c>
+      <c r="O641" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P641" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q641" t="s">
+        <v>23</v>
+      </c>
+      <c r="R641" t="b">
+        <v>0</v>
+      </c>
+      <c r="S641" t="s">
+        <v>24</v>
+      </c>
+      <c r="T641" t="n">
+        <v>706</v>
+      </c>
+      <c r="U641" t="n">
+        <v>722</v>
+      </c>
+      <c r="V641" t="n">
+        <v>705</v>
+      </c>
+      <c r="W641" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="642" spans="1:23">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>76.81440000000001</v>
+      </c>
+      <c r="C642" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D642" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E642" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G642" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H642" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J642" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K642" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L642" t="n">
+        <v>510</v>
+      </c>
+      <c r="M642" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N642" t="n">
+        <v>150</v>
+      </c>
+      <c r="O642" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P642" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q642" t="s">
+        <v>23</v>
+      </c>
+      <c r="R642" t="b">
+        <v>0</v>
+      </c>
+      <c r="S642" t="s">
+        <v>24</v>
+      </c>
+      <c r="T642" t="n">
+        <v>706</v>
+      </c>
+      <c r="U642" t="n">
+        <v>722</v>
+      </c>
+      <c r="V642" t="n">
+        <v>705</v>
+      </c>
+      <c r="W642" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="643" spans="1:23">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>78.78</v>
+      </c>
+      <c r="C643" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D643" t="n">
+        <v>7.92578125e-09</v>
+      </c>
+      <c r="E643" t="n">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0.75390625</v>
+      </c>
+      <c r="G643" t="n">
+        <v>5.849609375</v>
+      </c>
+      <c r="H643" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J643" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K643" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L643" t="n">
+        <v>510</v>
+      </c>
+      <c r="M643" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="N643" t="n">
+        <v>150</v>
+      </c>
+      <c r="O643" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P643" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q643" t="s">
+        <v>23</v>
+      </c>
+      <c r="R643" t="b">
+        <v>0</v>
+      </c>
+      <c r="S643" t="s">
+        <v>24</v>
+      </c>
+      <c r="T643" t="n">
+        <v>706</v>
+      </c>
+      <c r="U643" t="n">
+        <v>722</v>
+      </c>
+      <c r="V643" t="n">
+        <v>705</v>
+      </c>
+      <c r="W643" t="n">
         <v>80</v>
       </c>
     </row>

--- a/data_process/simtime_prediction/data/sim_time.xlsx
+++ b/data_process/simtime_prediction/data/sim_time.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W687"/>
+  <dimension ref="A1:W721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39015,7 +39015,7 @@
         <v>705</v>
       </c>
       <c r="W552" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="553" spans="1:23">
@@ -39086,7 +39086,7 @@
         <v>705</v>
       </c>
       <c r="W553" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="554" spans="1:23">
@@ -39094,7 +39094,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>86407.519866</v>
+        <v>86400</v>
       </c>
       <c r="C554" t="n">
         <v>3.8359375</v>
@@ -39157,7 +39157,7 @@
         <v>705</v>
       </c>
       <c r="W554" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="555" spans="1:23">
@@ -39165,7 +39165,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>86423.164743</v>
+        <v>86407.519866</v>
       </c>
       <c r="C555" t="n">
         <v>3.8359375</v>
@@ -39213,7 +39213,7 @@
         <v>25</v>
       </c>
       <c r="R555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S555" t="s">
         <v>24</v>
@@ -39228,7 +39228,7 @@
         <v>705</v>
       </c>
       <c r="W555" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="556" spans="1:23">
@@ -39236,7 +39236,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>86431.635543</v>
+        <v>86423.164743</v>
       </c>
       <c r="C556" t="n">
         <v>3.8359375</v>
@@ -39299,7 +39299,7 @@
         <v>705</v>
       </c>
       <c r="W556" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="557" spans="1:23">
@@ -39307,7 +39307,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>86445.94577400001</v>
+        <v>86431.635543</v>
       </c>
       <c r="C557" t="n">
         <v>3.8359375</v>
@@ -39370,7 +39370,7 @@
         <v>705</v>
       </c>
       <c r="W557" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="558" spans="1:23">
@@ -39378,7 +39378,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>86417.72177400001</v>
+        <v>86445.94577400001</v>
       </c>
       <c r="C558" t="n">
         <v>3.8359375</v>
@@ -39441,7 +39441,7 @@
         <v>705</v>
       </c>
       <c r="W558" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="559" spans="1:23">
@@ -39449,43 +39449,43 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>86.7516</v>
+        <v>86417.72177400001</v>
       </c>
       <c r="C559" t="n">
-        <v>3.0859375</v>
+        <v>3.8359375</v>
       </c>
       <c r="D559" t="n">
-        <v>8.41796875e-09</v>
+        <v>6.34375e-09</v>
       </c>
       <c r="E559" t="n">
-        <v>0.68046875</v>
+        <v>0.4453125</v>
       </c>
       <c r="F559" t="n">
-        <v>0.13671875</v>
+        <v>1.625</v>
       </c>
       <c r="G559" t="n">
-        <v>8.8671875</v>
+        <v>8.33984375</v>
       </c>
       <c r="H559" t="n">
-        <v>9.542968750000001e-09</v>
+        <v>5.65234375e-09</v>
       </c>
       <c r="I559" t="n">
-        <v>0.394921875</v>
+        <v>0.1125</v>
       </c>
       <c r="J559" t="n">
-        <v>240.46875</v>
+        <v>158.203125</v>
       </c>
       <c r="K559" t="n">
-        <v>0.4375</v>
+        <v>0.3546875</v>
       </c>
       <c r="L559" t="n">
-        <v>791</v>
+        <v>264</v>
       </c>
       <c r="M559" t="n">
-        <v>0.01314453125</v>
+        <v>0.0123828125</v>
       </c>
       <c r="N559" t="n">
-        <v>717</v>
+        <v>520</v>
       </c>
       <c r="O559" t="n">
         <v>2045</v>
@@ -39497,20 +39497,30 @@
         <v>25</v>
       </c>
       <c r="R559" t="b">
-        <v>1</v>
-      </c>
-      <c r="S559" t="s"/>
-      <c r="T559" t="s"/>
-      <c r="U559" t="s"/>
-      <c r="V559" t="s"/>
-      <c r="W559" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="S559" t="s">
+        <v>24</v>
+      </c>
+      <c r="T559" t="n">
+        <v>706</v>
+      </c>
+      <c r="U559" t="n">
+        <v>722</v>
+      </c>
+      <c r="V559" t="n">
+        <v>705</v>
+      </c>
+      <c r="W559" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="560" spans="1:23">
       <c r="A560" s="1" t="n">
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>36000</v>
+        <v>86.7516</v>
       </c>
       <c r="C560" t="n">
         <v>3.0859375</v>
@@ -39558,7 +39568,7 @@
         <v>25</v>
       </c>
       <c r="R560" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S560" t="s"/>
       <c r="T560" t="s"/>
@@ -39571,7 +39581,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>85.4256</v>
+        <v>36000</v>
       </c>
       <c r="C561" t="n">
         <v>3.0859375</v>
@@ -39619,30 +39629,20 @@
         <v>25</v>
       </c>
       <c r="R561" t="b">
-        <v>1</v>
-      </c>
-      <c r="S561" t="s">
-        <v>24</v>
-      </c>
-      <c r="T561" t="n">
-        <v>707</v>
-      </c>
-      <c r="U561" t="n">
-        <v>722</v>
-      </c>
-      <c r="V561" t="n">
-        <v>705</v>
-      </c>
-      <c r="W561" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S561" t="s"/>
+      <c r="T561" t="s"/>
+      <c r="U561" t="s"/>
+      <c r="V561" t="s"/>
+      <c r="W561" t="s"/>
     </row>
     <row r="562" spans="1:23">
       <c r="A562" s="1" t="n">
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>76.2372</v>
+        <v>85.4256</v>
       </c>
       <c r="C562" t="n">
         <v>3.0859375</v>
@@ -39705,7 +39705,7 @@
         <v>705</v>
       </c>
       <c r="W562" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="563" spans="1:23">
@@ -39713,7 +39713,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>117</v>
+        <v>76.2372</v>
       </c>
       <c r="C563" t="n">
         <v>3.0859375</v>
@@ -39776,7 +39776,7 @@
         <v>705</v>
       </c>
       <c r="W563" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="564" spans="1:23">
@@ -39784,7 +39784,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>231.48</v>
+        <v>117</v>
       </c>
       <c r="C564" t="n">
         <v>3.0859375</v>
@@ -39847,7 +39847,7 @@
         <v>705</v>
       </c>
       <c r="W564" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="565" spans="1:23">
@@ -39855,7 +39855,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>68</v>
+        <v>231.48</v>
       </c>
       <c r="C565" t="n">
         <v>3.0859375</v>
@@ -39903,7 +39903,7 @@
         <v>25</v>
       </c>
       <c r="R565" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S565" t="s">
         <v>24</v>
@@ -39918,7 +39918,7 @@
         <v>705</v>
       </c>
       <c r="W565" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="566" spans="1:23">
@@ -39926,7 +39926,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>75.9252</v>
+        <v>68</v>
       </c>
       <c r="C566" t="n">
         <v>3.0859375</v>
@@ -39989,7 +39989,7 @@
         <v>705</v>
       </c>
       <c r="W566" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="567" spans="1:23">
@@ -39997,7 +39997,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>68</v>
+        <v>75.9252</v>
       </c>
       <c r="C567" t="n">
         <v>3.0859375</v>
@@ -40060,7 +40060,7 @@
         <v>705</v>
       </c>
       <c r="W567" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="568" spans="1:23">
@@ -40068,7 +40068,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>76.215</v>
+        <v>68</v>
       </c>
       <c r="C568" t="n">
         <v>3.0859375</v>
@@ -40131,7 +40131,7 @@
         <v>705</v>
       </c>
       <c r="W568" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="569" spans="1:23">
@@ -40139,7 +40139,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>78</v>
+        <v>76.215</v>
       </c>
       <c r="C569" t="n">
         <v>3.0859375</v>
@@ -40187,13 +40187,13 @@
         <v>25</v>
       </c>
       <c r="R569" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S569" t="s">
         <v>24</v>
       </c>
       <c r="T569" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="U569" t="n">
         <v>722</v>
@@ -40202,7 +40202,7 @@
         <v>705</v>
       </c>
       <c r="W569" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="570" spans="1:23">
@@ -40210,7 +40210,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>137.67</v>
+        <v>78</v>
       </c>
       <c r="C570" t="n">
         <v>3.0859375</v>
@@ -40273,7 +40273,7 @@
         <v>705</v>
       </c>
       <c r="W570" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="571" spans="1:23">
@@ -40281,7 +40281,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>80</v>
+        <v>137.67</v>
       </c>
       <c r="C571" t="n">
         <v>3.0859375</v>
@@ -40344,7 +40344,7 @@
         <v>705</v>
       </c>
       <c r="W571" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="572" spans="1:23">
@@ -40352,7 +40352,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>116.021</v>
+        <v>80</v>
       </c>
       <c r="C572" t="n">
         <v>3.0859375</v>
@@ -40415,7 +40415,7 @@
         <v>705</v>
       </c>
       <c r="W572" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="573" spans="1:23">
@@ -40423,7 +40423,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>80</v>
+        <v>116.021</v>
       </c>
       <c r="C573" t="n">
         <v>3.0859375</v>
@@ -40471,7 +40471,7 @@
         <v>25</v>
       </c>
       <c r="R573" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S573" t="s">
         <v>24</v>
@@ -40486,7 +40486,7 @@
         <v>705</v>
       </c>
       <c r="W573" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="574" spans="1:23">
@@ -40494,7 +40494,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>81.4008</v>
+        <v>80</v>
       </c>
       <c r="C574" t="n">
         <v>3.0859375</v>
@@ -40557,7 +40557,7 @@
         <v>705</v>
       </c>
       <c r="W574" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="575" spans="1:23">
@@ -40565,7 +40565,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>76.03440000000001</v>
+        <v>81.4008</v>
       </c>
       <c r="C575" t="n">
         <v>3.0859375</v>
@@ -40628,7 +40628,7 @@
         <v>705</v>
       </c>
       <c r="W575" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="576" spans="1:23">
@@ -40636,7 +40636,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>81.86879999999999</v>
+        <v>76.03440000000001</v>
       </c>
       <c r="C576" t="n">
         <v>3.0859375</v>
@@ -40699,7 +40699,7 @@
         <v>705</v>
       </c>
       <c r="W576" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="577" spans="1:23">
@@ -40707,68 +40707,78 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>269.347</v>
+        <v>81.86879999999999</v>
       </c>
       <c r="C577" t="n">
-        <v>3.8125</v>
+        <v>3.0859375</v>
       </c>
       <c r="D577" t="n">
-        <v>4.69140625e-09</v>
+        <v>8.41796875e-09</v>
       </c>
       <c r="E577" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.68046875</v>
       </c>
       <c r="F577" t="n">
-        <v>0.25</v>
+        <v>0.13671875</v>
       </c>
       <c r="G577" t="n">
-        <v>8.90625</v>
+        <v>8.8671875</v>
       </c>
       <c r="H577" t="n">
-        <v>5.7578125e-09</v>
+        <v>9.542968750000001e-09</v>
       </c>
       <c r="I577" t="n">
-        <v>0.346875</v>
+        <v>0.394921875</v>
       </c>
       <c r="J577" t="n">
-        <v>272.109375</v>
+        <v>240.46875</v>
       </c>
       <c r="K577" t="n">
-        <v>0.6375</v>
+        <v>0.4375</v>
       </c>
       <c r="L577" t="n">
-        <v>470</v>
+        <v>791</v>
       </c>
       <c r="M577" t="n">
-        <v>0.0135546875</v>
+        <v>0.01314453125</v>
       </c>
       <c r="N577" t="n">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="O577" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P577" t="s">
         <v>22</v>
       </c>
       <c r="Q577" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R577" t="b">
-        <v>1</v>
-      </c>
-      <c r="S577" t="s"/>
-      <c r="T577" t="s"/>
-      <c r="U577" t="s"/>
-      <c r="V577" t="s"/>
-      <c r="W577" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="S577" t="s">
+        <v>24</v>
+      </c>
+      <c r="T577" t="n">
+        <v>706</v>
+      </c>
+      <c r="U577" t="n">
+        <v>722</v>
+      </c>
+      <c r="V577" t="n">
+        <v>705</v>
+      </c>
+      <c r="W577" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="578" spans="1:23">
       <c r="A578" s="1" t="n">
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>78.261</v>
+        <v>269.347</v>
       </c>
       <c r="C578" t="n">
         <v>3.8125</v>
@@ -40816,7 +40826,7 @@
         <v>23</v>
       </c>
       <c r="R578" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S578" t="s"/>
       <c r="T578" t="s"/>
@@ -40829,7 +40839,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>478.7172</v>
+        <v>78.261</v>
       </c>
       <c r="C579" t="n">
         <v>3.8125</v>
@@ -40838,7 +40848,7 @@
         <v>4.69140625e-09</v>
       </c>
       <c r="E579" t="n">
-        <v>0.5453125</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F579" t="n">
         <v>0.25</v>
@@ -40877,30 +40887,20 @@
         <v>23</v>
       </c>
       <c r="R579" t="b">
-        <v>1</v>
-      </c>
-      <c r="S579" t="s">
-        <v>24</v>
-      </c>
-      <c r="T579" t="n">
-        <v>707</v>
-      </c>
-      <c r="U579" t="n">
-        <v>722</v>
-      </c>
-      <c r="V579" t="n">
-        <v>705</v>
-      </c>
-      <c r="W579" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S579" t="s"/>
+      <c r="T579" t="s"/>
+      <c r="U579" t="s"/>
+      <c r="V579" t="s"/>
+      <c r="W579" t="s"/>
     </row>
     <row r="580" spans="1:23">
       <c r="A580" s="1" t="n">
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>505.083</v>
+        <v>478.7172</v>
       </c>
       <c r="C580" t="n">
         <v>3.8125</v>
@@ -40909,7 +40909,7 @@
         <v>4.69140625e-09</v>
       </c>
       <c r="E580" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.5453125</v>
       </c>
       <c r="F580" t="n">
         <v>0.25</v>
@@ -40963,7 +40963,7 @@
         <v>705</v>
       </c>
       <c r="W580" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="581" spans="1:23">
@@ -40971,7 +40971,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>648.8584</v>
+        <v>505.083</v>
       </c>
       <c r="C581" t="n">
         <v>3.8125</v>
@@ -41034,7 +41034,7 @@
         <v>705</v>
       </c>
       <c r="W581" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="582" spans="1:23">
@@ -41042,7 +41042,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>1266.1384</v>
+        <v>648.8584</v>
       </c>
       <c r="C582" t="n">
         <v>3.8125</v>
@@ -41105,7 +41105,7 @@
         <v>705</v>
       </c>
       <c r="W582" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="583" spans="1:23">
@@ -41113,7 +41113,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>80.411</v>
+        <v>1266.1384</v>
       </c>
       <c r="C583" t="n">
         <v>3.8125</v>
@@ -41161,7 +41161,7 @@
         <v>23</v>
       </c>
       <c r="R583" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S583" t="s">
         <v>24</v>
@@ -41176,7 +41176,7 @@
         <v>705</v>
       </c>
       <c r="W583" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="584" spans="1:23">
@@ -41184,7 +41184,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>106.414</v>
+        <v>80.411</v>
       </c>
       <c r="C584" t="n">
         <v>3.8125</v>
@@ -41247,7 +41247,7 @@
         <v>705</v>
       </c>
       <c r="W584" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="585" spans="1:23">
@@ -41255,7 +41255,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>70.46899999999999</v>
+        <v>106.414</v>
       </c>
       <c r="C585" t="n">
         <v>3.8125</v>
@@ -41318,7 +41318,7 @@
         <v>705</v>
       </c>
       <c r="W585" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="586" spans="1:23">
@@ -41326,7 +41326,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>76.129</v>
+        <v>70.46899999999999</v>
       </c>
       <c r="C586" t="n">
         <v>3.8125</v>
@@ -41389,7 +41389,7 @@
         <v>705</v>
       </c>
       <c r="W586" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="587" spans="1:23">
@@ -41397,7 +41397,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>594.8258</v>
+        <v>76.129</v>
       </c>
       <c r="C587" t="n">
         <v>3.8125</v>
@@ -41445,13 +41445,13 @@
         <v>23</v>
       </c>
       <c r="R587" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S587" t="s">
         <v>24</v>
       </c>
       <c r="T587" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="U587" t="n">
         <v>722</v>
@@ -41460,7 +41460,7 @@
         <v>705</v>
       </c>
       <c r="W587" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="588" spans="1:23">
@@ -41468,7 +41468,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>407.9964</v>
+        <v>594.8258</v>
       </c>
       <c r="C588" t="n">
         <v>3.8125</v>
@@ -41531,7 +41531,7 @@
         <v>705</v>
       </c>
       <c r="W588" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="589" spans="1:23">
@@ -41539,7 +41539,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>525.3626</v>
+        <v>407.9964</v>
       </c>
       <c r="C589" t="n">
         <v>3.8125</v>
@@ -41602,7 +41602,7 @@
         <v>705</v>
       </c>
       <c r="W589" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="590" spans="1:23">
@@ -41610,7 +41610,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>616.2468</v>
+        <v>525.3626</v>
       </c>
       <c r="C590" t="n">
         <v>3.8125</v>
@@ -41619,7 +41619,7 @@
         <v>4.69140625e-09</v>
       </c>
       <c r="E590" t="n">
-        <v>0.5453125</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F590" t="n">
         <v>0.25</v>
@@ -41673,7 +41673,7 @@
         <v>705</v>
       </c>
       <c r="W590" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="591" spans="1:23">
@@ -41681,7 +41681,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>142.9768</v>
+        <v>616.2468</v>
       </c>
       <c r="C591" t="n">
         <v>3.8125</v>
@@ -41690,7 +41690,7 @@
         <v>4.69140625e-09</v>
       </c>
       <c r="E591" t="n">
-        <v>0.5453125000000001</v>
+        <v>0.5453125</v>
       </c>
       <c r="F591" t="n">
         <v>0.25</v>
@@ -41729,7 +41729,7 @@
         <v>23</v>
       </c>
       <c r="R591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S591" t="s">
         <v>24</v>
@@ -41744,7 +41744,7 @@
         <v>705</v>
       </c>
       <c r="W591" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="592" spans="1:23">
@@ -41752,7 +41752,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>76.0656</v>
+        <v>142.9768</v>
       </c>
       <c r="C592" t="n">
         <v>3.8125</v>
@@ -41815,7 +41815,7 @@
         <v>705</v>
       </c>
       <c r="W592" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="593" spans="1:23">
@@ -41823,7 +41823,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>129.7764</v>
+        <v>76.0656</v>
       </c>
       <c r="C593" t="n">
         <v>3.8125</v>
@@ -41886,7 +41886,7 @@
         <v>705</v>
       </c>
       <c r="W593" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="594" spans="1:23">
@@ -41894,7 +41894,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>76.1748</v>
+        <v>129.7764</v>
       </c>
       <c r="C594" t="n">
         <v>3.8125</v>
@@ -41957,7 +41957,7 @@
         <v>705</v>
       </c>
       <c r="W594" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="595" spans="1:23">
@@ -41965,46 +41965,46 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>276.8532</v>
+        <v>76.1748</v>
       </c>
       <c r="C595" t="n">
-        <v>1.36328125</v>
+        <v>3.8125</v>
       </c>
       <c r="D595" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>4.69140625e-09</v>
       </c>
       <c r="E595" t="n">
-        <v>0.51875</v>
+        <v>0.5453125000000001</v>
       </c>
       <c r="F595" t="n">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="G595" t="n">
-        <v>9.84375</v>
+        <v>8.90625</v>
       </c>
       <c r="H595" t="n">
-        <v>7.890625000000001e-09</v>
+        <v>5.7578125e-09</v>
       </c>
       <c r="I595" t="n">
-        <v>0.331640625</v>
+        <v>0.346875</v>
       </c>
       <c r="J595" t="n">
-        <v>66.796875</v>
+        <v>272.109375</v>
       </c>
       <c r="K595" t="n">
-        <v>0.66875</v>
+        <v>0.6375</v>
       </c>
       <c r="L595" t="n">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M595" t="n">
-        <v>0.018828125</v>
+        <v>0.0135546875</v>
       </c>
       <c r="N595" t="n">
-        <v>628</v>
+        <v>520</v>
       </c>
       <c r="O595" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P595" t="s">
         <v>22</v>
@@ -42013,20 +42013,30 @@
         <v>23</v>
       </c>
       <c r="R595" t="b">
-        <v>1</v>
-      </c>
-      <c r="S595" t="s"/>
-      <c r="T595" t="s"/>
-      <c r="U595" t="s"/>
-      <c r="V595" t="s"/>
-      <c r="W595" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="S595" t="s">
+        <v>24</v>
+      </c>
+      <c r="T595" t="n">
+        <v>706</v>
+      </c>
+      <c r="U595" t="n">
+        <v>722</v>
+      </c>
+      <c r="V595" t="n">
+        <v>705</v>
+      </c>
+      <c r="W595" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="596" spans="1:23">
       <c r="A596" s="1" t="n">
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>56.1912</v>
+        <v>276.8532</v>
       </c>
       <c r="C596" t="n">
         <v>1.36328125</v>
@@ -42074,7 +42084,7 @@
         <v>23</v>
       </c>
       <c r="R596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S596" t="s"/>
       <c r="T596" t="s"/>
@@ -42087,7 +42097,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>388.7208</v>
+        <v>56.1912</v>
       </c>
       <c r="C597" t="n">
         <v>1.36328125</v>
@@ -42135,30 +42145,20 @@
         <v>23</v>
       </c>
       <c r="R597" t="b">
-        <v>1</v>
-      </c>
-      <c r="S597" t="s">
-        <v>24</v>
-      </c>
-      <c r="T597" t="n">
-        <v>707</v>
-      </c>
-      <c r="U597" t="n">
-        <v>722</v>
-      </c>
-      <c r="V597" t="n">
-        <v>705</v>
-      </c>
-      <c r="W597" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S597" t="s"/>
+      <c r="T597" t="s"/>
+      <c r="U597" t="s"/>
+      <c r="V597" t="s"/>
+      <c r="W597" t="s"/>
     </row>
     <row r="598" spans="1:23">
       <c r="A598" s="1" t="n">
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>400.7952</v>
+        <v>388.7208</v>
       </c>
       <c r="C598" t="n">
         <v>1.36328125</v>
@@ -42221,7 +42221,7 @@
         <v>705</v>
       </c>
       <c r="W598" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="599" spans="1:23">
@@ -42229,7 +42229,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>403.6344</v>
+        <v>400.7952</v>
       </c>
       <c r="C599" t="n">
         <v>1.36328125</v>
@@ -42292,7 +42292,7 @@
         <v>705</v>
       </c>
       <c r="W599" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="600" spans="1:23">
@@ -42300,7 +42300,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>563.0976000000001</v>
+        <v>403.6344</v>
       </c>
       <c r="C600" t="n">
         <v>1.36328125</v>
@@ -42363,7 +42363,7 @@
         <v>705</v>
       </c>
       <c r="W600" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="601" spans="1:23">
@@ -42371,7 +42371,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>66.0972</v>
+        <v>563.0976000000001</v>
       </c>
       <c r="C601" t="n">
         <v>1.36328125</v>
@@ -42419,7 +42419,7 @@
         <v>23</v>
       </c>
       <c r="R601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S601" t="s">
         <v>24</v>
@@ -42434,7 +42434,7 @@
         <v>705</v>
       </c>
       <c r="W601" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="602" spans="1:23">
@@ -42442,7 +42442,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>78.2496</v>
+        <v>66.0972</v>
       </c>
       <c r="C602" t="n">
         <v>1.36328125</v>
@@ -42505,7 +42505,7 @@
         <v>705</v>
       </c>
       <c r="W602" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="603" spans="1:23">
@@ -42513,7 +42513,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>142.3344</v>
+        <v>78.2496</v>
       </c>
       <c r="C603" t="n">
         <v>1.36328125</v>
@@ -42576,7 +42576,7 @@
         <v>705</v>
       </c>
       <c r="W603" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="604" spans="1:23">
@@ -42584,7 +42584,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>71.0424</v>
+        <v>142.3344</v>
       </c>
       <c r="C604" t="n">
         <v>1.36328125</v>
@@ -42647,7 +42647,7 @@
         <v>705</v>
       </c>
       <c r="W604" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="605" spans="1:23">
@@ -42655,7 +42655,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>331.5936</v>
+        <v>71.0424</v>
       </c>
       <c r="C605" t="n">
         <v>1.36328125</v>
@@ -42703,13 +42703,13 @@
         <v>23</v>
       </c>
       <c r="R605" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S605" t="s">
         <v>24</v>
       </c>
       <c r="T605" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="U605" t="n">
         <v>722</v>
@@ -42718,7 +42718,7 @@
         <v>705</v>
       </c>
       <c r="W605" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="606" spans="1:23">
@@ -42726,7 +42726,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>522.8028</v>
+        <v>331.5936</v>
       </c>
       <c r="C606" t="n">
         <v>1.36328125</v>
@@ -42789,7 +42789,7 @@
         <v>705</v>
       </c>
       <c r="W606" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="607" spans="1:23">
@@ -42797,7 +42797,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>471.7752</v>
+        <v>522.8028</v>
       </c>
       <c r="C607" t="n">
         <v>1.36328125</v>
@@ -42860,7 +42860,7 @@
         <v>705</v>
       </c>
       <c r="W607" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="608" spans="1:23">
@@ -42868,7 +42868,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>475.4412</v>
+        <v>471.7752</v>
       </c>
       <c r="C608" t="n">
         <v>1.36328125</v>
@@ -42931,7 +42931,7 @@
         <v>705</v>
       </c>
       <c r="W608" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="609" spans="1:23">
@@ -42939,7 +42939,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>78.8892</v>
+        <v>475.4412</v>
       </c>
       <c r="C609" t="n">
         <v>1.36328125</v>
@@ -42987,7 +42987,7 @@
         <v>23</v>
       </c>
       <c r="R609" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S609" t="s">
         <v>24</v>
@@ -43002,7 +43002,7 @@
         <v>705</v>
       </c>
       <c r="W609" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="610" spans="1:23">
@@ -43010,7 +43010,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>81.30719999999999</v>
+        <v>78.8892</v>
       </c>
       <c r="C610" t="n">
         <v>1.36328125</v>
@@ -43073,7 +43073,7 @@
         <v>705</v>
       </c>
       <c r="W610" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="611" spans="1:23">
@@ -43081,7 +43081,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>71.19840000000001</v>
+        <v>81.30719999999999</v>
       </c>
       <c r="C611" t="n">
         <v>1.36328125</v>
@@ -43144,7 +43144,7 @@
         <v>705</v>
       </c>
       <c r="W611" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="612" spans="1:23">
@@ -43152,7 +43152,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>78.3432</v>
+        <v>71.19840000000001</v>
       </c>
       <c r="C612" t="n">
         <v>1.36328125</v>
@@ -43215,7 +43215,7 @@
         <v>705</v>
       </c>
       <c r="W612" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="613" spans="1:23">
@@ -43223,68 +43223,78 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>15134.674106</v>
+        <v>78.3432</v>
       </c>
       <c r="C613" t="n">
-        <v>3.25</v>
+        <v>1.36328125</v>
       </c>
       <c r="D613" t="n">
-        <v>8.980468750000001e-09</v>
+        <v>9.531250000000001e-09</v>
       </c>
       <c r="E613" t="n">
-        <v>0.440625</v>
+        <v>0.51875</v>
       </c>
       <c r="F613" t="n">
-        <v>1.0625</v>
+        <v>0.28125</v>
       </c>
       <c r="G613" t="n">
-        <v>8.4375</v>
+        <v>9.84375</v>
       </c>
       <c r="H613" t="n">
-        <v>7.656249999999999e-09</v>
+        <v>7.890625000000001e-09</v>
       </c>
       <c r="I613" t="n">
-        <v>0.10078125</v>
+        <v>0.331640625</v>
       </c>
       <c r="J613" t="n">
-        <v>225</v>
+        <v>66.796875</v>
       </c>
       <c r="K613" t="n">
-        <v>0.309375</v>
+        <v>0.66875</v>
       </c>
       <c r="L613" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="M613" t="n">
-        <v>0.01126953125</v>
+        <v>0.018828125</v>
       </c>
       <c r="N613" t="n">
-        <v>520</v>
+        <v>628</v>
       </c>
       <c r="O613" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P613" t="s">
         <v>22</v>
       </c>
       <c r="Q613" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R613" t="b">
-        <v>1</v>
-      </c>
-      <c r="S613" t="s"/>
-      <c r="T613" t="s"/>
-      <c r="U613" t="s"/>
-      <c r="V613" t="s"/>
-      <c r="W613" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="S613" t="s">
+        <v>24</v>
+      </c>
+      <c r="T613" t="n">
+        <v>706</v>
+      </c>
+      <c r="U613" t="n">
+        <v>722</v>
+      </c>
+      <c r="V613" t="n">
+        <v>705</v>
+      </c>
+      <c r="W613" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="614" spans="1:23">
       <c r="A614" s="1" t="n">
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>86454.949374</v>
+        <v>15134.674106</v>
       </c>
       <c r="C614" t="n">
         <v>3.25</v>
@@ -43332,7 +43342,7 @@
         <v>25</v>
       </c>
       <c r="R614" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S614" t="s"/>
       <c r="T614" t="s"/>
@@ -43345,7 +43355,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>27787.658179</v>
+        <v>86454.949374</v>
       </c>
       <c r="C615" t="n">
         <v>3.25</v>
@@ -43393,30 +43403,20 @@
         <v>25</v>
       </c>
       <c r="R615" t="b">
-        <v>1</v>
-      </c>
-      <c r="S615" t="s">
-        <v>24</v>
-      </c>
-      <c r="T615" t="n">
-        <v>707</v>
-      </c>
-      <c r="U615" t="n">
-        <v>722</v>
-      </c>
-      <c r="V615" t="n">
-        <v>705</v>
-      </c>
-      <c r="W615" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S615" t="s"/>
+      <c r="T615" t="s"/>
+      <c r="U615" t="s"/>
+      <c r="V615" t="s"/>
+      <c r="W615" t="s"/>
     </row>
     <row r="616" spans="1:23">
       <c r="A616" s="1" t="n">
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>41261.205517</v>
+        <v>27787.658179</v>
       </c>
       <c r="C616" t="n">
         <v>3.25</v>
@@ -43479,7 +43479,7 @@
         <v>705</v>
       </c>
       <c r="W616" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="617" spans="1:23">
@@ -43487,7 +43487,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>41526.577117</v>
+        <v>41261.205517</v>
       </c>
       <c r="C617" t="n">
         <v>3.25</v>
@@ -43550,7 +43550,7 @@
         <v>705</v>
       </c>
       <c r="W617" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="618" spans="1:23">
@@ -43558,7 +43558,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>51941.939778</v>
+        <v>41526.577117</v>
       </c>
       <c r="C618" t="n">
         <v>3.25</v>
@@ -43621,7 +43621,7 @@
         <v>705</v>
       </c>
       <c r="W618" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="619" spans="1:23">
@@ -43629,7 +43629,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>86446.977774</v>
+        <v>51941.939778</v>
       </c>
       <c r="C619" t="n">
         <v>3.25</v>
@@ -43677,7 +43677,7 @@
         <v>25</v>
       </c>
       <c r="R619" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S619" t="s">
         <v>24</v>
@@ -43692,7 +43692,7 @@
         <v>705</v>
       </c>
       <c r="W619" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="620" spans="1:23">
@@ -43700,7 +43700,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>86443.40537399999</v>
+        <v>86446.977774</v>
       </c>
       <c r="C620" t="n">
         <v>3.25</v>
@@ -43763,7 +43763,7 @@
         <v>705</v>
       </c>
       <c r="W620" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="621" spans="1:23">
@@ -43771,7 +43771,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>86427.290574</v>
+        <v>86443.40537399999</v>
       </c>
       <c r="C621" t="n">
         <v>3.25</v>
@@ -43834,7 +43834,7 @@
         <v>705</v>
       </c>
       <c r="W621" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="622" spans="1:23">
@@ -43842,7 +43842,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>86409.58457399999</v>
+        <v>86427.290574</v>
       </c>
       <c r="C622" t="n">
         <v>3.25</v>
@@ -43905,7 +43905,7 @@
         <v>705</v>
       </c>
       <c r="W622" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="623" spans="1:23">
@@ -43913,7 +43913,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>27837.437779</v>
+        <v>86409.58457399999</v>
       </c>
       <c r="C623" t="n">
         <v>3.25</v>
@@ -43961,13 +43961,13 @@
         <v>25</v>
       </c>
       <c r="R623" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S623" t="s">
         <v>24</v>
       </c>
       <c r="T623" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="U623" t="n">
         <v>722</v>
@@ -43976,7 +43976,7 @@
         <v>705</v>
       </c>
       <c r="W623" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="624" spans="1:23">
@@ -43984,7 +43984,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>41440.823917</v>
+        <v>27837.437779</v>
       </c>
       <c r="C624" t="n">
         <v>3.25</v>
@@ -44047,7 +44047,7 @@
         <v>705</v>
       </c>
       <c r="W624" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="625" spans="1:23">
@@ -44055,7 +44055,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>40094.419672</v>
+        <v>41440.823917</v>
       </c>
       <c r="C625" t="n">
         <v>3.25</v>
@@ -44118,7 +44118,7 @@
         <v>705</v>
       </c>
       <c r="W625" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="626" spans="1:23">
@@ -44126,7 +44126,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>44720.214012</v>
+        <v>40094.419672</v>
       </c>
       <c r="C626" t="n">
         <v>3.25</v>
@@ -44189,7 +44189,7 @@
         <v>705</v>
       </c>
       <c r="W626" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="627" spans="1:23">
@@ -44197,13 +44197,13 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>86426.284743</v>
+        <v>44720.214012</v>
       </c>
       <c r="C627" t="n">
         <v>3.25</v>
       </c>
       <c r="D627" t="n">
-        <v>8.98046875e-09</v>
+        <v>8.980468750000001e-09</v>
       </c>
       <c r="E627" t="n">
         <v>0.440625</v>
@@ -44245,7 +44245,7 @@
         <v>25</v>
       </c>
       <c r="R627" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S627" t="s">
         <v>24</v>
@@ -44260,7 +44260,7 @@
         <v>705</v>
       </c>
       <c r="W627" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="628" spans="1:23">
@@ -44268,7 +44268,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>86431.183143</v>
+        <v>86426.284743</v>
       </c>
       <c r="C628" t="n">
         <v>3.25</v>
@@ -44331,7 +44331,7 @@
         <v>705</v>
       </c>
       <c r="W628" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="629" spans="1:23">
@@ -44339,7 +44339,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>86420.278743</v>
+        <v>86431.183143</v>
       </c>
       <c r="C629" t="n">
         <v>3.25</v>
@@ -44402,7 +44402,7 @@
         <v>705</v>
       </c>
       <c r="W629" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="630" spans="1:23">
@@ -44410,7 +44410,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>86456.901315</v>
+        <v>86420.278743</v>
       </c>
       <c r="C630" t="n">
         <v>3.25</v>
@@ -44473,7 +44473,7 @@
         <v>705</v>
       </c>
       <c r="W630" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="631" spans="1:23">
@@ -44481,46 +44481,46 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>697.944</v>
+        <v>86456.901315</v>
       </c>
       <c r="C631" t="n">
-        <v>2.921875</v>
+        <v>3.25</v>
       </c>
       <c r="D631" t="n">
-        <v>4.8203125e-09</v>
+        <v>8.98046875e-09</v>
       </c>
       <c r="E631" t="n">
-        <v>0.7140625</v>
+        <v>0.440625</v>
       </c>
       <c r="F631" t="n">
-        <v>0.76953125</v>
+        <v>1.0625</v>
       </c>
       <c r="G631" t="n">
-        <v>7.79296875</v>
+        <v>8.4375</v>
       </c>
       <c r="H631" t="n">
-        <v>7.97265625e-09</v>
+        <v>7.656249999999999e-09</v>
       </c>
       <c r="I631" t="n">
-        <v>0.16875</v>
+        <v>0.10078125</v>
       </c>
       <c r="J631" t="n">
-        <v>336.09375</v>
+        <v>225</v>
       </c>
       <c r="K631" t="n">
-        <v>0.775</v>
+        <v>0.309375</v>
       </c>
       <c r="L631" t="n">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="M631" t="n">
-        <v>0.012578125</v>
+        <v>0.01126953125</v>
       </c>
       <c r="N631" t="n">
-        <v>629</v>
+        <v>520</v>
       </c>
       <c r="O631" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P631" t="s">
         <v>22</v>
@@ -44529,20 +44529,30 @@
         <v>25</v>
       </c>
       <c r="R631" t="b">
-        <v>1</v>
-      </c>
-      <c r="S631" t="s"/>
-      <c r="T631" t="s"/>
-      <c r="U631" t="s"/>
-      <c r="V631" t="s"/>
-      <c r="W631" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="S631" t="s">
+        <v>24</v>
+      </c>
+      <c r="T631" t="n">
+        <v>706</v>
+      </c>
+      <c r="U631" t="n">
+        <v>722</v>
+      </c>
+      <c r="V631" t="n">
+        <v>705</v>
+      </c>
+      <c r="W631" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="632" spans="1:23">
       <c r="A632" s="1" t="n">
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>78.8112</v>
+        <v>697.944</v>
       </c>
       <c r="C632" t="n">
         <v>2.921875</v>
@@ -44590,7 +44600,7 @@
         <v>25</v>
       </c>
       <c r="R632" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S632" t="s"/>
       <c r="T632" t="s"/>
@@ -44603,7 +44613,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>730.7976</v>
+        <v>78.8112</v>
       </c>
       <c r="C633" t="n">
         <v>2.921875</v>
@@ -44651,30 +44661,20 @@
         <v>25</v>
       </c>
       <c r="R633" t="b">
-        <v>1</v>
-      </c>
-      <c r="S633" t="s">
-        <v>24</v>
-      </c>
-      <c r="T633" t="n">
-        <v>707</v>
-      </c>
-      <c r="U633" t="n">
-        <v>722</v>
-      </c>
-      <c r="V633" t="n">
-        <v>705</v>
-      </c>
-      <c r="W633" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S633" t="s"/>
+      <c r="T633" t="s"/>
+      <c r="U633" t="s"/>
+      <c r="V633" t="s"/>
+      <c r="W633" t="s"/>
     </row>
     <row r="634" spans="1:23">
       <c r="A634" s="1" t="n">
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>614.0628</v>
+        <v>730.7976</v>
       </c>
       <c r="C634" t="n">
         <v>2.921875</v>
@@ -44737,7 +44737,7 @@
         <v>705</v>
       </c>
       <c r="W634" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="635" spans="1:23">
@@ -44745,7 +44745,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>734.4012</v>
+        <v>614.0628</v>
       </c>
       <c r="C635" t="n">
         <v>2.921875</v>
@@ -44808,7 +44808,7 @@
         <v>705</v>
       </c>
       <c r="W635" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="636" spans="1:23">
@@ -44816,7 +44816,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>1109.5968</v>
+        <v>734.4012</v>
       </c>
       <c r="C636" t="n">
         <v>2.921875</v>
@@ -44879,7 +44879,7 @@
         <v>705</v>
       </c>
       <c r="W636" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="637" spans="1:23">
@@ -44887,7 +44887,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>76.128</v>
+        <v>1109.5968</v>
       </c>
       <c r="C637" t="n">
         <v>2.921875</v>
@@ -44935,7 +44935,7 @@
         <v>25</v>
       </c>
       <c r="R637" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S637" t="s">
         <v>24</v>
@@ -44950,7 +44950,7 @@
         <v>705</v>
       </c>
       <c r="W637" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="638" spans="1:23">
@@ -44958,7 +44958,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>75.9252</v>
+        <v>76.128</v>
       </c>
       <c r="C638" t="n">
         <v>2.921875</v>
@@ -45021,7 +45021,7 @@
         <v>705</v>
       </c>
       <c r="W638" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="639" spans="1:23">
@@ -45029,7 +45029,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>79.248</v>
+        <v>75.9252</v>
       </c>
       <c r="C639" t="n">
         <v>2.921875</v>
@@ -45092,7 +45092,7 @@
         <v>705</v>
       </c>
       <c r="W639" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="640" spans="1:23">
@@ -45100,7 +45100,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>79.3884</v>
+        <v>79.248</v>
       </c>
       <c r="C640" t="n">
         <v>2.921875</v>
@@ -45163,7 +45163,7 @@
         <v>705</v>
       </c>
       <c r="W640" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="641" spans="1:23">
@@ -45171,7 +45171,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>530.1660000000001</v>
+        <v>79.3884</v>
       </c>
       <c r="C641" t="n">
         <v>2.921875</v>
@@ -45219,13 +45219,13 @@
         <v>25</v>
       </c>
       <c r="R641" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S641" t="s">
         <v>24</v>
       </c>
       <c r="T641" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="U641" t="n">
         <v>722</v>
@@ -45234,7 +45234,7 @@
         <v>705</v>
       </c>
       <c r="W641" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="642" spans="1:23">
@@ -45242,7 +45242,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>898.4664</v>
+        <v>530.1660000000001</v>
       </c>
       <c r="C642" t="n">
         <v>2.921875</v>
@@ -45305,7 +45305,7 @@
         <v>705</v>
       </c>
       <c r="W642" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="643" spans="1:23">
@@ -45313,7 +45313,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>691.0176</v>
+        <v>898.4664</v>
       </c>
       <c r="C643" t="n">
         <v>2.921875</v>
@@ -45376,7 +45376,7 @@
         <v>705</v>
       </c>
       <c r="W643" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="644" spans="1:23">
@@ -45384,7 +45384,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>799.9836</v>
+        <v>691.0176</v>
       </c>
       <c r="C644" t="n">
         <v>2.921875</v>
@@ -45447,7 +45447,7 @@
         <v>705</v>
       </c>
       <c r="W644" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="645" spans="1:23">
@@ -45455,7 +45455,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>81.432</v>
+        <v>799.9836</v>
       </c>
       <c r="C645" t="n">
         <v>2.921875</v>
@@ -45503,7 +45503,7 @@
         <v>25</v>
       </c>
       <c r="R645" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S645" t="s">
         <v>24</v>
@@ -45518,7 +45518,7 @@
         <v>705</v>
       </c>
       <c r="W645" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="646" spans="1:23">
@@ -45526,7 +45526,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>77.2512</v>
+        <v>81.432</v>
       </c>
       <c r="C646" t="n">
         <v>2.921875</v>
@@ -45589,7 +45589,7 @@
         <v>705</v>
       </c>
       <c r="W646" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="647" spans="1:23">
@@ -45597,7 +45597,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>80.91719999999999</v>
+        <v>77.2512</v>
       </c>
       <c r="C647" t="n">
         <v>2.921875</v>
@@ -45660,7 +45660,7 @@
         <v>705</v>
       </c>
       <c r="W647" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="648" spans="1:23">
@@ -45668,7 +45668,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>76.2684</v>
+        <v>80.91719999999999</v>
       </c>
       <c r="C648" t="n">
         <v>2.921875</v>
@@ -45731,7 +45731,7 @@
         <v>705</v>
       </c>
       <c r="W648" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="649" spans="1:23">
@@ -45739,68 +45739,78 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>275.7924</v>
+        <v>76.2684</v>
       </c>
       <c r="C649" t="n">
-        <v>2.40625</v>
+        <v>2.921875</v>
       </c>
       <c r="D649" t="n">
-        <v>7.92578125e-09</v>
+        <v>4.8203125e-09</v>
       </c>
       <c r="E649" t="n">
-        <v>0.7312500000000001</v>
+        <v>0.7140625</v>
       </c>
       <c r="F649" t="n">
-        <v>0.75390625</v>
+        <v>0.76953125</v>
       </c>
       <c r="G649" t="n">
-        <v>5.849609375</v>
+        <v>7.79296875</v>
       </c>
       <c r="H649" t="n">
-        <v>9.578125e-09</v>
+        <v>7.97265625e-09</v>
       </c>
       <c r="I649" t="n">
-        <v>0.46875</v>
+        <v>0.16875</v>
       </c>
       <c r="J649" t="n">
-        <v>29.53125</v>
+        <v>336.09375</v>
       </c>
       <c r="K649" t="n">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="L649" t="n">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="M649" t="n">
-        <v>0.013125</v>
+        <v>0.012578125</v>
       </c>
       <c r="N649" t="n">
-        <v>150</v>
+        <v>629</v>
       </c>
       <c r="O649" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="P649" t="s">
         <v>22</v>
       </c>
       <c r="Q649" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R649" t="b">
-        <v>1</v>
-      </c>
-      <c r="S649" t="s"/>
-      <c r="T649" t="s"/>
-      <c r="U649" t="s"/>
-      <c r="V649" t="s"/>
-      <c r="W649" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="S649" t="s">
+        <v>24</v>
+      </c>
+      <c r="T649" t="n">
+        <v>706</v>
+      </c>
+      <c r="U649" t="n">
+        <v>722</v>
+      </c>
+      <c r="V649" t="n">
+        <v>705</v>
+      </c>
+      <c r="W649" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="650" spans="1:23">
       <c r="A650" s="1" t="n">
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>90.9012</v>
+        <v>275.7924</v>
       </c>
       <c r="C650" t="n">
         <v>2.40625</v>
@@ -45848,7 +45858,7 @@
         <v>23</v>
       </c>
       <c r="R650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S650" t="s"/>
       <c r="T650" t="s"/>
@@ -45861,7 +45871,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>640.1928</v>
+        <v>90.9012</v>
       </c>
       <c r="C651" t="n">
         <v>2.40625</v>
@@ -45909,30 +45919,20 @@
         <v>23</v>
       </c>
       <c r="R651" t="b">
-        <v>1</v>
-      </c>
-      <c r="S651" t="s">
-        <v>24</v>
-      </c>
-      <c r="T651" t="n">
-        <v>707</v>
-      </c>
-      <c r="U651" t="n">
-        <v>722</v>
-      </c>
-      <c r="V651" t="n">
-        <v>705</v>
-      </c>
-      <c r="W651" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S651" t="s"/>
+      <c r="T651" t="s"/>
+      <c r="U651" t="s"/>
+      <c r="V651" t="s"/>
+      <c r="W651" t="s"/>
     </row>
     <row r="652" spans="1:23">
       <c r="A652" s="1" t="n">
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>655.5119999999999</v>
+        <v>640.1928</v>
       </c>
       <c r="C652" t="n">
         <v>2.40625</v>
@@ -45995,7 +45995,7 @@
         <v>705</v>
       </c>
       <c r="W652" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="653" spans="1:23">
@@ -46003,7 +46003,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>973.2216</v>
+        <v>655.5119999999999</v>
       </c>
       <c r="C653" t="n">
         <v>2.40625</v>
@@ -46066,7 +46066,7 @@
         <v>705</v>
       </c>
       <c r="W653" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="654" spans="1:23">
@@ -46074,7 +46074,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>1032.8604</v>
+        <v>973.2216</v>
       </c>
       <c r="C654" t="n">
         <v>2.40625</v>
@@ -46137,7 +46137,7 @@
         <v>705</v>
       </c>
       <c r="W654" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="655" spans="1:23">
@@ -46145,7 +46145,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>80.02800000000001</v>
+        <v>1032.8604</v>
       </c>
       <c r="C655" t="n">
         <v>2.40625</v>
@@ -46193,7 +46193,7 @@
         <v>23</v>
       </c>
       <c r="R655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S655" t="s">
         <v>24</v>
@@ -46208,7 +46208,7 @@
         <v>705</v>
       </c>
       <c r="W655" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="656" spans="1:23">
@@ -46216,7 +46216,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>70.94880000000001</v>
+        <v>80.02800000000001</v>
       </c>
       <c r="C656" t="n">
         <v>2.40625</v>
@@ -46279,7 +46279,7 @@
         <v>705</v>
       </c>
       <c r="W656" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="657" spans="1:23">
@@ -46287,7 +46287,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>77.1576</v>
+        <v>70.94880000000001</v>
       </c>
       <c r="C657" t="n">
         <v>2.40625</v>
@@ -46350,7 +46350,7 @@
         <v>705</v>
       </c>
       <c r="W657" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="658" spans="1:23">
@@ -46358,7 +46358,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>82.7268</v>
+        <v>77.1576</v>
       </c>
       <c r="C658" t="n">
         <v>2.40625</v>
@@ -46421,7 +46421,7 @@
         <v>705</v>
       </c>
       <c r="W658" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="659" spans="1:23">
@@ -46429,7 +46429,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>549.12</v>
+        <v>82.7268</v>
       </c>
       <c r="C659" t="n">
         <v>2.40625</v>
@@ -46477,13 +46477,13 @@
         <v>23</v>
       </c>
       <c r="R659" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S659" t="s">
         <v>24</v>
       </c>
       <c r="T659" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="U659" t="n">
         <v>722</v>
@@ -46492,7 +46492,7 @@
         <v>705</v>
       </c>
       <c r="W659" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="660" spans="1:23">
@@ -46500,7 +46500,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>641.16</v>
+        <v>549.12</v>
       </c>
       <c r="C660" t="n">
         <v>2.40625</v>
@@ -46563,7 +46563,7 @@
         <v>705</v>
       </c>
       <c r="W660" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="661" spans="1:23">
@@ -46571,7 +46571,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>670.9872</v>
+        <v>641.16</v>
       </c>
       <c r="C661" t="n">
         <v>2.40625</v>
@@ -46634,7 +46634,7 @@
         <v>705</v>
       </c>
       <c r="W661" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="662" spans="1:23">
@@ -46642,7 +46642,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>730.7976</v>
+        <v>670.9872</v>
       </c>
       <c r="C662" t="n">
         <v>2.40625</v>
@@ -46705,7 +46705,7 @@
         <v>705</v>
       </c>
       <c r="W662" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="663" spans="1:23">
@@ -46713,7 +46713,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>80.7612</v>
+        <v>730.7976</v>
       </c>
       <c r="C663" t="n">
         <v>2.40625</v>
@@ -46761,7 +46761,7 @@
         <v>23</v>
       </c>
       <c r="R663" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S663" t="s">
         <v>24</v>
@@ -46776,7 +46776,7 @@
         <v>705</v>
       </c>
       <c r="W663" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="664" spans="1:23">
@@ -46784,7 +46784,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>77.5476</v>
+        <v>80.7612</v>
       </c>
       <c r="C664" t="n">
         <v>2.40625</v>
@@ -46847,7 +46847,7 @@
         <v>705</v>
       </c>
       <c r="W664" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="665" spans="1:23">
@@ -46855,7 +46855,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>76.81440000000001</v>
+        <v>77.5476</v>
       </c>
       <c r="C665" t="n">
         <v>2.40625</v>
@@ -46918,7 +46918,7 @@
         <v>705</v>
       </c>
       <c r="W665" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="666" spans="1:23">
@@ -46926,7 +46926,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>78.78</v>
+        <v>76.81440000000001</v>
       </c>
       <c r="C666" t="n">
         <v>2.40625</v>
@@ -46989,7 +46989,7 @@
         <v>705</v>
       </c>
       <c r="W666" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="667" spans="1:23">
@@ -46997,43 +46997,43 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>25354.093596</v>
+        <v>78.78</v>
       </c>
       <c r="C667" t="n">
-        <v>1.779296875</v>
+        <v>2.40625</v>
       </c>
       <c r="D667" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>7.92578125e-09</v>
       </c>
       <c r="E667" t="n">
-        <v>0.5796875</v>
+        <v>0.7312500000000001</v>
       </c>
       <c r="F667" t="n">
-        <v>1.84765625</v>
+        <v>0.75390625</v>
       </c>
       <c r="G667" t="n">
-        <v>7.16796875</v>
+        <v>5.849609375</v>
       </c>
       <c r="H667" t="n">
-        <v>5.1015625e-09</v>
+        <v>9.578125e-09</v>
       </c>
       <c r="I667" t="n">
-        <v>0.25546875</v>
+        <v>0.46875</v>
       </c>
       <c r="J667" t="n">
-        <v>180</v>
+        <v>29.53125</v>
       </c>
       <c r="K667" t="n">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="L667" t="n">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="M667" t="n">
-        <v>0.012109375</v>
+        <v>0.013125</v>
       </c>
       <c r="N667" t="n">
-        <v>628</v>
+        <v>150</v>
       </c>
       <c r="O667" t="n">
         <v>2020</v>
@@ -47042,23 +47042,33 @@
         <v>22</v>
       </c>
       <c r="Q667" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R667" t="b">
-        <v>1</v>
-      </c>
-      <c r="S667" t="s"/>
-      <c r="T667" t="s"/>
-      <c r="U667" t="s"/>
-      <c r="V667" t="s"/>
-      <c r="W667" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="S667" t="s">
+        <v>24</v>
+      </c>
+      <c r="T667" t="n">
+        <v>706</v>
+      </c>
+      <c r="U667" t="n">
+        <v>722</v>
+      </c>
+      <c r="V667" t="n">
+        <v>705</v>
+      </c>
+      <c r="W667" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="668" spans="1:23">
       <c r="A668" s="1" t="n">
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>86414.212468</v>
+        <v>25354.093596</v>
       </c>
       <c r="C668" t="n">
         <v>1.779296875</v>
@@ -47106,7 +47116,7 @@
         <v>25</v>
       </c>
       <c r="R668" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S668" t="s"/>
       <c r="T668" t="s"/>
@@ -47119,7 +47129,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>50310.390733</v>
+        <v>86414.212468</v>
       </c>
       <c r="C669" t="n">
         <v>1.779296875</v>
@@ -47167,30 +47177,20 @@
         <v>25</v>
       </c>
       <c r="R669" t="b">
-        <v>1</v>
-      </c>
-      <c r="S669" t="s">
-        <v>24</v>
-      </c>
-      <c r="T669" t="n">
-        <v>707</v>
-      </c>
-      <c r="U669" t="n">
-        <v>722</v>
-      </c>
-      <c r="V669" t="n">
-        <v>705</v>
-      </c>
-      <c r="W669" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S669" t="s"/>
+      <c r="T669" t="s"/>
+      <c r="U669" t="s"/>
+      <c r="V669" t="s"/>
+      <c r="W669" t="s"/>
     </row>
     <row r="670" spans="1:23">
       <c r="A670" s="1" t="n">
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>86424.028468</v>
+        <v>50310.390733</v>
       </c>
       <c r="C670" t="n">
         <v>1.779296875</v>
@@ -47253,7 +47253,7 @@
         <v>705</v>
       </c>
       <c r="W670" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="671" spans="1:23">
@@ -47261,7 +47261,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>67451.866933</v>
+        <v>86424.028468</v>
       </c>
       <c r="C671" t="n">
         <v>1.779296875</v>
@@ -47324,7 +47324,7 @@
         <v>705</v>
       </c>
       <c r="W671" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="672" spans="1:23">
@@ -47332,13 +47332,13 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>86420.393469</v>
+        <v>67451.866933</v>
       </c>
       <c r="C672" t="n">
         <v>1.779296875</v>
       </c>
       <c r="D672" t="n">
-        <v>9.53125e-09</v>
+        <v>9.531250000000001e-09</v>
       </c>
       <c r="E672" t="n">
         <v>0.5796875</v>
@@ -47395,7 +47395,7 @@
         <v>705</v>
       </c>
       <c r="W672" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="673" spans="1:23">
@@ -47403,7 +47403,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>86414.042076</v>
+        <v>86420.393469</v>
       </c>
       <c r="C673" t="n">
         <v>1.779296875</v>
@@ -47451,7 +47451,7 @@
         <v>25</v>
       </c>
       <c r="R673" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S673" t="s">
         <v>24</v>
@@ -47466,7 +47466,7 @@
         <v>705</v>
       </c>
       <c r="W673" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="674" spans="1:23">
@@ -47474,13 +47474,13 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>86453.78526800001</v>
+        <v>86414.042076</v>
       </c>
       <c r="C674" t="n">
         <v>1.779296875</v>
       </c>
       <c r="D674" t="n">
-        <v>9.531250000000001e-09</v>
+        <v>9.53125e-09</v>
       </c>
       <c r="E674" t="n">
         <v>0.5796875</v>
@@ -47537,7 +47537,7 @@
         <v>705</v>
       </c>
       <c r="W674" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="675" spans="1:23">
@@ -47545,7 +47545,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>86420.894468</v>
+        <v>86453.78526800001</v>
       </c>
       <c r="C675" t="n">
         <v>1.779296875</v>
@@ -47608,7 +47608,7 @@
         <v>705</v>
       </c>
       <c r="W675" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="676" spans="1:23">
@@ -47616,7 +47616,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>86453.642668</v>
+        <v>86420.894468</v>
       </c>
       <c r="C676" t="n">
         <v>1.779296875</v>
@@ -47679,7 +47679,7 @@
         <v>705</v>
       </c>
       <c r="W676" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="677" spans="1:23">
@@ -47687,7 +47687,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>48789.022533</v>
+        <v>86453.642668</v>
       </c>
       <c r="C677" t="n">
         <v>1.779296875</v>
@@ -47735,13 +47735,13 @@
         <v>25</v>
       </c>
       <c r="R677" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S677" t="s">
         <v>24</v>
       </c>
       <c r="T677" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="U677" t="n">
         <v>722</v>
@@ -47750,7 +47750,7 @@
         <v>705</v>
       </c>
       <c r="W677" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="678" spans="1:23">
@@ -47758,13 +47758,13 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>59733.929931</v>
+        <v>48789.022533</v>
       </c>
       <c r="C678" t="n">
         <v>1.779296875</v>
       </c>
       <c r="D678" t="n">
-        <v>9.53125e-09</v>
+        <v>9.531250000000001e-09</v>
       </c>
       <c r="E678" t="n">
         <v>0.5796875</v>
@@ -47821,7 +47821,7 @@
         <v>705</v>
       </c>
       <c r="W678" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="679" spans="1:23">
@@ -47829,43 +47829,43 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>4684.684</v>
+        <v>59733.929931</v>
       </c>
       <c r="C679" t="n">
-        <v>3.7890625</v>
+        <v>1.779296875</v>
       </c>
       <c r="D679" t="n">
-        <v>8.734375000000001e-09</v>
+        <v>9.53125e-09</v>
       </c>
       <c r="E679" t="n">
-        <v>0.6125</v>
+        <v>0.5796875</v>
       </c>
       <c r="F679" t="n">
-        <v>1.765625</v>
+        <v>1.84765625</v>
       </c>
       <c r="G679" t="n">
-        <v>7.529296875</v>
+        <v>7.16796875</v>
       </c>
       <c r="H679" t="n">
-        <v>7.84375e-09</v>
+        <v>5.1015625e-09</v>
       </c>
       <c r="I679" t="n">
-        <v>0.0234375</v>
+        <v>0.25546875</v>
       </c>
       <c r="J679" t="n">
-        <v>29.53125</v>
+        <v>180</v>
       </c>
       <c r="K679" t="n">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="L679" t="n">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M679" t="n">
-        <v>0.01017578125</v>
+        <v>0.012109375</v>
       </c>
       <c r="N679" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O679" t="n">
         <v>2020</v>
@@ -47874,7 +47874,7 @@
         <v>22</v>
       </c>
       <c r="Q679" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R679" t="b">
         <v>1</v>
@@ -47883,7 +47883,7 @@
         <v>24</v>
       </c>
       <c r="T679" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U679" t="n">
         <v>722</v>
@@ -47900,43 +47900,43 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>6305.6296</v>
+        <v>74027.726272</v>
       </c>
       <c r="C680" t="n">
-        <v>3.7890625</v>
+        <v>1.779296875</v>
       </c>
       <c r="D680" t="n">
-        <v>8.734375000000001e-09</v>
+        <v>9.53125e-09</v>
       </c>
       <c r="E680" t="n">
-        <v>0.6125</v>
+        <v>0.5796875</v>
       </c>
       <c r="F680" t="n">
-        <v>1.765625</v>
+        <v>1.84765625</v>
       </c>
       <c r="G680" t="n">
-        <v>7.529296875</v>
+        <v>7.16796875</v>
       </c>
       <c r="H680" t="n">
-        <v>7.84375e-09</v>
+        <v>5.1015625e-09</v>
       </c>
       <c r="I680" t="n">
-        <v>0.0234375</v>
+        <v>0.25546875</v>
       </c>
       <c r="J680" t="n">
-        <v>29.53125</v>
+        <v>180</v>
       </c>
       <c r="K680" t="n">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="L680" t="n">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M680" t="n">
-        <v>0.01017578125</v>
+        <v>0.012109375</v>
       </c>
       <c r="N680" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O680" t="n">
         <v>2020</v>
@@ -47945,7 +47945,7 @@
         <v>22</v>
       </c>
       <c r="Q680" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R680" t="b">
         <v>1</v>
@@ -47954,7 +47954,7 @@
         <v>24</v>
       </c>
       <c r="T680" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U680" t="n">
         <v>722</v>
@@ -47971,43 +47971,43 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>644.7866</v>
+        <v>86406.654272</v>
       </c>
       <c r="C681" t="n">
-        <v>3.7890625</v>
+        <v>1.779296875</v>
       </c>
       <c r="D681" t="n">
-        <v>8.734375000000001e-09</v>
+        <v>9.53125e-09</v>
       </c>
       <c r="E681" t="n">
-        <v>0.6125</v>
+        <v>0.5796875</v>
       </c>
       <c r="F681" t="n">
-        <v>1.765625</v>
+        <v>1.84765625</v>
       </c>
       <c r="G681" t="n">
-        <v>7.529296875</v>
+        <v>7.16796875</v>
       </c>
       <c r="H681" t="n">
-        <v>7.84375e-09</v>
+        <v>5.1015625e-09</v>
       </c>
       <c r="I681" t="n">
-        <v>0.0234375</v>
+        <v>0.25546875</v>
       </c>
       <c r="J681" t="n">
-        <v>29.53125</v>
+        <v>180</v>
       </c>
       <c r="K681" t="n">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="L681" t="n">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M681" t="n">
-        <v>0.01017578125</v>
+        <v>0.012109375</v>
       </c>
       <c r="N681" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O681" t="n">
         <v>2020</v>
@@ -48016,16 +48016,16 @@
         <v>22</v>
       </c>
       <c r="Q681" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R681" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S681" t="s">
         <v>24</v>
       </c>
       <c r="T681" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U681" t="n">
         <v>722</v>
@@ -48034,7 +48034,7 @@
         <v>705</v>
       </c>
       <c r="W681" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="682" spans="1:23">
@@ -48042,43 +48042,43 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>714.9866</v>
+        <v>86406.217472</v>
       </c>
       <c r="C682" t="n">
-        <v>3.7890625</v>
+        <v>1.779296875</v>
       </c>
       <c r="D682" t="n">
-        <v>8.734375000000001e-09</v>
+        <v>9.53125e-09</v>
       </c>
       <c r="E682" t="n">
-        <v>0.6125</v>
+        <v>0.5796875</v>
       </c>
       <c r="F682" t="n">
-        <v>1.765625</v>
+        <v>1.84765625</v>
       </c>
       <c r="G682" t="n">
-        <v>7.529296875</v>
+        <v>7.16796875</v>
       </c>
       <c r="H682" t="n">
-        <v>7.84375e-09</v>
+        <v>5.1015625e-09</v>
       </c>
       <c r="I682" t="n">
-        <v>0.0234375</v>
+        <v>0.25546875</v>
       </c>
       <c r="J682" t="n">
-        <v>29.53125</v>
+        <v>180</v>
       </c>
       <c r="K682" t="n">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="L682" t="n">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M682" t="n">
-        <v>0.01017578125</v>
+        <v>0.012109375</v>
       </c>
       <c r="N682" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O682" t="n">
         <v>2020</v>
@@ -48087,7 +48087,7 @@
         <v>22</v>
       </c>
       <c r="Q682" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R682" t="b">
         <v>0</v>
@@ -48096,7 +48096,7 @@
         <v>24</v>
       </c>
       <c r="T682" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U682" t="n">
         <v>722</v>
@@ -48105,7 +48105,7 @@
         <v>705</v>
       </c>
       <c r="W682" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="683" spans="1:23">
@@ -48113,43 +48113,43 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>2538.9056</v>
+        <v>86400.211472</v>
       </c>
       <c r="C683" t="n">
-        <v>3.7890625</v>
+        <v>1.779296875</v>
       </c>
       <c r="D683" t="n">
-        <v>8.734375000000001e-09</v>
+        <v>9.531250000000001e-09</v>
       </c>
       <c r="E683" t="n">
-        <v>0.6125</v>
+        <v>0.5796875</v>
       </c>
       <c r="F683" t="n">
-        <v>1.765625</v>
+        <v>1.84765625</v>
       </c>
       <c r="G683" t="n">
-        <v>7.529296875</v>
+        <v>7.16796875</v>
       </c>
       <c r="H683" t="n">
-        <v>7.84375e-09</v>
+        <v>5.1015625e-09</v>
       </c>
       <c r="I683" t="n">
-        <v>0.0234375</v>
+        <v>0.25546875</v>
       </c>
       <c r="J683" t="n">
-        <v>29.53125</v>
+        <v>180</v>
       </c>
       <c r="K683" t="n">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="L683" t="n">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M683" t="n">
-        <v>0.01017578125</v>
+        <v>0.012109375</v>
       </c>
       <c r="N683" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O683" t="n">
         <v>2020</v>
@@ -48158,10 +48158,10 @@
         <v>22</v>
       </c>
       <c r="Q683" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R683" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S683" t="s">
         <v>24</v>
@@ -48176,7 +48176,7 @@
         <v>705</v>
       </c>
       <c r="W683" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="684" spans="1:23">
@@ -48184,43 +48184,43 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>1042.2268</v>
+        <v>86406.20187200001</v>
       </c>
       <c r="C684" t="n">
-        <v>3.7890625</v>
+        <v>1.779296875</v>
       </c>
       <c r="D684" t="n">
-        <v>8.734375000000001e-09</v>
+        <v>9.531250000000001e-09</v>
       </c>
       <c r="E684" t="n">
-        <v>0.6125</v>
+        <v>0.5796875</v>
       </c>
       <c r="F684" t="n">
-        <v>1.765625</v>
+        <v>1.84765625</v>
       </c>
       <c r="G684" t="n">
-        <v>7.529296875</v>
+        <v>7.16796875</v>
       </c>
       <c r="H684" t="n">
-        <v>7.84375e-09</v>
+        <v>5.1015625e-09</v>
       </c>
       <c r="I684" t="n">
-        <v>0.0234375</v>
+        <v>0.25546875</v>
       </c>
       <c r="J684" t="n">
-        <v>29.53125</v>
+        <v>180</v>
       </c>
       <c r="K684" t="n">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="L684" t="n">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M684" t="n">
-        <v>0.01017578125</v>
+        <v>0.012109375</v>
       </c>
       <c r="N684" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O684" t="n">
         <v>2020</v>
@@ -48229,7 +48229,7 @@
         <v>22</v>
       </c>
       <c r="Q684" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R684" t="b">
         <v>0</v>
@@ -48247,7 +48247,7 @@
         <v>705</v>
       </c>
       <c r="W684" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="685" spans="1:23">
@@ -48255,46 +48255,46 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>3600.5586</v>
+        <v>81763.13787200001</v>
       </c>
       <c r="C685" t="n">
-        <v>2.6875</v>
+        <v>1.779296875</v>
       </c>
       <c r="D685" t="n">
-        <v>9.90625e-09</v>
+        <v>9.53125e-09</v>
       </c>
       <c r="E685" t="n">
-        <v>0.72890625</v>
+        <v>0.5796875</v>
       </c>
       <c r="F685" t="n">
-        <v>1.625</v>
+        <v>1.84765625</v>
       </c>
       <c r="G685" t="n">
-        <v>8.779296875</v>
+        <v>7.16796875</v>
       </c>
       <c r="H685" t="n">
-        <v>5.875e-09</v>
+        <v>5.1015625e-09</v>
       </c>
       <c r="I685" t="n">
-        <v>0.0703125</v>
+        <v>0.25546875</v>
       </c>
       <c r="J685" t="n">
-        <v>193.359375</v>
+        <v>180</v>
       </c>
       <c r="K685" t="n">
-        <v>0.403125</v>
+        <v>0.55</v>
       </c>
       <c r="L685" t="n">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="M685" t="n">
-        <v>0.01859375</v>
+        <v>0.012109375</v>
       </c>
       <c r="N685" t="n">
-        <v>148</v>
+        <v>628</v>
       </c>
       <c r="O685" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P685" t="s">
         <v>22</v>
@@ -48303,13 +48303,13 @@
         <v>25</v>
       </c>
       <c r="R685" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S685" t="s">
         <v>24</v>
       </c>
       <c r="T685" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U685" t="n">
         <v>722</v>
@@ -48318,7 +48318,7 @@
         <v>705</v>
       </c>
       <c r="W685" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="686" spans="1:23">
@@ -48326,141 +48326,2515 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>5036.3486</v>
+        <v>2231.2918</v>
       </c>
       <c r="C686" t="n">
-        <v>2.6875</v>
+        <v>3.7890625</v>
       </c>
       <c r="D686" t="n">
-        <v>9.90625e-09</v>
+        <v>8.734374999999999e-09</v>
       </c>
       <c r="E686" t="n">
-        <v>0.7289062500000001</v>
+        <v>0.6125</v>
       </c>
       <c r="F686" t="n">
-        <v>1.625</v>
+        <v>1.765625</v>
       </c>
       <c r="G686" t="n">
-        <v>8.779296875</v>
+        <v>7.529296875</v>
       </c>
       <c r="H686" t="n">
-        <v>5.875e-09</v>
+        <v>7.84375e-09</v>
       </c>
       <c r="I686" t="n">
-        <v>0.0703125</v>
+        <v>0.0234375</v>
       </c>
       <c r="J686" t="n">
-        <v>193.359375</v>
+        <v>29.53125</v>
       </c>
       <c r="K686" t="n">
-        <v>0.4031250000000001</v>
+        <v>0.425</v>
       </c>
       <c r="L686" t="n">
-        <v>467</v>
+        <v>543</v>
       </c>
       <c r="M686" t="n">
-        <v>0.01859375</v>
+        <v>0.01017578125</v>
       </c>
       <c r="N686" t="n">
-        <v>148</v>
+        <v>630</v>
       </c>
       <c r="O686" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="P686" t="s">
         <v>22</v>
       </c>
       <c r="Q686" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R686" t="b">
         <v>1</v>
       </c>
-      <c r="S686" t="s">
-        <v>24</v>
-      </c>
-      <c r="T686" t="n">
-        <v>707</v>
-      </c>
-      <c r="U686" t="n">
-        <v>722</v>
-      </c>
-      <c r="V686" t="n">
-        <v>705</v>
-      </c>
-      <c r="W686" t="n">
-        <v>80</v>
-      </c>
+      <c r="S686" t="s"/>
+      <c r="T686" t="s"/>
+      <c r="U686" t="s"/>
+      <c r="V686" t="s"/>
+      <c r="W686" t="s"/>
     </row>
     <row r="687" spans="1:23">
       <c r="A687" s="1" t="n">
         <v>685</v>
       </c>
       <c r="B687" t="n">
+        <v>16945.380609</v>
+      </c>
+      <c r="C687" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D687" t="n">
+        <v>8.734374999999999e-09</v>
+      </c>
+      <c r="E687" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G687" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H687" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I687" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J687" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K687" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L687" t="n">
+        <v>543</v>
+      </c>
+      <c r="M687" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N687" t="n">
+        <v>630</v>
+      </c>
+      <c r="O687" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P687" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q687" t="s">
+        <v>23</v>
+      </c>
+      <c r="R687" t="b">
+        <v>0</v>
+      </c>
+      <c r="S687" t="s"/>
+      <c r="T687" t="s"/>
+      <c r="U687" t="s"/>
+      <c r="V687" t="s"/>
+      <c r="W687" t="s"/>
+    </row>
+    <row r="688" spans="1:23">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>4903.5874</v>
+      </c>
+      <c r="C688" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D688" t="n">
+        <v>8.734374999999999e-09</v>
+      </c>
+      <c r="E688" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F688" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G688" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H688" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I688" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J688" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K688" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L688" t="n">
+        <v>543</v>
+      </c>
+      <c r="M688" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N688" t="n">
+        <v>630</v>
+      </c>
+      <c r="O688" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P688" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q688" t="s">
+        <v>23</v>
+      </c>
+      <c r="R688" t="b">
+        <v>1</v>
+      </c>
+      <c r="S688" t="s">
+        <v>24</v>
+      </c>
+      <c r="T688" t="n">
+        <v>707</v>
+      </c>
+      <c r="U688" t="n">
+        <v>722</v>
+      </c>
+      <c r="V688" t="n">
+        <v>705</v>
+      </c>
+      <c r="W688" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="689" spans="1:23">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>4684.684</v>
+      </c>
+      <c r="C689" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D689" t="n">
+        <v>8.734375000000001e-09</v>
+      </c>
+      <c r="E689" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F689" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G689" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H689" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J689" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K689" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L689" t="n">
+        <v>543</v>
+      </c>
+      <c r="M689" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N689" t="n">
+        <v>630</v>
+      </c>
+      <c r="O689" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P689" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q689" t="s">
+        <v>23</v>
+      </c>
+      <c r="R689" t="b">
+        <v>1</v>
+      </c>
+      <c r="S689" t="s">
+        <v>24</v>
+      </c>
+      <c r="T689" t="n">
+        <v>707</v>
+      </c>
+      <c r="U689" t="n">
+        <v>722</v>
+      </c>
+      <c r="V689" t="n">
+        <v>705</v>
+      </c>
+      <c r="W689" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="690" spans="1:23">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>6305.6296</v>
+      </c>
+      <c r="C690" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D690" t="n">
+        <v>8.734375000000001e-09</v>
+      </c>
+      <c r="E690" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F690" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G690" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H690" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I690" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J690" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K690" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L690" t="n">
+        <v>543</v>
+      </c>
+      <c r="M690" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N690" t="n">
+        <v>630</v>
+      </c>
+      <c r="O690" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P690" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q690" t="s">
+        <v>23</v>
+      </c>
+      <c r="R690" t="b">
+        <v>1</v>
+      </c>
+      <c r="S690" t="s">
+        <v>24</v>
+      </c>
+      <c r="T690" t="n">
+        <v>707</v>
+      </c>
+      <c r="U690" t="n">
+        <v>722</v>
+      </c>
+      <c r="V690" t="n">
+        <v>705</v>
+      </c>
+      <c r="W690" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="691" spans="1:23">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>6473.275</v>
+      </c>
+      <c r="C691" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D691" t="n">
+        <v>8.734374999999999e-09</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F691" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G691" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H691" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I691" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J691" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K691" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L691" t="n">
+        <v>543</v>
+      </c>
+      <c r="M691" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N691" t="n">
+        <v>630</v>
+      </c>
+      <c r="O691" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P691" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q691" t="s">
+        <v>23</v>
+      </c>
+      <c r="R691" t="b">
+        <v>1</v>
+      </c>
+      <c r="S691" t="s">
+        <v>24</v>
+      </c>
+      <c r="T691" t="n">
+        <v>707</v>
+      </c>
+      <c r="U691" t="n">
+        <v>722</v>
+      </c>
+      <c r="V691" t="n">
+        <v>705</v>
+      </c>
+      <c r="W691" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="692" spans="1:23">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>644.7866</v>
+      </c>
+      <c r="C692" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D692" t="n">
+        <v>8.734375000000001e-09</v>
+      </c>
+      <c r="E692" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G692" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H692" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I692" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J692" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K692" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L692" t="n">
+        <v>543</v>
+      </c>
+      <c r="M692" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N692" t="n">
+        <v>630</v>
+      </c>
+      <c r="O692" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P692" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q692" t="s">
+        <v>23</v>
+      </c>
+      <c r="R692" t="b">
+        <v>0</v>
+      </c>
+      <c r="S692" t="s">
+        <v>24</v>
+      </c>
+      <c r="T692" t="n">
+        <v>707</v>
+      </c>
+      <c r="U692" t="n">
+        <v>722</v>
+      </c>
+      <c r="V692" t="n">
+        <v>705</v>
+      </c>
+      <c r="W692" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="693" spans="1:23">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>714.9866</v>
+      </c>
+      <c r="C693" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D693" t="n">
+        <v>8.734375000000001e-09</v>
+      </c>
+      <c r="E693" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G693" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H693" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I693" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J693" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K693" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L693" t="n">
+        <v>543</v>
+      </c>
+      <c r="M693" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N693" t="n">
+        <v>630</v>
+      </c>
+      <c r="O693" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P693" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q693" t="s">
+        <v>23</v>
+      </c>
+      <c r="R693" t="b">
+        <v>0</v>
+      </c>
+      <c r="S693" t="s">
+        <v>24</v>
+      </c>
+      <c r="T693" t="n">
+        <v>707</v>
+      </c>
+      <c r="U693" t="n">
+        <v>722</v>
+      </c>
+      <c r="V693" t="n">
+        <v>705</v>
+      </c>
+      <c r="W693" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="694" spans="1:23">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>1031.3398</v>
+      </c>
+      <c r="C694" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D694" t="n">
+        <v>8.734374999999999e-09</v>
+      </c>
+      <c r="E694" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F694" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G694" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H694" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I694" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J694" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K694" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L694" t="n">
+        <v>543</v>
+      </c>
+      <c r="M694" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N694" t="n">
+        <v>630</v>
+      </c>
+      <c r="O694" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P694" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q694" t="s">
+        <v>23</v>
+      </c>
+      <c r="R694" t="b">
+        <v>0</v>
+      </c>
+      <c r="S694" t="s">
+        <v>24</v>
+      </c>
+      <c r="T694" t="n">
+        <v>707</v>
+      </c>
+      <c r="U694" t="n">
+        <v>722</v>
+      </c>
+      <c r="V694" t="n">
+        <v>705</v>
+      </c>
+      <c r="W694" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="695" spans="1:23">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>944.8452</v>
+      </c>
+      <c r="C695" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D695" t="n">
+        <v>8.734374999999999e-09</v>
+      </c>
+      <c r="E695" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G695" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H695" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I695" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J695" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K695" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L695" t="n">
+        <v>543</v>
+      </c>
+      <c r="M695" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N695" t="n">
+        <v>630</v>
+      </c>
+      <c r="O695" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P695" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q695" t="s">
+        <v>23</v>
+      </c>
+      <c r="R695" t="b">
+        <v>0</v>
+      </c>
+      <c r="S695" t="s">
+        <v>24</v>
+      </c>
+      <c r="T695" t="n">
+        <v>707</v>
+      </c>
+      <c r="U695" t="n">
+        <v>722</v>
+      </c>
+      <c r="V695" t="n">
+        <v>705</v>
+      </c>
+      <c r="W695" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="696" spans="1:23">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>3619.3404</v>
+      </c>
+      <c r="C696" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D696" t="n">
+        <v>8.734374999999999e-09</v>
+      </c>
+      <c r="E696" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F696" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G696" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H696" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I696" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J696" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K696" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L696" t="n">
+        <v>543</v>
+      </c>
+      <c r="M696" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N696" t="n">
+        <v>630</v>
+      </c>
+      <c r="O696" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P696" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q696" t="s">
+        <v>23</v>
+      </c>
+      <c r="R696" t="b">
+        <v>1</v>
+      </c>
+      <c r="S696" t="s">
+        <v>24</v>
+      </c>
+      <c r="T696" t="n">
+        <v>706</v>
+      </c>
+      <c r="U696" t="n">
+        <v>722</v>
+      </c>
+      <c r="V696" t="n">
+        <v>705</v>
+      </c>
+      <c r="W696" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="697" spans="1:23">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>4016.5632</v>
+      </c>
+      <c r="C697" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D697" t="n">
+        <v>8.734374999999999e-09</v>
+      </c>
+      <c r="E697" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F697" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G697" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H697" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I697" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J697" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K697" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L697" t="n">
+        <v>543</v>
+      </c>
+      <c r="M697" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N697" t="n">
+        <v>630</v>
+      </c>
+      <c r="O697" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P697" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q697" t="s">
+        <v>23</v>
+      </c>
+      <c r="R697" t="b">
+        <v>1</v>
+      </c>
+      <c r="S697" t="s">
+        <v>24</v>
+      </c>
+      <c r="T697" t="n">
+        <v>706</v>
+      </c>
+      <c r="U697" t="n">
+        <v>722</v>
+      </c>
+      <c r="V697" t="n">
+        <v>705</v>
+      </c>
+      <c r="W697" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="698" spans="1:23">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>2538.9056</v>
+      </c>
+      <c r="C698" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D698" t="n">
+        <v>8.734375000000001e-09</v>
+      </c>
+      <c r="E698" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F698" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G698" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H698" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I698" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J698" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K698" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L698" t="n">
+        <v>543</v>
+      </c>
+      <c r="M698" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N698" t="n">
+        <v>630</v>
+      </c>
+      <c r="O698" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P698" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q698" t="s">
+        <v>23</v>
+      </c>
+      <c r="R698" t="b">
+        <v>1</v>
+      </c>
+      <c r="S698" t="s">
+        <v>24</v>
+      </c>
+      <c r="T698" t="n">
+        <v>706</v>
+      </c>
+      <c r="U698" t="n">
+        <v>722</v>
+      </c>
+      <c r="V698" t="n">
+        <v>705</v>
+      </c>
+      <c r="W698" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="699" spans="1:23">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>6499.9284</v>
+      </c>
+      <c r="C699" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D699" t="n">
+        <v>8.734375000000001e-09</v>
+      </c>
+      <c r="E699" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F699" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G699" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H699" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J699" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K699" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L699" t="n">
+        <v>543</v>
+      </c>
+      <c r="M699" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N699" t="n">
+        <v>630</v>
+      </c>
+      <c r="O699" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P699" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q699" t="s">
+        <v>23</v>
+      </c>
+      <c r="R699" t="b">
+        <v>1</v>
+      </c>
+      <c r="S699" t="s">
+        <v>24</v>
+      </c>
+      <c r="T699" t="n">
+        <v>706</v>
+      </c>
+      <c r="U699" t="n">
+        <v>722</v>
+      </c>
+      <c r="V699" t="n">
+        <v>705</v>
+      </c>
+      <c r="W699" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="700" spans="1:23">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>1082.6556</v>
+      </c>
+      <c r="C700" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D700" t="n">
+        <v>8.734374999999999e-09</v>
+      </c>
+      <c r="E700" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F700" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G700" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H700" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I700" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J700" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K700" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L700" t="n">
+        <v>543</v>
+      </c>
+      <c r="M700" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N700" t="n">
+        <v>630</v>
+      </c>
+      <c r="O700" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P700" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q700" t="s">
+        <v>23</v>
+      </c>
+      <c r="R700" t="b">
+        <v>0</v>
+      </c>
+      <c r="S700" t="s">
+        <v>24</v>
+      </c>
+      <c r="T700" t="n">
+        <v>706</v>
+      </c>
+      <c r="U700" t="n">
+        <v>722</v>
+      </c>
+      <c r="V700" t="n">
+        <v>705</v>
+      </c>
+      <c r="W700" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="701" spans="1:23">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>1042.2268</v>
+      </c>
+      <c r="C701" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D701" t="n">
+        <v>8.734375000000001e-09</v>
+      </c>
+      <c r="E701" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G701" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H701" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I701" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J701" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K701" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L701" t="n">
+        <v>543</v>
+      </c>
+      <c r="M701" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N701" t="n">
+        <v>630</v>
+      </c>
+      <c r="O701" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P701" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q701" t="s">
+        <v>23</v>
+      </c>
+      <c r="R701" t="b">
+        <v>0</v>
+      </c>
+      <c r="S701" t="s">
+        <v>24</v>
+      </c>
+      <c r="T701" t="n">
+        <v>706</v>
+      </c>
+      <c r="U701" t="n">
+        <v>722</v>
+      </c>
+      <c r="V701" t="n">
+        <v>705</v>
+      </c>
+      <c r="W701" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="702" spans="1:23">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>1382.2848</v>
+      </c>
+      <c r="C702" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D702" t="n">
+        <v>8.734374999999999e-09</v>
+      </c>
+      <c r="E702" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F702" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G702" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H702" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J702" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K702" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L702" t="n">
+        <v>543</v>
+      </c>
+      <c r="M702" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N702" t="n">
+        <v>630</v>
+      </c>
+      <c r="O702" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P702" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q702" t="s">
+        <v>23</v>
+      </c>
+      <c r="R702" t="b">
+        <v>0</v>
+      </c>
+      <c r="S702" t="s">
+        <v>24</v>
+      </c>
+      <c r="T702" t="n">
+        <v>706</v>
+      </c>
+      <c r="U702" t="n">
+        <v>722</v>
+      </c>
+      <c r="V702" t="n">
+        <v>705</v>
+      </c>
+      <c r="W702" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="703" spans="1:23">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>1211.73</v>
+      </c>
+      <c r="C703" t="n">
+        <v>3.7890625</v>
+      </c>
+      <c r="D703" t="n">
+        <v>8.734374999999999e-09</v>
+      </c>
+      <c r="E703" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F703" t="n">
+        <v>1.765625</v>
+      </c>
+      <c r="G703" t="n">
+        <v>7.529296875</v>
+      </c>
+      <c r="H703" t="n">
+        <v>7.84375e-09</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J703" t="n">
+        <v>29.53125</v>
+      </c>
+      <c r="K703" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L703" t="n">
+        <v>543</v>
+      </c>
+      <c r="M703" t="n">
+        <v>0.01017578125</v>
+      </c>
+      <c r="N703" t="n">
+        <v>630</v>
+      </c>
+      <c r="O703" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P703" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q703" t="s">
+        <v>23</v>
+      </c>
+      <c r="R703" t="b">
+        <v>0</v>
+      </c>
+      <c r="S703" t="s">
+        <v>24</v>
+      </c>
+      <c r="T703" t="n">
+        <v>706</v>
+      </c>
+      <c r="U703" t="n">
+        <v>722</v>
+      </c>
+      <c r="V703" t="n">
+        <v>705</v>
+      </c>
+      <c r="W703" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="704" spans="1:23">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>1964.3052</v>
+      </c>
+      <c r="C704" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D704" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E704" t="n">
+        <v>0.72890625</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G704" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H704" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J704" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K704" t="n">
+        <v>0.403125</v>
+      </c>
+      <c r="L704" t="n">
+        <v>467</v>
+      </c>
+      <c r="M704" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N704" t="n">
+        <v>148</v>
+      </c>
+      <c r="O704" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P704" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q704" t="s">
+        <v>25</v>
+      </c>
+      <c r="R704" t="b">
+        <v>1</v>
+      </c>
+      <c r="S704" t="s"/>
+      <c r="T704" t="s"/>
+      <c r="U704" t="s"/>
+      <c r="V704" t="s"/>
+      <c r="W704" t="s"/>
+    </row>
+    <row r="705" spans="1:23">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>1815.1224</v>
+      </c>
+      <c r="C705" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D705" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E705" t="n">
+        <v>0.72890625</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G705" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H705" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J705" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K705" t="n">
+        <v>0.403125</v>
+      </c>
+      <c r="L705" t="n">
+        <v>467</v>
+      </c>
+      <c r="M705" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N705" t="n">
+        <v>148</v>
+      </c>
+      <c r="O705" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P705" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q705" t="s">
+        <v>25</v>
+      </c>
+      <c r="R705" t="b">
+        <v>0</v>
+      </c>
+      <c r="S705" t="s"/>
+      <c r="T705" t="s"/>
+      <c r="U705" t="s"/>
+      <c r="V705" t="s"/>
+      <c r="W705" t="s"/>
+    </row>
+    <row r="706" spans="1:23">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>3600.5586</v>
+      </c>
+      <c r="C706" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D706" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E706" t="n">
+        <v>0.72890625</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G706" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H706" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I706" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J706" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K706" t="n">
+        <v>0.403125</v>
+      </c>
+      <c r="L706" t="n">
+        <v>467</v>
+      </c>
+      <c r="M706" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N706" t="n">
+        <v>148</v>
+      </c>
+      <c r="O706" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P706" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q706" t="s">
+        <v>25</v>
+      </c>
+      <c r="R706" t="b">
+        <v>1</v>
+      </c>
+      <c r="S706" t="s">
+        <v>24</v>
+      </c>
+      <c r="T706" t="n">
+        <v>707</v>
+      </c>
+      <c r="U706" t="n">
+        <v>722</v>
+      </c>
+      <c r="V706" t="n">
+        <v>705</v>
+      </c>
+      <c r="W706" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="707" spans="1:23">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>4013.6148</v>
+      </c>
+      <c r="C707" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D707" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E707" t="n">
+        <v>0.72890625</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G707" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H707" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I707" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J707" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K707" t="n">
+        <v>0.403125</v>
+      </c>
+      <c r="L707" t="n">
+        <v>467</v>
+      </c>
+      <c r="M707" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N707" t="n">
+        <v>148</v>
+      </c>
+      <c r="O707" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P707" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q707" t="s">
+        <v>25</v>
+      </c>
+      <c r="R707" t="b">
+        <v>1</v>
+      </c>
+      <c r="S707" t="s">
+        <v>24</v>
+      </c>
+      <c r="T707" t="n">
+        <v>707</v>
+      </c>
+      <c r="U707" t="n">
+        <v>722</v>
+      </c>
+      <c r="V707" t="n">
+        <v>705</v>
+      </c>
+      <c r="W707" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="708" spans="1:23">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>4673.3388</v>
+      </c>
+      <c r="C708" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D708" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E708" t="n">
+        <v>0.72890625</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G708" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H708" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J708" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K708" t="n">
+        <v>0.403125</v>
+      </c>
+      <c r="L708" t="n">
+        <v>467</v>
+      </c>
+      <c r="M708" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N708" t="n">
+        <v>148</v>
+      </c>
+      <c r="O708" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P708" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q708" t="s">
+        <v>25</v>
+      </c>
+      <c r="R708" t="b">
+        <v>1</v>
+      </c>
+      <c r="S708" t="s">
+        <v>24</v>
+      </c>
+      <c r="T708" t="n">
+        <v>707</v>
+      </c>
+      <c r="U708" t="n">
+        <v>722</v>
+      </c>
+      <c r="V708" t="n">
+        <v>705</v>
+      </c>
+      <c r="W708" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="709" spans="1:23">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>5036.3486</v>
+      </c>
+      <c r="C709" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D709" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E709" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F709" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G709" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H709" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J709" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K709" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L709" t="n">
+        <v>467</v>
+      </c>
+      <c r="M709" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N709" t="n">
+        <v>148</v>
+      </c>
+      <c r="O709" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P709" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q709" t="s">
+        <v>25</v>
+      </c>
+      <c r="R709" t="b">
+        <v>1</v>
+      </c>
+      <c r="S709" t="s">
+        <v>24</v>
+      </c>
+      <c r="T709" t="n">
+        <v>707</v>
+      </c>
+      <c r="U709" t="n">
+        <v>722</v>
+      </c>
+      <c r="V709" t="n">
+        <v>705</v>
+      </c>
+      <c r="W709" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="710" spans="1:23">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="n">
+        <v>86406.22709</v>
+      </c>
+      <c r="C710" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D710" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E710" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F710" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G710" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H710" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J710" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K710" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L710" t="n">
+        <v>467</v>
+      </c>
+      <c r="M710" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N710" t="n">
+        <v>148</v>
+      </c>
+      <c r="O710" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P710" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q710" t="s">
+        <v>25</v>
+      </c>
+      <c r="R710" t="b">
+        <v>0</v>
+      </c>
+      <c r="S710" t="s">
+        <v>24</v>
+      </c>
+      <c r="T710" t="n">
+        <v>707</v>
+      </c>
+      <c r="U710" t="n">
+        <v>722</v>
+      </c>
+      <c r="V710" t="n">
+        <v>705</v>
+      </c>
+      <c r="W710" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="711" spans="1:23">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>86406.051964</v>
+      </c>
+      <c r="C711" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D711" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E711" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F711" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G711" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H711" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I711" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J711" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K711" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L711" t="n">
+        <v>467</v>
+      </c>
+      <c r="M711" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N711" t="n">
+        <v>148</v>
+      </c>
+      <c r="O711" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P711" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q711" t="s">
+        <v>25</v>
+      </c>
+      <c r="R711" t="b">
+        <v>0</v>
+      </c>
+      <c r="S711" t="s">
+        <v>24</v>
+      </c>
+      <c r="T711" t="n">
+        <v>707</v>
+      </c>
+      <c r="U711" t="n">
+        <v>722</v>
+      </c>
+      <c r="V711" t="n">
+        <v>705</v>
+      </c>
+      <c r="W711" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="712" spans="1:23">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>86406.123454</v>
+      </c>
+      <c r="C712" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D712" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E712" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F712" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G712" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H712" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I712" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J712" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K712" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L712" t="n">
+        <v>467</v>
+      </c>
+      <c r="M712" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N712" t="n">
+        <v>148</v>
+      </c>
+      <c r="O712" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P712" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q712" t="s">
+        <v>25</v>
+      </c>
+      <c r="R712" t="b">
+        <v>0</v>
+      </c>
+      <c r="S712" t="s">
+        <v>24</v>
+      </c>
+      <c r="T712" t="n">
+        <v>707</v>
+      </c>
+      <c r="U712" t="n">
+        <v>722</v>
+      </c>
+      <c r="V712" t="n">
+        <v>705</v>
+      </c>
+      <c r="W712" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="713" spans="1:23">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>86406.129724</v>
+      </c>
+      <c r="C713" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D713" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E713" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G713" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H713" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J713" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K713" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L713" t="n">
+        <v>467</v>
+      </c>
+      <c r="M713" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N713" t="n">
+        <v>148</v>
+      </c>
+      <c r="O713" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P713" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q713" t="s">
+        <v>25</v>
+      </c>
+      <c r="R713" t="b">
+        <v>0</v>
+      </c>
+      <c r="S713" t="s">
+        <v>24</v>
+      </c>
+      <c r="T713" t="n">
+        <v>707</v>
+      </c>
+      <c r="U713" t="n">
+        <v>722</v>
+      </c>
+      <c r="V713" t="n">
+        <v>705</v>
+      </c>
+      <c r="W713" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="714" spans="1:23">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
         <v>3834.471</v>
       </c>
-      <c r="C687" t="n">
+      <c r="C714" t="n">
         <v>2.6875</v>
       </c>
-      <c r="D687" t="n">
+      <c r="D714" t="n">
         <v>9.90625e-09</v>
       </c>
-      <c r="E687" t="n">
+      <c r="E714" t="n">
         <v>0.7289062500000001</v>
       </c>
-      <c r="F687" t="n">
+      <c r="F714" t="n">
         <v>1.625</v>
       </c>
-      <c r="G687" t="n">
+      <c r="G714" t="n">
         <v>8.779296875</v>
       </c>
-      <c r="H687" t="n">
+      <c r="H714" t="n">
         <v>5.875e-09</v>
       </c>
-      <c r="I687" t="n">
+      <c r="I714" t="n">
         <v>0.0703125</v>
       </c>
-      <c r="J687" t="n">
+      <c r="J714" t="n">
         <v>193.359375</v>
       </c>
-      <c r="K687" t="n">
+      <c r="K714" t="n">
         <v>0.4031250000000001</v>
       </c>
-      <c r="L687" t="n">
+      <c r="L714" t="n">
         <v>467</v>
       </c>
-      <c r="M687" t="n">
+      <c r="M714" t="n">
         <v>0.01859375</v>
       </c>
-      <c r="N687" t="n">
+      <c r="N714" t="n">
         <v>148</v>
       </c>
-      <c r="O687" t="n">
+      <c r="O714" t="n">
         <v>2045</v>
       </c>
-      <c r="P687" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q687" t="s">
-        <v>25</v>
-      </c>
-      <c r="R687" t="b">
+      <c r="P714" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q714" t="s">
+        <v>25</v>
+      </c>
+      <c r="R714" t="b">
         <v>1</v>
       </c>
-      <c r="S687" t="s">
-        <v>24</v>
-      </c>
-      <c r="T687" t="n">
+      <c r="S714" t="s">
+        <v>24</v>
+      </c>
+      <c r="T714" t="n">
         <v>706</v>
       </c>
-      <c r="U687" t="n">
-        <v>722</v>
-      </c>
-      <c r="V687" t="n">
-        <v>705</v>
-      </c>
-      <c r="W687" t="n">
-        <v>25</v>
+      <c r="U714" t="n">
+        <v>722</v>
+      </c>
+      <c r="V714" t="n">
+        <v>705</v>
+      </c>
+      <c r="W714" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="715" spans="1:23">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>4070.7888</v>
+      </c>
+      <c r="C715" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D715" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E715" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F715" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G715" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H715" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J715" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K715" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L715" t="n">
+        <v>467</v>
+      </c>
+      <c r="M715" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N715" t="n">
+        <v>148</v>
+      </c>
+      <c r="O715" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P715" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q715" t="s">
+        <v>25</v>
+      </c>
+      <c r="R715" t="b">
+        <v>1</v>
+      </c>
+      <c r="S715" t="s">
+        <v>24</v>
+      </c>
+      <c r="T715" t="n">
+        <v>706</v>
+      </c>
+      <c r="U715" t="n">
+        <v>722</v>
+      </c>
+      <c r="V715" t="n">
+        <v>705</v>
+      </c>
+      <c r="W715" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="716" spans="1:23">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>5085.8496</v>
+      </c>
+      <c r="C716" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D716" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G716" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H716" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J716" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K716" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L716" t="n">
+        <v>467</v>
+      </c>
+      <c r="M716" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N716" t="n">
+        <v>148</v>
+      </c>
+      <c r="O716" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P716" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q716" t="s">
+        <v>25</v>
+      </c>
+      <c r="R716" t="b">
+        <v>1</v>
+      </c>
+      <c r="S716" t="s">
+        <v>24</v>
+      </c>
+      <c r="T716" t="n">
+        <v>706</v>
+      </c>
+      <c r="U716" t="n">
+        <v>722</v>
+      </c>
+      <c r="V716" t="n">
+        <v>705</v>
+      </c>
+      <c r="W716" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="717" spans="1:23">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>5403.6372</v>
+      </c>
+      <c r="C717" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D717" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E717" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G717" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H717" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J717" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K717" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L717" t="n">
+        <v>467</v>
+      </c>
+      <c r="M717" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N717" t="n">
+        <v>148</v>
+      </c>
+      <c r="O717" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P717" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q717" t="s">
+        <v>25</v>
+      </c>
+      <c r="R717" t="b">
+        <v>1</v>
+      </c>
+      <c r="S717" t="s">
+        <v>24</v>
+      </c>
+      <c r="T717" t="n">
+        <v>706</v>
+      </c>
+      <c r="U717" t="n">
+        <v>722</v>
+      </c>
+      <c r="V717" t="n">
+        <v>705</v>
+      </c>
+      <c r="W717" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="718" spans="1:23">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>86406.122684</v>
+      </c>
+      <c r="C718" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D718" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E718" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G718" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H718" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I718" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J718" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K718" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L718" t="n">
+        <v>467</v>
+      </c>
+      <c r="M718" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N718" t="n">
+        <v>148</v>
+      </c>
+      <c r="O718" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P718" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q718" t="s">
+        <v>25</v>
+      </c>
+      <c r="R718" t="b">
+        <v>0</v>
+      </c>
+      <c r="S718" t="s">
+        <v>24</v>
+      </c>
+      <c r="T718" t="n">
+        <v>706</v>
+      </c>
+      <c r="U718" t="n">
+        <v>722</v>
+      </c>
+      <c r="V718" t="n">
+        <v>705</v>
+      </c>
+      <c r="W718" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="719" spans="1:23">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>86406.085484</v>
+      </c>
+      <c r="C719" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D719" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E719" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F719" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G719" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H719" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J719" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K719" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L719" t="n">
+        <v>467</v>
+      </c>
+      <c r="M719" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N719" t="n">
+        <v>148</v>
+      </c>
+      <c r="O719" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P719" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q719" t="s">
+        <v>25</v>
+      </c>
+      <c r="R719" t="b">
+        <v>0</v>
+      </c>
+      <c r="S719" t="s">
+        <v>24</v>
+      </c>
+      <c r="T719" t="n">
+        <v>706</v>
+      </c>
+      <c r="U719" t="n">
+        <v>722</v>
+      </c>
+      <c r="V719" t="n">
+        <v>705</v>
+      </c>
+      <c r="W719" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="720" spans="1:23">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>86406.085484</v>
+      </c>
+      <c r="C720" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D720" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E720" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F720" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G720" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H720" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I720" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J720" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K720" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L720" t="n">
+        <v>467</v>
+      </c>
+      <c r="M720" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N720" t="n">
+        <v>148</v>
+      </c>
+      <c r="O720" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P720" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q720" t="s">
+        <v>25</v>
+      </c>
+      <c r="R720" t="b">
+        <v>0</v>
+      </c>
+      <c r="S720" t="s">
+        <v>24</v>
+      </c>
+      <c r="T720" t="n">
+        <v>706</v>
+      </c>
+      <c r="U720" t="n">
+        <v>722</v>
+      </c>
+      <c r="V720" t="n">
+        <v>705</v>
+      </c>
+      <c r="W720" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="721" spans="1:23">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>86406.05968400001</v>
+      </c>
+      <c r="C721" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="D721" t="n">
+        <v>9.90625e-09</v>
+      </c>
+      <c r="E721" t="n">
+        <v>0.7289062500000001</v>
+      </c>
+      <c r="F721" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G721" t="n">
+        <v>8.779296875</v>
+      </c>
+      <c r="H721" t="n">
+        <v>5.875e-09</v>
+      </c>
+      <c r="I721" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="J721" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="K721" t="n">
+        <v>0.4031250000000001</v>
+      </c>
+      <c r="L721" t="n">
+        <v>467</v>
+      </c>
+      <c r="M721" t="n">
+        <v>0.01859375</v>
+      </c>
+      <c r="N721" t="n">
+        <v>148</v>
+      </c>
+      <c r="O721" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P721" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q721" t="s">
+        <v>25</v>
+      </c>
+      <c r="R721" t="b">
+        <v>0</v>
+      </c>
+      <c r="S721" t="s">
+        <v>24</v>
+      </c>
+      <c r="T721" t="n">
+        <v>706</v>
+      </c>
+      <c r="U721" t="n">
+        <v>722</v>
+      </c>
+      <c r="V721" t="n">
+        <v>705</v>
+      </c>
+      <c r="W721" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/simtime_prediction/data/sim_time.xlsx
+++ b/data_process/simtime_prediction/data/sim_time.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W721"/>
+  <dimension ref="A1:W821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50837,6 +50837,6976 @@
         <v>80</v>
       </c>
     </row>
+    <row r="722" spans="1:23">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>17147.368347</v>
+      </c>
+      <c r="C722" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D722" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E722" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F722" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G722" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H722" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J722" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K722" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L722" t="n">
+        <v>490</v>
+      </c>
+      <c r="M722" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N722" t="n">
+        <v>145</v>
+      </c>
+      <c r="O722" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P722" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q722" t="s">
+        <v>23</v>
+      </c>
+      <c r="R722" t="b">
+        <v>1</v>
+      </c>
+      <c r="S722" t="s"/>
+      <c r="T722" t="s"/>
+      <c r="U722" t="s"/>
+      <c r="V722" t="s"/>
+      <c r="W722" t="s"/>
+    </row>
+    <row r="723" spans="1:23">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>86406.295148</v>
+      </c>
+      <c r="C723" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D723" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E723" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F723" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G723" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H723" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J723" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K723" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L723" t="n">
+        <v>490</v>
+      </c>
+      <c r="M723" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N723" t="n">
+        <v>145</v>
+      </c>
+      <c r="O723" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P723" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q723" t="s">
+        <v>23</v>
+      </c>
+      <c r="R723" t="b">
+        <v>0</v>
+      </c>
+      <c r="S723" t="s"/>
+      <c r="T723" t="s"/>
+      <c r="U723" t="s"/>
+      <c r="V723" t="s"/>
+      <c r="W723" t="s"/>
+    </row>
+    <row r="724" spans="1:23">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>28376.653747</v>
+      </c>
+      <c r="C724" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D724" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E724" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F724" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G724" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H724" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I724" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J724" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K724" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L724" t="n">
+        <v>490</v>
+      </c>
+      <c r="M724" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N724" t="n">
+        <v>145</v>
+      </c>
+      <c r="O724" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P724" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q724" t="s">
+        <v>23</v>
+      </c>
+      <c r="R724" t="b">
+        <v>1</v>
+      </c>
+      <c r="S724" t="s">
+        <v>24</v>
+      </c>
+      <c r="T724" t="n">
+        <v>707</v>
+      </c>
+      <c r="U724" t="n">
+        <v>722</v>
+      </c>
+      <c r="V724" t="n">
+        <v>705</v>
+      </c>
+      <c r="W724" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="725" spans="1:23">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>27812.460384</v>
+      </c>
+      <c r="C725" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D725" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E725" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F725" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G725" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H725" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I725" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J725" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K725" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L725" t="n">
+        <v>490</v>
+      </c>
+      <c r="M725" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N725" t="n">
+        <v>145</v>
+      </c>
+      <c r="O725" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P725" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q725" t="s">
+        <v>23</v>
+      </c>
+      <c r="R725" t="b">
+        <v>1</v>
+      </c>
+      <c r="S725" t="s">
+        <v>24</v>
+      </c>
+      <c r="T725" t="n">
+        <v>707</v>
+      </c>
+      <c r="U725" t="n">
+        <v>722</v>
+      </c>
+      <c r="V725" t="n">
+        <v>705</v>
+      </c>
+      <c r="W725" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="726" spans="1:23">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>36430.964947</v>
+      </c>
+      <c r="C726" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D726" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E726" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F726" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G726" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H726" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I726" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J726" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K726" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L726" t="n">
+        <v>490</v>
+      </c>
+      <c r="M726" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N726" t="n">
+        <v>145</v>
+      </c>
+      <c r="O726" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P726" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q726" t="s">
+        <v>23</v>
+      </c>
+      <c r="R726" t="b">
+        <v>1</v>
+      </c>
+      <c r="S726" t="s">
+        <v>24</v>
+      </c>
+      <c r="T726" t="n">
+        <v>707</v>
+      </c>
+      <c r="U726" t="n">
+        <v>722</v>
+      </c>
+      <c r="V726" t="n">
+        <v>705</v>
+      </c>
+      <c r="W726" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="727" spans="1:23">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>28789.788547</v>
+      </c>
+      <c r="C727" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D727" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E727" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F727" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G727" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H727" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I727" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J727" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K727" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L727" t="n">
+        <v>490</v>
+      </c>
+      <c r="M727" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N727" t="n">
+        <v>145</v>
+      </c>
+      <c r="O727" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P727" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q727" t="s">
+        <v>23</v>
+      </c>
+      <c r="R727" t="b">
+        <v>1</v>
+      </c>
+      <c r="S727" t="s">
+        <v>24</v>
+      </c>
+      <c r="T727" t="n">
+        <v>707</v>
+      </c>
+      <c r="U727" t="n">
+        <v>722</v>
+      </c>
+      <c r="V727" t="n">
+        <v>705</v>
+      </c>
+      <c r="W727" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="728" spans="1:23">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>83716.986148</v>
+      </c>
+      <c r="C728" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D728" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G728" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H728" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J728" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K728" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L728" t="n">
+        <v>490</v>
+      </c>
+      <c r="M728" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N728" t="n">
+        <v>145</v>
+      </c>
+      <c r="O728" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P728" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q728" t="s">
+        <v>23</v>
+      </c>
+      <c r="R728" t="b">
+        <v>0</v>
+      </c>
+      <c r="S728" t="s">
+        <v>24</v>
+      </c>
+      <c r="T728" t="n">
+        <v>707</v>
+      </c>
+      <c r="U728" t="n">
+        <v>722</v>
+      </c>
+      <c r="V728" t="n">
+        <v>705</v>
+      </c>
+      <c r="W728" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="729" spans="1:23">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>86406.128562</v>
+      </c>
+      <c r="C729" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D729" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E729" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F729" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G729" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H729" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J729" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K729" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L729" t="n">
+        <v>490</v>
+      </c>
+      <c r="M729" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N729" t="n">
+        <v>145</v>
+      </c>
+      <c r="O729" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P729" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q729" t="s">
+        <v>23</v>
+      </c>
+      <c r="R729" t="b">
+        <v>0</v>
+      </c>
+      <c r="S729" t="s">
+        <v>24</v>
+      </c>
+      <c r="T729" t="n">
+        <v>707</v>
+      </c>
+      <c r="U729" t="n">
+        <v>722</v>
+      </c>
+      <c r="V729" t="n">
+        <v>705</v>
+      </c>
+      <c r="W729" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="730" spans="1:23">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>86406.33254800001</v>
+      </c>
+      <c r="C730" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D730" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E730" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F730" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G730" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H730" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I730" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J730" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K730" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L730" t="n">
+        <v>490</v>
+      </c>
+      <c r="M730" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N730" t="n">
+        <v>145</v>
+      </c>
+      <c r="O730" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P730" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q730" t="s">
+        <v>23</v>
+      </c>
+      <c r="R730" t="b">
+        <v>0</v>
+      </c>
+      <c r="S730" t="s">
+        <v>24</v>
+      </c>
+      <c r="T730" t="n">
+        <v>707</v>
+      </c>
+      <c r="U730" t="n">
+        <v>722</v>
+      </c>
+      <c r="V730" t="n">
+        <v>705</v>
+      </c>
+      <c r="W730" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="731" spans="1:23">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>86406.410548</v>
+      </c>
+      <c r="C731" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D731" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G731" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H731" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I731" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J731" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K731" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L731" t="n">
+        <v>490</v>
+      </c>
+      <c r="M731" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N731" t="n">
+        <v>145</v>
+      </c>
+      <c r="O731" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P731" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q731" t="s">
+        <v>23</v>
+      </c>
+      <c r="R731" t="b">
+        <v>0</v>
+      </c>
+      <c r="S731" t="s">
+        <v>24</v>
+      </c>
+      <c r="T731" t="n">
+        <v>707</v>
+      </c>
+      <c r="U731" t="n">
+        <v>722</v>
+      </c>
+      <c r="V731" t="n">
+        <v>705</v>
+      </c>
+      <c r="W731" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="732" spans="1:23">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>28376.857384</v>
+      </c>
+      <c r="C732" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D732" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E732" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F732" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G732" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H732" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I732" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J732" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K732" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L732" t="n">
+        <v>490</v>
+      </c>
+      <c r="M732" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N732" t="n">
+        <v>145</v>
+      </c>
+      <c r="O732" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P732" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q732" t="s">
+        <v>23</v>
+      </c>
+      <c r="R732" t="b">
+        <v>1</v>
+      </c>
+      <c r="S732" t="s">
+        <v>24</v>
+      </c>
+      <c r="T732" t="n">
+        <v>706</v>
+      </c>
+      <c r="U732" t="n">
+        <v>722</v>
+      </c>
+      <c r="V732" t="n">
+        <v>705</v>
+      </c>
+      <c r="W732" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="733" spans="1:23">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>32392.459798</v>
+      </c>
+      <c r="C733" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D733" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E733" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F733" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G733" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H733" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I733" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J733" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K733" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L733" t="n">
+        <v>490</v>
+      </c>
+      <c r="M733" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N733" t="n">
+        <v>145</v>
+      </c>
+      <c r="O733" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P733" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q733" t="s">
+        <v>23</v>
+      </c>
+      <c r="R733" t="b">
+        <v>1</v>
+      </c>
+      <c r="S733" t="s">
+        <v>24</v>
+      </c>
+      <c r="T733" t="n">
+        <v>706</v>
+      </c>
+      <c r="U733" t="n">
+        <v>722</v>
+      </c>
+      <c r="V733" t="n">
+        <v>705</v>
+      </c>
+      <c r="W733" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="734" spans="1:23">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>36788.321398</v>
+      </c>
+      <c r="C734" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D734" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E734" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G734" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H734" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I734" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J734" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K734" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L734" t="n">
+        <v>490</v>
+      </c>
+      <c r="M734" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N734" t="n">
+        <v>145</v>
+      </c>
+      <c r="O734" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P734" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q734" t="s">
+        <v>23</v>
+      </c>
+      <c r="R734" t="b">
+        <v>1</v>
+      </c>
+      <c r="S734" t="s">
+        <v>24</v>
+      </c>
+      <c r="T734" t="n">
+        <v>706</v>
+      </c>
+      <c r="U734" t="n">
+        <v>722</v>
+      </c>
+      <c r="V734" t="n">
+        <v>705</v>
+      </c>
+      <c r="W734" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="735" spans="1:23">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>41283.282547</v>
+      </c>
+      <c r="C735" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D735" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E735" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F735" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G735" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H735" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J735" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K735" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L735" t="n">
+        <v>490</v>
+      </c>
+      <c r="M735" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N735" t="n">
+        <v>145</v>
+      </c>
+      <c r="O735" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P735" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q735" t="s">
+        <v>23</v>
+      </c>
+      <c r="R735" t="b">
+        <v>1</v>
+      </c>
+      <c r="S735" t="s">
+        <v>24</v>
+      </c>
+      <c r="T735" t="n">
+        <v>706</v>
+      </c>
+      <c r="U735" t="n">
+        <v>722</v>
+      </c>
+      <c r="V735" t="n">
+        <v>705</v>
+      </c>
+      <c r="W735" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="736" spans="1:23">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>86406.19096199999</v>
+      </c>
+      <c r="C736" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D736" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E736" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F736" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G736" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H736" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J736" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K736" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L736" t="n">
+        <v>490</v>
+      </c>
+      <c r="M736" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N736" t="n">
+        <v>145</v>
+      </c>
+      <c r="O736" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P736" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q736" t="s">
+        <v>23</v>
+      </c>
+      <c r="R736" t="b">
+        <v>0</v>
+      </c>
+      <c r="S736" t="s">
+        <v>24</v>
+      </c>
+      <c r="T736" t="n">
+        <v>706</v>
+      </c>
+      <c r="U736" t="n">
+        <v>722</v>
+      </c>
+      <c r="V736" t="n">
+        <v>705</v>
+      </c>
+      <c r="W736" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="737" spans="1:23">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>86406.35614800001</v>
+      </c>
+      <c r="C737" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D737" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E737" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F737" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G737" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H737" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J737" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K737" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L737" t="n">
+        <v>490</v>
+      </c>
+      <c r="M737" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N737" t="n">
+        <v>145</v>
+      </c>
+      <c r="O737" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P737" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q737" t="s">
+        <v>23</v>
+      </c>
+      <c r="R737" t="b">
+        <v>0</v>
+      </c>
+      <c r="S737" t="s">
+        <v>24</v>
+      </c>
+      <c r="T737" t="n">
+        <v>706</v>
+      </c>
+      <c r="U737" t="n">
+        <v>722</v>
+      </c>
+      <c r="V737" t="n">
+        <v>705</v>
+      </c>
+      <c r="W737" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="738" spans="1:23">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>86406.387348</v>
+      </c>
+      <c r="C738" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D738" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E738" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F738" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G738" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H738" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I738" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J738" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K738" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L738" t="n">
+        <v>490</v>
+      </c>
+      <c r="M738" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N738" t="n">
+        <v>145</v>
+      </c>
+      <c r="O738" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P738" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q738" t="s">
+        <v>23</v>
+      </c>
+      <c r="R738" t="b">
+        <v>0</v>
+      </c>
+      <c r="S738" t="s">
+        <v>24</v>
+      </c>
+      <c r="T738" t="n">
+        <v>706</v>
+      </c>
+      <c r="U738" t="n">
+        <v>722</v>
+      </c>
+      <c r="V738" t="n">
+        <v>705</v>
+      </c>
+      <c r="W738" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="739" spans="1:23">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>86406.62944999999</v>
+      </c>
+      <c r="C739" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="D739" t="n">
+        <v>6.6484375e-09</v>
+      </c>
+      <c r="E739" t="n">
+        <v>0.45078125</v>
+      </c>
+      <c r="F739" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G739" t="n">
+        <v>8.6328125</v>
+      </c>
+      <c r="H739" t="n">
+        <v>5.8515625e-09</v>
+      </c>
+      <c r="I739" t="n">
+        <v>0.2859375</v>
+      </c>
+      <c r="J739" t="n">
+        <v>279.84375</v>
+      </c>
+      <c r="K739" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="L739" t="n">
+        <v>490</v>
+      </c>
+      <c r="M739" t="n">
+        <v>0.01109375</v>
+      </c>
+      <c r="N739" t="n">
+        <v>145</v>
+      </c>
+      <c r="O739" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P739" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q739" t="s">
+        <v>23</v>
+      </c>
+      <c r="R739" t="b">
+        <v>0</v>
+      </c>
+      <c r="S739" t="s">
+        <v>24</v>
+      </c>
+      <c r="T739" t="n">
+        <v>706</v>
+      </c>
+      <c r="U739" t="n">
+        <v>722</v>
+      </c>
+      <c r="V739" t="n">
+        <v>705</v>
+      </c>
+      <c r="W739" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="740" spans="1:23">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>4813.9884</v>
+      </c>
+      <c r="C740" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D740" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E740" t="n">
+        <v>0.6390625</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G740" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H740" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J740" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K740" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L740" t="n">
+        <v>502</v>
+      </c>
+      <c r="M740" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N740" t="n">
+        <v>630</v>
+      </c>
+      <c r="O740" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P740" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q740" t="s">
+        <v>25</v>
+      </c>
+      <c r="R740" t="b">
+        <v>1</v>
+      </c>
+      <c r="S740" t="s"/>
+      <c r="T740" t="s"/>
+      <c r="U740" t="s"/>
+      <c r="V740" t="s"/>
+      <c r="W740" t="s"/>
+    </row>
+    <row r="741" spans="1:23">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>86406.32517900001</v>
+      </c>
+      <c r="C741" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D741" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E741" t="n">
+        <v>0.6390625</v>
+      </c>
+      <c r="F741" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G741" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H741" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I741" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J741" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K741" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L741" t="n">
+        <v>502</v>
+      </c>
+      <c r="M741" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N741" t="n">
+        <v>630</v>
+      </c>
+      <c r="O741" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P741" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q741" t="s">
+        <v>25</v>
+      </c>
+      <c r="R741" t="b">
+        <v>0</v>
+      </c>
+      <c r="S741" t="s"/>
+      <c r="T741" t="s"/>
+      <c r="U741" t="s"/>
+      <c r="V741" t="s"/>
+      <c r="W741" t="s"/>
+    </row>
+    <row r="742" spans="1:23">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>5945.4314</v>
+      </c>
+      <c r="C742" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D742" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E742" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F742" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G742" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H742" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J742" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K742" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L742" t="n">
+        <v>502</v>
+      </c>
+      <c r="M742" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N742" t="n">
+        <v>630</v>
+      </c>
+      <c r="O742" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P742" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q742" t="s">
+        <v>25</v>
+      </c>
+      <c r="R742" t="b">
+        <v>1</v>
+      </c>
+      <c r="S742" t="s">
+        <v>24</v>
+      </c>
+      <c r="T742" t="n">
+        <v>707</v>
+      </c>
+      <c r="U742" t="n">
+        <v>722</v>
+      </c>
+      <c r="V742" t="n">
+        <v>705</v>
+      </c>
+      <c r="W742" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="743" spans="1:23">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>4992.176307</v>
+      </c>
+      <c r="C743" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D743" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E743" t="n">
+        <v>0.6390625</v>
+      </c>
+      <c r="F743" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G743" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H743" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I743" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J743" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K743" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L743" t="n">
+        <v>502</v>
+      </c>
+      <c r="M743" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N743" t="n">
+        <v>630</v>
+      </c>
+      <c r="O743" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P743" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q743" t="s">
+        <v>25</v>
+      </c>
+      <c r="R743" t="b">
+        <v>1</v>
+      </c>
+      <c r="S743" t="s">
+        <v>24</v>
+      </c>
+      <c r="T743" t="n">
+        <v>707</v>
+      </c>
+      <c r="U743" t="n">
+        <v>722</v>
+      </c>
+      <c r="V743" t="n">
+        <v>705</v>
+      </c>
+      <c r="W743" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="744" spans="1:23">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>6862.709692</v>
+      </c>
+      <c r="C744" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D744" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E744" t="n">
+        <v>0.6390625</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G744" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H744" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I744" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J744" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K744" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L744" t="n">
+        <v>502</v>
+      </c>
+      <c r="M744" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N744" t="n">
+        <v>630</v>
+      </c>
+      <c r="O744" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P744" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q744" t="s">
+        <v>25</v>
+      </c>
+      <c r="R744" t="b">
+        <v>1</v>
+      </c>
+      <c r="S744" t="s">
+        <v>24</v>
+      </c>
+      <c r="T744" t="n">
+        <v>707</v>
+      </c>
+      <c r="U744" t="n">
+        <v>722</v>
+      </c>
+      <c r="V744" t="n">
+        <v>705</v>
+      </c>
+      <c r="W744" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="745" spans="1:23">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>8638.125599999999</v>
+      </c>
+      <c r="C745" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D745" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E745" t="n">
+        <v>0.6390625</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G745" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H745" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I745" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J745" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K745" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L745" t="n">
+        <v>502</v>
+      </c>
+      <c r="M745" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N745" t="n">
+        <v>630</v>
+      </c>
+      <c r="O745" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P745" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q745" t="s">
+        <v>25</v>
+      </c>
+      <c r="R745" t="b">
+        <v>1</v>
+      </c>
+      <c r="S745" t="s">
+        <v>24</v>
+      </c>
+      <c r="T745" t="n">
+        <v>707</v>
+      </c>
+      <c r="U745" t="n">
+        <v>722</v>
+      </c>
+      <c r="V745" t="n">
+        <v>705</v>
+      </c>
+      <c r="W745" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="746" spans="1:23">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>86406.43068200001</v>
+      </c>
+      <c r="C746" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D746" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E746" t="n">
+        <v>0.6390625</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G746" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H746" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J746" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K746" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L746" t="n">
+        <v>502</v>
+      </c>
+      <c r="M746" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N746" t="n">
+        <v>630</v>
+      </c>
+      <c r="O746" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P746" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q746" t="s">
+        <v>25</v>
+      </c>
+      <c r="R746" t="b">
+        <v>0</v>
+      </c>
+      <c r="S746" t="s">
+        <v>24</v>
+      </c>
+      <c r="T746" t="n">
+        <v>707</v>
+      </c>
+      <c r="U746" t="n">
+        <v>722</v>
+      </c>
+      <c r="V746" t="n">
+        <v>705</v>
+      </c>
+      <c r="W746" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="747" spans="1:23">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>86406.644548</v>
+      </c>
+      <c r="C747" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D747" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E747" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F747" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G747" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H747" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I747" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J747" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K747" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L747" t="n">
+        <v>502</v>
+      </c>
+      <c r="M747" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N747" t="n">
+        <v>630</v>
+      </c>
+      <c r="O747" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P747" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q747" t="s">
+        <v>25</v>
+      </c>
+      <c r="R747" t="b">
+        <v>0</v>
+      </c>
+      <c r="S747" t="s">
+        <v>24</v>
+      </c>
+      <c r="T747" t="n">
+        <v>707</v>
+      </c>
+      <c r="U747" t="n">
+        <v>722</v>
+      </c>
+      <c r="V747" t="n">
+        <v>705</v>
+      </c>
+      <c r="W747" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="748" spans="1:23">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>67692.953349</v>
+      </c>
+      <c r="C748" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D748" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E748" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F748" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G748" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H748" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I748" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J748" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K748" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L748" t="n">
+        <v>502</v>
+      </c>
+      <c r="M748" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N748" t="n">
+        <v>630</v>
+      </c>
+      <c r="O748" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P748" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q748" t="s">
+        <v>25</v>
+      </c>
+      <c r="R748" t="b">
+        <v>0</v>
+      </c>
+      <c r="S748" t="s">
+        <v>24</v>
+      </c>
+      <c r="T748" t="n">
+        <v>707</v>
+      </c>
+      <c r="U748" t="n">
+        <v>722</v>
+      </c>
+      <c r="V748" t="n">
+        <v>705</v>
+      </c>
+      <c r="W748" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="749" spans="1:23">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>86406.177003</v>
+      </c>
+      <c r="C749" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D749" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E749" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F749" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G749" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H749" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I749" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J749" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K749" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L749" t="n">
+        <v>502</v>
+      </c>
+      <c r="M749" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N749" t="n">
+        <v>630</v>
+      </c>
+      <c r="O749" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P749" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q749" t="s">
+        <v>25</v>
+      </c>
+      <c r="R749" t="b">
+        <v>0</v>
+      </c>
+      <c r="S749" t="s">
+        <v>24</v>
+      </c>
+      <c r="T749" t="n">
+        <v>707</v>
+      </c>
+      <c r="U749" t="n">
+        <v>722</v>
+      </c>
+      <c r="V749" t="n">
+        <v>705</v>
+      </c>
+      <c r="W749" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="750" spans="1:23">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>6224.3906</v>
+      </c>
+      <c r="C750" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D750" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E750" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F750" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G750" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H750" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J750" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K750" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L750" t="n">
+        <v>502</v>
+      </c>
+      <c r="M750" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N750" t="n">
+        <v>630</v>
+      </c>
+      <c r="O750" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P750" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q750" t="s">
+        <v>25</v>
+      </c>
+      <c r="R750" t="b">
+        <v>1</v>
+      </c>
+      <c r="S750" t="s">
+        <v>24</v>
+      </c>
+      <c r="T750" t="n">
+        <v>706</v>
+      </c>
+      <c r="U750" t="n">
+        <v>722</v>
+      </c>
+      <c r="V750" t="n">
+        <v>705</v>
+      </c>
+      <c r="W750" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="751" spans="1:23">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>5984.7638</v>
+      </c>
+      <c r="C751" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D751" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E751" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F751" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G751" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H751" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J751" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K751" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L751" t="n">
+        <v>502</v>
+      </c>
+      <c r="M751" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N751" t="n">
+        <v>630</v>
+      </c>
+      <c r="O751" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P751" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q751" t="s">
+        <v>25</v>
+      </c>
+      <c r="R751" t="b">
+        <v>1</v>
+      </c>
+      <c r="S751" t="s">
+        <v>24</v>
+      </c>
+      <c r="T751" t="n">
+        <v>706</v>
+      </c>
+      <c r="U751" t="n">
+        <v>722</v>
+      </c>
+      <c r="V751" t="n">
+        <v>705</v>
+      </c>
+      <c r="W751" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="752" spans="1:23">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>7092.6134</v>
+      </c>
+      <c r="C752" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D752" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E752" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F752" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G752" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H752" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J752" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K752" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L752" t="n">
+        <v>502</v>
+      </c>
+      <c r="M752" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N752" t="n">
+        <v>630</v>
+      </c>
+      <c r="O752" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P752" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q752" t="s">
+        <v>25</v>
+      </c>
+      <c r="R752" t="b">
+        <v>1</v>
+      </c>
+      <c r="S752" t="s">
+        <v>24</v>
+      </c>
+      <c r="T752" t="n">
+        <v>706</v>
+      </c>
+      <c r="U752" t="n">
+        <v>722</v>
+      </c>
+      <c r="V752" t="n">
+        <v>705</v>
+      </c>
+      <c r="W752" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="753" spans="1:23">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>720.6576</v>
+      </c>
+      <c r="C753" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D753" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E753" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F753" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G753" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H753" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J753" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K753" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L753" t="n">
+        <v>502</v>
+      </c>
+      <c r="M753" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N753" t="n">
+        <v>630</v>
+      </c>
+      <c r="O753" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P753" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q753" t="s">
+        <v>25</v>
+      </c>
+      <c r="R753" t="b">
+        <v>1</v>
+      </c>
+      <c r="S753" t="s">
+        <v>24</v>
+      </c>
+      <c r="T753" t="n">
+        <v>706</v>
+      </c>
+      <c r="U753" t="n">
+        <v>722</v>
+      </c>
+      <c r="V753" t="n">
+        <v>705</v>
+      </c>
+      <c r="W753" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="754" spans="1:23">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>86402.588548</v>
+      </c>
+      <c r="C754" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D754" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E754" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F754" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G754" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H754" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J754" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K754" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L754" t="n">
+        <v>502</v>
+      </c>
+      <c r="M754" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N754" t="n">
+        <v>630</v>
+      </c>
+      <c r="O754" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P754" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q754" t="s">
+        <v>25</v>
+      </c>
+      <c r="R754" t="b">
+        <v>0</v>
+      </c>
+      <c r="S754" t="s">
+        <v>24</v>
+      </c>
+      <c r="T754" t="n">
+        <v>706</v>
+      </c>
+      <c r="U754" t="n">
+        <v>722</v>
+      </c>
+      <c r="V754" t="n">
+        <v>705</v>
+      </c>
+      <c r="W754" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="755" spans="1:23">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>86406.566548</v>
+      </c>
+      <c r="C755" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D755" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E755" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G755" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H755" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I755" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J755" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K755" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L755" t="n">
+        <v>502</v>
+      </c>
+      <c r="M755" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N755" t="n">
+        <v>630</v>
+      </c>
+      <c r="O755" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P755" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q755" t="s">
+        <v>25</v>
+      </c>
+      <c r="R755" t="b">
+        <v>0</v>
+      </c>
+      <c r="S755" t="s">
+        <v>24</v>
+      </c>
+      <c r="T755" t="n">
+        <v>706</v>
+      </c>
+      <c r="U755" t="n">
+        <v>722</v>
+      </c>
+      <c r="V755" t="n">
+        <v>705</v>
+      </c>
+      <c r="W755" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="756" spans="1:23">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>86402.338948</v>
+      </c>
+      <c r="C756" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D756" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E756" t="n">
+        <v>0.6390625000000001</v>
+      </c>
+      <c r="F756" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G756" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H756" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J756" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K756" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L756" t="n">
+        <v>502</v>
+      </c>
+      <c r="M756" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N756" t="n">
+        <v>630</v>
+      </c>
+      <c r="O756" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P756" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q756" t="s">
+        <v>25</v>
+      </c>
+      <c r="R756" t="b">
+        <v>0</v>
+      </c>
+      <c r="S756" t="s">
+        <v>24</v>
+      </c>
+      <c r="T756" t="n">
+        <v>706</v>
+      </c>
+      <c r="U756" t="n">
+        <v>722</v>
+      </c>
+      <c r="V756" t="n">
+        <v>705</v>
+      </c>
+      <c r="W756" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="757" spans="1:23">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>86406.39948199999</v>
+      </c>
+      <c r="C757" t="n">
+        <v>3.724609375</v>
+      </c>
+      <c r="D757" t="n">
+        <v>8.59375e-09</v>
+      </c>
+      <c r="E757" t="n">
+        <v>0.6390625</v>
+      </c>
+      <c r="F757" t="n">
+        <v>1.8515625</v>
+      </c>
+      <c r="G757" t="n">
+        <v>8.84765625</v>
+      </c>
+      <c r="H757" t="n">
+        <v>6.71875e-09</v>
+      </c>
+      <c r="I757" t="n">
+        <v>0.2953125</v>
+      </c>
+      <c r="J757" t="n">
+        <v>151.875</v>
+      </c>
+      <c r="K757" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L757" t="n">
+        <v>502</v>
+      </c>
+      <c r="M757" t="n">
+        <v>0.01833984375</v>
+      </c>
+      <c r="N757" t="n">
+        <v>630</v>
+      </c>
+      <c r="O757" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P757" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q757" t="s">
+        <v>25</v>
+      </c>
+      <c r="R757" t="b">
+        <v>0</v>
+      </c>
+      <c r="S757" t="s">
+        <v>24</v>
+      </c>
+      <c r="T757" t="n">
+        <v>706</v>
+      </c>
+      <c r="U757" t="n">
+        <v>722</v>
+      </c>
+      <c r="V757" t="n">
+        <v>705</v>
+      </c>
+      <c r="W757" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="758" spans="1:23">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>66.08159999999999</v>
+      </c>
+      <c r="C758" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D758" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E758" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F758" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G758" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H758" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J758" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K758" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L758" t="n">
+        <v>550</v>
+      </c>
+      <c r="M758" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N758" t="n">
+        <v>143</v>
+      </c>
+      <c r="O758" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P758" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q758" t="s">
+        <v>23</v>
+      </c>
+      <c r="R758" t="b">
+        <v>1</v>
+      </c>
+      <c r="S758" t="s"/>
+      <c r="T758" t="s"/>
+      <c r="U758" t="s"/>
+      <c r="V758" t="s"/>
+      <c r="W758" t="s"/>
+    </row>
+    <row r="759" spans="1:23">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>66.08159999999999</v>
+      </c>
+      <c r="C759" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D759" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E759" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F759" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G759" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H759" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I759" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J759" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K759" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L759" t="n">
+        <v>550</v>
+      </c>
+      <c r="M759" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N759" t="n">
+        <v>143</v>
+      </c>
+      <c r="O759" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P759" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q759" t="s">
+        <v>23</v>
+      </c>
+      <c r="R759" t="b">
+        <v>0</v>
+      </c>
+      <c r="S759" t="s"/>
+      <c r="T759" t="s"/>
+      <c r="U759" t="s"/>
+      <c r="V759" t="s"/>
+      <c r="W759" t="s"/>
+    </row>
+    <row r="760" spans="1:23">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>66.08159999999999</v>
+      </c>
+      <c r="C760" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D760" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E760" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F760" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G760" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H760" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I760" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J760" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K760" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L760" t="n">
+        <v>550</v>
+      </c>
+      <c r="M760" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N760" t="n">
+        <v>143</v>
+      </c>
+      <c r="O760" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P760" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q760" t="s">
+        <v>23</v>
+      </c>
+      <c r="R760" t="b">
+        <v>1</v>
+      </c>
+      <c r="S760" t="s">
+        <v>24</v>
+      </c>
+      <c r="T760" t="n">
+        <v>707</v>
+      </c>
+      <c r="U760" t="n">
+        <v>722</v>
+      </c>
+      <c r="V760" t="n">
+        <v>705</v>
+      </c>
+      <c r="W760" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="761" spans="1:23">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>66.08159999999999</v>
+      </c>
+      <c r="C761" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D761" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E761" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F761" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G761" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H761" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I761" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J761" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K761" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L761" t="n">
+        <v>550</v>
+      </c>
+      <c r="M761" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N761" t="n">
+        <v>143</v>
+      </c>
+      <c r="O761" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P761" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q761" t="s">
+        <v>23</v>
+      </c>
+      <c r="R761" t="b">
+        <v>1</v>
+      </c>
+      <c r="S761" t="s">
+        <v>24</v>
+      </c>
+      <c r="T761" t="n">
+        <v>707</v>
+      </c>
+      <c r="U761" t="n">
+        <v>722</v>
+      </c>
+      <c r="V761" t="n">
+        <v>705</v>
+      </c>
+      <c r="W761" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="762" spans="1:23">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>66.08159999999999</v>
+      </c>
+      <c r="C762" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D762" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E762" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F762" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G762" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H762" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I762" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J762" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K762" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L762" t="n">
+        <v>550</v>
+      </c>
+      <c r="M762" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N762" t="n">
+        <v>143</v>
+      </c>
+      <c r="O762" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P762" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q762" t="s">
+        <v>23</v>
+      </c>
+      <c r="R762" t="b">
+        <v>1</v>
+      </c>
+      <c r="S762" t="s">
+        <v>24</v>
+      </c>
+      <c r="T762" t="n">
+        <v>707</v>
+      </c>
+      <c r="U762" t="n">
+        <v>722</v>
+      </c>
+      <c r="V762" t="n">
+        <v>705</v>
+      </c>
+      <c r="W762" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="763" spans="1:23">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>66.08159999999999</v>
+      </c>
+      <c r="C763" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D763" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E763" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F763" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G763" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H763" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I763" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J763" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K763" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L763" t="n">
+        <v>550</v>
+      </c>
+      <c r="M763" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N763" t="n">
+        <v>143</v>
+      </c>
+      <c r="O763" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P763" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q763" t="s">
+        <v>23</v>
+      </c>
+      <c r="R763" t="b">
+        <v>1</v>
+      </c>
+      <c r="S763" t="s">
+        <v>24</v>
+      </c>
+      <c r="T763" t="n">
+        <v>707</v>
+      </c>
+      <c r="U763" t="n">
+        <v>722</v>
+      </c>
+      <c r="V763" t="n">
+        <v>705</v>
+      </c>
+      <c r="W763" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="764" spans="1:23">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>77.142</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D764" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E764" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F764" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G764" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H764" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I764" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J764" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K764" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L764" t="n">
+        <v>550</v>
+      </c>
+      <c r="M764" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N764" t="n">
+        <v>143</v>
+      </c>
+      <c r="O764" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P764" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q764" t="s">
+        <v>23</v>
+      </c>
+      <c r="R764" t="b">
+        <v>0</v>
+      </c>
+      <c r="S764" t="s">
+        <v>24</v>
+      </c>
+      <c r="T764" t="n">
+        <v>707</v>
+      </c>
+      <c r="U764" t="n">
+        <v>722</v>
+      </c>
+      <c r="V764" t="n">
+        <v>705</v>
+      </c>
+      <c r="W764" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="765" spans="1:23">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="n">
+        <v>81.4632</v>
+      </c>
+      <c r="C765" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D765" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E765" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F765" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G765" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H765" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I765" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J765" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K765" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L765" t="n">
+        <v>550</v>
+      </c>
+      <c r="M765" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N765" t="n">
+        <v>143</v>
+      </c>
+      <c r="O765" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P765" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q765" t="s">
+        <v>23</v>
+      </c>
+      <c r="R765" t="b">
+        <v>0</v>
+      </c>
+      <c r="S765" t="s">
+        <v>24</v>
+      </c>
+      <c r="T765" t="n">
+        <v>707</v>
+      </c>
+      <c r="U765" t="n">
+        <v>722</v>
+      </c>
+      <c r="V765" t="n">
+        <v>705</v>
+      </c>
+      <c r="W765" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="766" spans="1:23">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>82.57080000000001</v>
+      </c>
+      <c r="C766" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D766" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E766" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F766" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G766" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H766" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I766" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J766" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K766" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L766" t="n">
+        <v>550</v>
+      </c>
+      <c r="M766" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N766" t="n">
+        <v>143</v>
+      </c>
+      <c r="O766" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P766" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q766" t="s">
+        <v>23</v>
+      </c>
+      <c r="R766" t="b">
+        <v>0</v>
+      </c>
+      <c r="S766" t="s">
+        <v>24</v>
+      </c>
+      <c r="T766" t="n">
+        <v>707</v>
+      </c>
+      <c r="U766" t="n">
+        <v>722</v>
+      </c>
+      <c r="V766" t="n">
+        <v>705</v>
+      </c>
+      <c r="W766" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="767" spans="1:23">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>86.81399999999999</v>
+      </c>
+      <c r="C767" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D767" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E767" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F767" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G767" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H767" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I767" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J767" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K767" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L767" t="n">
+        <v>550</v>
+      </c>
+      <c r="M767" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N767" t="n">
+        <v>143</v>
+      </c>
+      <c r="O767" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P767" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q767" t="s">
+        <v>23</v>
+      </c>
+      <c r="R767" t="b">
+        <v>0</v>
+      </c>
+      <c r="S767" t="s">
+        <v>24</v>
+      </c>
+      <c r="T767" t="n">
+        <v>707</v>
+      </c>
+      <c r="U767" t="n">
+        <v>722</v>
+      </c>
+      <c r="V767" t="n">
+        <v>705</v>
+      </c>
+      <c r="W767" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="768" spans="1:23">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="n">
+        <v>66.08159999999999</v>
+      </c>
+      <c r="C768" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D768" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E768" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F768" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G768" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H768" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I768" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J768" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K768" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L768" t="n">
+        <v>550</v>
+      </c>
+      <c r="M768" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N768" t="n">
+        <v>143</v>
+      </c>
+      <c r="O768" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P768" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q768" t="s">
+        <v>23</v>
+      </c>
+      <c r="R768" t="b">
+        <v>1</v>
+      </c>
+      <c r="S768" t="s">
+        <v>24</v>
+      </c>
+      <c r="T768" t="n">
+        <v>706</v>
+      </c>
+      <c r="U768" t="n">
+        <v>722</v>
+      </c>
+      <c r="V768" t="n">
+        <v>705</v>
+      </c>
+      <c r="W768" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="769" spans="1:23">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="n">
+        <v>66.08159999999999</v>
+      </c>
+      <c r="C769" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D769" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E769" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F769" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G769" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H769" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I769" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J769" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K769" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L769" t="n">
+        <v>550</v>
+      </c>
+      <c r="M769" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N769" t="n">
+        <v>143</v>
+      </c>
+      <c r="O769" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P769" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q769" t="s">
+        <v>23</v>
+      </c>
+      <c r="R769" t="b">
+        <v>1</v>
+      </c>
+      <c r="S769" t="s">
+        <v>24</v>
+      </c>
+      <c r="T769" t="n">
+        <v>706</v>
+      </c>
+      <c r="U769" t="n">
+        <v>722</v>
+      </c>
+      <c r="V769" t="n">
+        <v>705</v>
+      </c>
+      <c r="W769" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="770" spans="1:23">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="n">
+        <v>66.08159999999999</v>
+      </c>
+      <c r="C770" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D770" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E770" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F770" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G770" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H770" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I770" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J770" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K770" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L770" t="n">
+        <v>550</v>
+      </c>
+      <c r="M770" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N770" t="n">
+        <v>143</v>
+      </c>
+      <c r="O770" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P770" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q770" t="s">
+        <v>23</v>
+      </c>
+      <c r="R770" t="b">
+        <v>1</v>
+      </c>
+      <c r="S770" t="s">
+        <v>24</v>
+      </c>
+      <c r="T770" t="n">
+        <v>706</v>
+      </c>
+      <c r="U770" t="n">
+        <v>722</v>
+      </c>
+      <c r="V770" t="n">
+        <v>705</v>
+      </c>
+      <c r="W770" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="771" spans="1:23">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="n">
+        <v>66.08159999999999</v>
+      </c>
+      <c r="C771" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D771" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E771" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F771" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G771" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H771" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I771" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J771" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K771" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L771" t="n">
+        <v>550</v>
+      </c>
+      <c r="M771" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N771" t="n">
+        <v>143</v>
+      </c>
+      <c r="O771" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P771" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q771" t="s">
+        <v>23</v>
+      </c>
+      <c r="R771" t="b">
+        <v>1</v>
+      </c>
+      <c r="S771" t="s">
+        <v>24</v>
+      </c>
+      <c r="T771" t="n">
+        <v>706</v>
+      </c>
+      <c r="U771" t="n">
+        <v>722</v>
+      </c>
+      <c r="V771" t="n">
+        <v>705</v>
+      </c>
+      <c r="W771" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="772" spans="1:23">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="n">
+        <v>76.95480000000001</v>
+      </c>
+      <c r="C772" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D772" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E772" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F772" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G772" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H772" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I772" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J772" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K772" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L772" t="n">
+        <v>550</v>
+      </c>
+      <c r="M772" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N772" t="n">
+        <v>143</v>
+      </c>
+      <c r="O772" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P772" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q772" t="s">
+        <v>23</v>
+      </c>
+      <c r="R772" t="b">
+        <v>0</v>
+      </c>
+      <c r="S772" t="s">
+        <v>24</v>
+      </c>
+      <c r="T772" t="n">
+        <v>706</v>
+      </c>
+      <c r="U772" t="n">
+        <v>722</v>
+      </c>
+      <c r="V772" t="n">
+        <v>705</v>
+      </c>
+      <c r="W772" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="773" spans="1:23">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="n">
+        <v>82.4148</v>
+      </c>
+      <c r="C773" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D773" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E773" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F773" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G773" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H773" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I773" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J773" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K773" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L773" t="n">
+        <v>550</v>
+      </c>
+      <c r="M773" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N773" t="n">
+        <v>143</v>
+      </c>
+      <c r="O773" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P773" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q773" t="s">
+        <v>23</v>
+      </c>
+      <c r="R773" t="b">
+        <v>0</v>
+      </c>
+      <c r="S773" t="s">
+        <v>24</v>
+      </c>
+      <c r="T773" t="n">
+        <v>706</v>
+      </c>
+      <c r="U773" t="n">
+        <v>722</v>
+      </c>
+      <c r="V773" t="n">
+        <v>705</v>
+      </c>
+      <c r="W773" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="774" spans="1:23">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="n">
+        <v>82.602</v>
+      </c>
+      <c r="C774" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D774" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E774" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F774" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G774" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H774" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I774" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J774" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K774" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L774" t="n">
+        <v>550</v>
+      </c>
+      <c r="M774" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N774" t="n">
+        <v>143</v>
+      </c>
+      <c r="O774" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P774" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q774" t="s">
+        <v>23</v>
+      </c>
+      <c r="R774" t="b">
+        <v>0</v>
+      </c>
+      <c r="S774" t="s">
+        <v>24</v>
+      </c>
+      <c r="T774" t="n">
+        <v>706</v>
+      </c>
+      <c r="U774" t="n">
+        <v>722</v>
+      </c>
+      <c r="V774" t="n">
+        <v>705</v>
+      </c>
+      <c r="W774" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="775" spans="1:23">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="n">
+        <v>86.31480000000001</v>
+      </c>
+      <c r="C775" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="D775" t="n">
+        <v>6.859375000000001e-09</v>
+      </c>
+      <c r="E775" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="G775" t="n">
+        <v>9.892578125</v>
+      </c>
+      <c r="H775" t="n">
+        <v>7.703125e-09</v>
+      </c>
+      <c r="I775" t="n">
+        <v>0.16171875</v>
+      </c>
+      <c r="J775" t="n">
+        <v>324.84375</v>
+      </c>
+      <c r="K775" t="n">
+        <v>0.14375</v>
+      </c>
+      <c r="L775" t="n">
+        <v>550</v>
+      </c>
+      <c r="M775" t="n">
+        <v>0.0115625</v>
+      </c>
+      <c r="N775" t="n">
+        <v>143</v>
+      </c>
+      <c r="O775" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P775" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q775" t="s">
+        <v>23</v>
+      </c>
+      <c r="R775" t="b">
+        <v>0</v>
+      </c>
+      <c r="S775" t="s">
+        <v>24</v>
+      </c>
+      <c r="T775" t="n">
+        <v>706</v>
+      </c>
+      <c r="U775" t="n">
+        <v>722</v>
+      </c>
+      <c r="V775" t="n">
+        <v>705</v>
+      </c>
+      <c r="W775" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="776" spans="1:23">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="n">
+        <v>14666.14383</v>
+      </c>
+      <c r="C776" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D776" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E776" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F776" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G776" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H776" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I776" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J776" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K776" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L776" t="n">
+        <v>469</v>
+      </c>
+      <c r="M776" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N776" t="n">
+        <v>717</v>
+      </c>
+      <c r="O776" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P776" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q776" t="s">
+        <v>25</v>
+      </c>
+      <c r="R776" t="b">
+        <v>1</v>
+      </c>
+      <c r="S776" t="s"/>
+      <c r="T776" t="s"/>
+      <c r="U776" t="s"/>
+      <c r="V776" t="s"/>
+      <c r="W776" t="s"/>
+    </row>
+    <row r="777" spans="1:23">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="n">
+        <v>5055.0864</v>
+      </c>
+      <c r="C777" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D777" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E777" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F777" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G777" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H777" t="n">
+        <v>9.835937499999999e-09</v>
+      </c>
+      <c r="I777" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J777" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K777" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L777" t="n">
+        <v>469</v>
+      </c>
+      <c r="M777" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N777" t="n">
+        <v>717</v>
+      </c>
+      <c r="O777" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P777" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q777" t="s">
+        <v>25</v>
+      </c>
+      <c r="R777" t="b">
+        <v>0</v>
+      </c>
+      <c r="S777" t="s"/>
+      <c r="T777" t="s"/>
+      <c r="U777" t="s"/>
+      <c r="V777" t="s"/>
+      <c r="W777" t="s"/>
+    </row>
+    <row r="778" spans="1:23">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>27407.160198</v>
+      </c>
+      <c r="C778" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D778" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E778" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F778" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G778" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H778" t="n">
+        <v>9.835937499999999e-09</v>
+      </c>
+      <c r="I778" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J778" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K778" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L778" t="n">
+        <v>469</v>
+      </c>
+      <c r="M778" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N778" t="n">
+        <v>717</v>
+      </c>
+      <c r="O778" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P778" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q778" t="s">
+        <v>25</v>
+      </c>
+      <c r="R778" t="b">
+        <v>1</v>
+      </c>
+      <c r="S778" t="s">
+        <v>24</v>
+      </c>
+      <c r="T778" t="n">
+        <v>707</v>
+      </c>
+      <c r="U778" t="n">
+        <v>722</v>
+      </c>
+      <c r="V778" t="n">
+        <v>705</v>
+      </c>
+      <c r="W778" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="779" spans="1:23">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>30810.051998</v>
+      </c>
+      <c r="C779" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D779" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E779" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F779" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G779" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H779" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I779" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J779" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K779" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L779" t="n">
+        <v>469</v>
+      </c>
+      <c r="M779" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N779" t="n">
+        <v>717</v>
+      </c>
+      <c r="O779" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P779" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q779" t="s">
+        <v>25</v>
+      </c>
+      <c r="R779" t="b">
+        <v>1</v>
+      </c>
+      <c r="S779" t="s">
+        <v>24</v>
+      </c>
+      <c r="T779" t="n">
+        <v>707</v>
+      </c>
+      <c r="U779" t="n">
+        <v>722</v>
+      </c>
+      <c r="V779" t="n">
+        <v>705</v>
+      </c>
+      <c r="W779" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="780" spans="1:23">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>40139.484966</v>
+      </c>
+      <c r="C780" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D780" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E780" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F780" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G780" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H780" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I780" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J780" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K780" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L780" t="n">
+        <v>469</v>
+      </c>
+      <c r="M780" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N780" t="n">
+        <v>717</v>
+      </c>
+      <c r="O780" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P780" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q780" t="s">
+        <v>25</v>
+      </c>
+      <c r="R780" t="b">
+        <v>1</v>
+      </c>
+      <c r="S780" t="s">
+        <v>24</v>
+      </c>
+      <c r="T780" t="n">
+        <v>707</v>
+      </c>
+      <c r="U780" t="n">
+        <v>722</v>
+      </c>
+      <c r="V780" t="n">
+        <v>705</v>
+      </c>
+      <c r="W780" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="781" spans="1:23">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>54413.031397</v>
+      </c>
+      <c r="C781" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D781" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E781" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F781" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G781" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H781" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I781" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J781" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K781" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L781" t="n">
+        <v>469</v>
+      </c>
+      <c r="M781" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N781" t="n">
+        <v>717</v>
+      </c>
+      <c r="O781" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P781" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q781" t="s">
+        <v>25</v>
+      </c>
+      <c r="R781" t="b">
+        <v>1</v>
+      </c>
+      <c r="S781" t="s">
+        <v>24</v>
+      </c>
+      <c r="T781" t="n">
+        <v>707</v>
+      </c>
+      <c r="U781" t="n">
+        <v>722</v>
+      </c>
+      <c r="V781" t="n">
+        <v>705</v>
+      </c>
+      <c r="W781" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="782" spans="1:23">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>86406.149882</v>
+      </c>
+      <c r="C782" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D782" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E782" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F782" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G782" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H782" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I782" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J782" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K782" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L782" t="n">
+        <v>469</v>
+      </c>
+      <c r="M782" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N782" t="n">
+        <v>717</v>
+      </c>
+      <c r="O782" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P782" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q782" t="s">
+        <v>25</v>
+      </c>
+      <c r="R782" t="b">
+        <v>0</v>
+      </c>
+      <c r="S782" t="s">
+        <v>24</v>
+      </c>
+      <c r="T782" t="n">
+        <v>707</v>
+      </c>
+      <c r="U782" t="n">
+        <v>722</v>
+      </c>
+      <c r="V782" t="n">
+        <v>705</v>
+      </c>
+      <c r="W782" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="783" spans="1:23">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>86406.539882</v>
+      </c>
+      <c r="C783" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D783" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E783" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F783" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G783" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H783" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I783" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J783" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K783" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L783" t="n">
+        <v>469</v>
+      </c>
+      <c r="M783" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N783" t="n">
+        <v>717</v>
+      </c>
+      <c r="O783" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P783" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q783" t="s">
+        <v>25</v>
+      </c>
+      <c r="R783" t="b">
+        <v>0</v>
+      </c>
+      <c r="S783" t="s">
+        <v>24</v>
+      </c>
+      <c r="T783" t="n">
+        <v>707</v>
+      </c>
+      <c r="U783" t="n">
+        <v>722</v>
+      </c>
+      <c r="V783" t="n">
+        <v>705</v>
+      </c>
+      <c r="W783" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="784" spans="1:23">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>86406.352682</v>
+      </c>
+      <c r="C784" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D784" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E784" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F784" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G784" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H784" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I784" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J784" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K784" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L784" t="n">
+        <v>469</v>
+      </c>
+      <c r="M784" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N784" t="n">
+        <v>717</v>
+      </c>
+      <c r="O784" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P784" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q784" t="s">
+        <v>25</v>
+      </c>
+      <c r="R784" t="b">
+        <v>0</v>
+      </c>
+      <c r="S784" t="s">
+        <v>24</v>
+      </c>
+      <c r="T784" t="n">
+        <v>707</v>
+      </c>
+      <c r="U784" t="n">
+        <v>722</v>
+      </c>
+      <c r="V784" t="n">
+        <v>705</v>
+      </c>
+      <c r="W784" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="785" spans="1:23">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="n">
+        <v>86406.071882</v>
+      </c>
+      <c r="C785" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D785" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E785" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F785" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G785" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H785" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I785" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J785" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K785" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L785" t="n">
+        <v>469</v>
+      </c>
+      <c r="M785" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N785" t="n">
+        <v>717</v>
+      </c>
+      <c r="O785" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P785" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q785" t="s">
+        <v>25</v>
+      </c>
+      <c r="R785" t="b">
+        <v>0</v>
+      </c>
+      <c r="S785" t="s">
+        <v>24</v>
+      </c>
+      <c r="T785" t="n">
+        <v>707</v>
+      </c>
+      <c r="U785" t="n">
+        <v>722</v>
+      </c>
+      <c r="V785" t="n">
+        <v>705</v>
+      </c>
+      <c r="W785" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="786" spans="1:23">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="n">
+        <v>25539.668598</v>
+      </c>
+      <c r="C786" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D786" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E786" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F786" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G786" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H786" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I786" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J786" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K786" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L786" t="n">
+        <v>469</v>
+      </c>
+      <c r="M786" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N786" t="n">
+        <v>717</v>
+      </c>
+      <c r="O786" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P786" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q786" t="s">
+        <v>25</v>
+      </c>
+      <c r="R786" t="b">
+        <v>1</v>
+      </c>
+      <c r="S786" t="s">
+        <v>24</v>
+      </c>
+      <c r="T786" t="n">
+        <v>706</v>
+      </c>
+      <c r="U786" t="n">
+        <v>722</v>
+      </c>
+      <c r="V786" t="n">
+        <v>705</v>
+      </c>
+      <c r="W786" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="787" spans="1:23">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="n">
+        <v>30004.222399</v>
+      </c>
+      <c r="C787" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D787" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E787" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F787" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G787" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H787" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I787" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J787" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K787" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L787" t="n">
+        <v>469</v>
+      </c>
+      <c r="M787" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N787" t="n">
+        <v>717</v>
+      </c>
+      <c r="O787" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P787" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q787" t="s">
+        <v>25</v>
+      </c>
+      <c r="R787" t="b">
+        <v>1</v>
+      </c>
+      <c r="S787" t="s">
+        <v>24</v>
+      </c>
+      <c r="T787" t="n">
+        <v>706</v>
+      </c>
+      <c r="U787" t="n">
+        <v>722</v>
+      </c>
+      <c r="V787" t="n">
+        <v>705</v>
+      </c>
+      <c r="W787" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="788" spans="1:23">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="n">
+        <v>36926.495459</v>
+      </c>
+      <c r="C788" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D788" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E788" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F788" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G788" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H788" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I788" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J788" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K788" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L788" t="n">
+        <v>469</v>
+      </c>
+      <c r="M788" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N788" t="n">
+        <v>717</v>
+      </c>
+      <c r="O788" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P788" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q788" t="s">
+        <v>25</v>
+      </c>
+      <c r="R788" t="b">
+        <v>1</v>
+      </c>
+      <c r="S788" t="s">
+        <v>24</v>
+      </c>
+      <c r="T788" t="n">
+        <v>706</v>
+      </c>
+      <c r="U788" t="n">
+        <v>722</v>
+      </c>
+      <c r="V788" t="n">
+        <v>705</v>
+      </c>
+      <c r="W788" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="789" spans="1:23">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="n">
+        <v>29181.821599</v>
+      </c>
+      <c r="C789" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D789" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E789" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F789" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G789" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H789" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I789" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J789" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K789" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L789" t="n">
+        <v>469</v>
+      </c>
+      <c r="M789" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N789" t="n">
+        <v>717</v>
+      </c>
+      <c r="O789" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P789" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q789" t="s">
+        <v>25</v>
+      </c>
+      <c r="R789" t="b">
+        <v>1</v>
+      </c>
+      <c r="S789" t="s">
+        <v>24</v>
+      </c>
+      <c r="T789" t="n">
+        <v>706</v>
+      </c>
+      <c r="U789" t="n">
+        <v>722</v>
+      </c>
+      <c r="V789" t="n">
+        <v>705</v>
+      </c>
+      <c r="W789" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="790" spans="1:23">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="n">
+        <v>86406.185929</v>
+      </c>
+      <c r="C790" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D790" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E790" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F790" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G790" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H790" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I790" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J790" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K790" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L790" t="n">
+        <v>469</v>
+      </c>
+      <c r="M790" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N790" t="n">
+        <v>717</v>
+      </c>
+      <c r="O790" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P790" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q790" t="s">
+        <v>25</v>
+      </c>
+      <c r="R790" t="b">
+        <v>0</v>
+      </c>
+      <c r="S790" t="s">
+        <v>24</v>
+      </c>
+      <c r="T790" t="n">
+        <v>706</v>
+      </c>
+      <c r="U790" t="n">
+        <v>722</v>
+      </c>
+      <c r="V790" t="n">
+        <v>705</v>
+      </c>
+      <c r="W790" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="791" spans="1:23">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="n">
+        <v>86406.139129</v>
+      </c>
+      <c r="C791" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D791" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E791" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F791" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G791" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H791" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I791" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J791" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K791" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L791" t="n">
+        <v>469</v>
+      </c>
+      <c r="M791" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N791" t="n">
+        <v>717</v>
+      </c>
+      <c r="O791" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P791" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q791" t="s">
+        <v>25</v>
+      </c>
+      <c r="R791" t="b">
+        <v>0</v>
+      </c>
+      <c r="S791" t="s">
+        <v>24</v>
+      </c>
+      <c r="T791" t="n">
+        <v>706</v>
+      </c>
+      <c r="U791" t="n">
+        <v>722</v>
+      </c>
+      <c r="V791" t="n">
+        <v>705</v>
+      </c>
+      <c r="W791" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="792" spans="1:23">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="n">
+        <v>86406.255701</v>
+      </c>
+      <c r="C792" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D792" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E792" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F792" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G792" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H792" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I792" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J792" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K792" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L792" t="n">
+        <v>469</v>
+      </c>
+      <c r="M792" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N792" t="n">
+        <v>717</v>
+      </c>
+      <c r="O792" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P792" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q792" t="s">
+        <v>25</v>
+      </c>
+      <c r="R792" t="b">
+        <v>0</v>
+      </c>
+      <c r="S792" t="s">
+        <v>24</v>
+      </c>
+      <c r="T792" t="n">
+        <v>706</v>
+      </c>
+      <c r="U792" t="n">
+        <v>722</v>
+      </c>
+      <c r="V792" t="n">
+        <v>705</v>
+      </c>
+      <c r="W792" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="793" spans="1:23">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="n">
+        <v>86406.157484</v>
+      </c>
+      <c r="C793" t="n">
+        <v>2.7109375</v>
+      </c>
+      <c r="D793" t="n">
+        <v>4.17578125e-09</v>
+      </c>
+      <c r="E793" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F793" t="n">
+        <v>1.515625</v>
+      </c>
+      <c r="G793" t="n">
+        <v>7.109375</v>
+      </c>
+      <c r="H793" t="n">
+        <v>9.835937500000001e-09</v>
+      </c>
+      <c r="I793" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="J793" t="n">
+        <v>223.59375</v>
+      </c>
+      <c r="K793" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L793" t="n">
+        <v>469</v>
+      </c>
+      <c r="M793" t="n">
+        <v>0.0134375</v>
+      </c>
+      <c r="N793" t="n">
+        <v>717</v>
+      </c>
+      <c r="O793" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P793" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q793" t="s">
+        <v>25</v>
+      </c>
+      <c r="R793" t="b">
+        <v>0</v>
+      </c>
+      <c r="S793" t="s">
+        <v>24</v>
+      </c>
+      <c r="T793" t="n">
+        <v>706</v>
+      </c>
+      <c r="U793" t="n">
+        <v>722</v>
+      </c>
+      <c r="V793" t="n">
+        <v>705</v>
+      </c>
+      <c r="W793" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="794" spans="1:23">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="n">
+        <v>1326.5148</v>
+      </c>
+      <c r="C794" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D794" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E794" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G794" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H794" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I794" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J794" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K794" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L794" t="n">
+        <v>686</v>
+      </c>
+      <c r="M794" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N794" t="n">
+        <v>630</v>
+      </c>
+      <c r="O794" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P794" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q794" t="s">
+        <v>25</v>
+      </c>
+      <c r="R794" t="b">
+        <v>1</v>
+      </c>
+      <c r="S794" t="s"/>
+      <c r="T794" t="s"/>
+      <c r="U794" t="s"/>
+      <c r="V794" t="s"/>
+      <c r="W794" t="s"/>
+    </row>
+    <row r="795" spans="1:23">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="n">
+        <v>86406.301974</v>
+      </c>
+      <c r="C795" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D795" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E795" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F795" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G795" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H795" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I795" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J795" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K795" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L795" t="n">
+        <v>686</v>
+      </c>
+      <c r="M795" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N795" t="n">
+        <v>630</v>
+      </c>
+      <c r="O795" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P795" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q795" t="s">
+        <v>25</v>
+      </c>
+      <c r="R795" t="b">
+        <v>0</v>
+      </c>
+      <c r="S795" t="s"/>
+      <c r="T795" t="s"/>
+      <c r="U795" t="s"/>
+      <c r="V795" t="s"/>
+      <c r="W795" t="s"/>
+    </row>
+    <row r="796" spans="1:23">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="n">
+        <v>2227.3056</v>
+      </c>
+      <c r="C796" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D796" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E796" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G796" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H796" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I796" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J796" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K796" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L796" t="n">
+        <v>686</v>
+      </c>
+      <c r="M796" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N796" t="n">
+        <v>630</v>
+      </c>
+      <c r="O796" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P796" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q796" t="s">
+        <v>25</v>
+      </c>
+      <c r="R796" t="b">
+        <v>1</v>
+      </c>
+      <c r="S796" t="s">
+        <v>24</v>
+      </c>
+      <c r="T796" t="n">
+        <v>707</v>
+      </c>
+      <c r="U796" t="n">
+        <v>722</v>
+      </c>
+      <c r="V796" t="n">
+        <v>705</v>
+      </c>
+      <c r="W796" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="797" spans="1:23">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="n">
+        <v>1876.49986</v>
+      </c>
+      <c r="C797" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D797" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E797" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G797" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H797" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I797" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J797" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K797" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L797" t="n">
+        <v>686</v>
+      </c>
+      <c r="M797" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N797" t="n">
+        <v>630</v>
+      </c>
+      <c r="O797" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P797" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q797" t="s">
+        <v>25</v>
+      </c>
+      <c r="R797" t="b">
+        <v>1</v>
+      </c>
+      <c r="S797" t="s">
+        <v>24</v>
+      </c>
+      <c r="T797" t="n">
+        <v>707</v>
+      </c>
+      <c r="U797" t="n">
+        <v>722</v>
+      </c>
+      <c r="V797" t="n">
+        <v>705</v>
+      </c>
+      <c r="W797" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="798" spans="1:23">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="n">
+        <v>2472.811295</v>
+      </c>
+      <c r="C798" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D798" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E798" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G798" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H798" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I798" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J798" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K798" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L798" t="n">
+        <v>686</v>
+      </c>
+      <c r="M798" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N798" t="n">
+        <v>630</v>
+      </c>
+      <c r="O798" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P798" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q798" t="s">
+        <v>25</v>
+      </c>
+      <c r="R798" t="b">
+        <v>1</v>
+      </c>
+      <c r="S798" t="s">
+        <v>24</v>
+      </c>
+      <c r="T798" t="n">
+        <v>707</v>
+      </c>
+      <c r="U798" t="n">
+        <v>722</v>
+      </c>
+      <c r="V798" t="n">
+        <v>705</v>
+      </c>
+      <c r="W798" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="799" spans="1:23">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="n">
+        <v>2553.11315</v>
+      </c>
+      <c r="C799" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D799" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E799" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F799" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G799" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H799" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I799" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J799" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K799" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L799" t="n">
+        <v>686</v>
+      </c>
+      <c r="M799" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N799" t="n">
+        <v>630</v>
+      </c>
+      <c r="O799" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P799" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q799" t="s">
+        <v>25</v>
+      </c>
+      <c r="R799" t="b">
+        <v>1</v>
+      </c>
+      <c r="S799" t="s">
+        <v>24</v>
+      </c>
+      <c r="T799" t="n">
+        <v>707</v>
+      </c>
+      <c r="U799" t="n">
+        <v>722</v>
+      </c>
+      <c r="V799" t="n">
+        <v>705</v>
+      </c>
+      <c r="W799" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="800" spans="1:23">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="n">
+        <v>86406.435314</v>
+      </c>
+      <c r="C800" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D800" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E800" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F800" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G800" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H800" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I800" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J800" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K800" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L800" t="n">
+        <v>686</v>
+      </c>
+      <c r="M800" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N800" t="n">
+        <v>630</v>
+      </c>
+      <c r="O800" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P800" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q800" t="s">
+        <v>25</v>
+      </c>
+      <c r="R800" t="b">
+        <v>0</v>
+      </c>
+      <c r="S800" t="s">
+        <v>24</v>
+      </c>
+      <c r="T800" t="n">
+        <v>707</v>
+      </c>
+      <c r="U800" t="n">
+        <v>722</v>
+      </c>
+      <c r="V800" t="n">
+        <v>705</v>
+      </c>
+      <c r="W800" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="801" spans="1:23">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="n">
+        <v>11156.1216</v>
+      </c>
+      <c r="C801" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D801" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E801" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F801" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G801" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H801" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I801" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J801" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K801" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L801" t="n">
+        <v>686</v>
+      </c>
+      <c r="M801" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N801" t="n">
+        <v>630</v>
+      </c>
+      <c r="O801" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P801" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q801" t="s">
+        <v>25</v>
+      </c>
+      <c r="R801" t="b">
+        <v>0</v>
+      </c>
+      <c r="S801" t="s">
+        <v>24</v>
+      </c>
+      <c r="T801" t="n">
+        <v>707</v>
+      </c>
+      <c r="U801" t="n">
+        <v>722</v>
+      </c>
+      <c r="V801" t="n">
+        <v>705</v>
+      </c>
+      <c r="W801" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="802" spans="1:23">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="n">
+        <v>86406.216914</v>
+      </c>
+      <c r="C802" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D802" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E802" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F802" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G802" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H802" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I802" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J802" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K802" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L802" t="n">
+        <v>686</v>
+      </c>
+      <c r="M802" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N802" t="n">
+        <v>630</v>
+      </c>
+      <c r="O802" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P802" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q802" t="s">
+        <v>25</v>
+      </c>
+      <c r="R802" t="b">
+        <v>0</v>
+      </c>
+      <c r="S802" t="s">
+        <v>24</v>
+      </c>
+      <c r="T802" t="n">
+        <v>707</v>
+      </c>
+      <c r="U802" t="n">
+        <v>722</v>
+      </c>
+      <c r="V802" t="n">
+        <v>705</v>
+      </c>
+      <c r="W802" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="803" spans="1:23">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="n">
+        <v>86406.35731399999</v>
+      </c>
+      <c r="C803" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D803" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E803" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F803" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G803" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H803" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I803" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J803" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K803" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L803" t="n">
+        <v>686</v>
+      </c>
+      <c r="M803" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N803" t="n">
+        <v>630</v>
+      </c>
+      <c r="O803" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P803" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q803" t="s">
+        <v>25</v>
+      </c>
+      <c r="R803" t="b">
+        <v>0</v>
+      </c>
+      <c r="S803" t="s">
+        <v>24</v>
+      </c>
+      <c r="T803" t="n">
+        <v>707</v>
+      </c>
+      <c r="U803" t="n">
+        <v>722</v>
+      </c>
+      <c r="V803" t="n">
+        <v>705</v>
+      </c>
+      <c r="W803" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="804" spans="1:23">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="n">
+        <v>1725.1728</v>
+      </c>
+      <c r="C804" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D804" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E804" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F804" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G804" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H804" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I804" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J804" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K804" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L804" t="n">
+        <v>686</v>
+      </c>
+      <c r="M804" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N804" t="n">
+        <v>630</v>
+      </c>
+      <c r="O804" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P804" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q804" t="s">
+        <v>25</v>
+      </c>
+      <c r="R804" t="b">
+        <v>1</v>
+      </c>
+      <c r="S804" t="s">
+        <v>24</v>
+      </c>
+      <c r="T804" t="n">
+        <v>706</v>
+      </c>
+      <c r="U804" t="n">
+        <v>722</v>
+      </c>
+      <c r="V804" t="n">
+        <v>705</v>
+      </c>
+      <c r="W804" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="805" spans="1:23">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="n">
+        <v>1747.285425</v>
+      </c>
+      <c r="C805" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D805" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E805" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G805" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H805" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I805" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J805" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K805" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L805" t="n">
+        <v>686</v>
+      </c>
+      <c r="M805" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N805" t="n">
+        <v>630</v>
+      </c>
+      <c r="O805" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P805" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q805" t="s">
+        <v>25</v>
+      </c>
+      <c r="R805" t="b">
+        <v>1</v>
+      </c>
+      <c r="S805" t="s">
+        <v>24</v>
+      </c>
+      <c r="T805" t="n">
+        <v>706</v>
+      </c>
+      <c r="U805" t="n">
+        <v>722</v>
+      </c>
+      <c r="V805" t="n">
+        <v>705</v>
+      </c>
+      <c r="W805" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="806" spans="1:23">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="n">
+        <v>2289.8148</v>
+      </c>
+      <c r="C806" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D806" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E806" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F806" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G806" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H806" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I806" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J806" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K806" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L806" t="n">
+        <v>686</v>
+      </c>
+      <c r="M806" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N806" t="n">
+        <v>630</v>
+      </c>
+      <c r="O806" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P806" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q806" t="s">
+        <v>25</v>
+      </c>
+      <c r="R806" t="b">
+        <v>1</v>
+      </c>
+      <c r="S806" t="s">
+        <v>24</v>
+      </c>
+      <c r="T806" t="n">
+        <v>706</v>
+      </c>
+      <c r="U806" t="n">
+        <v>722</v>
+      </c>
+      <c r="V806" t="n">
+        <v>705</v>
+      </c>
+      <c r="W806" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="807" spans="1:23">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="n">
+        <v>1965.7716</v>
+      </c>
+      <c r="C807" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D807" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E807" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G807" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H807" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I807" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J807" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K807" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L807" t="n">
+        <v>686</v>
+      </c>
+      <c r="M807" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N807" t="n">
+        <v>630</v>
+      </c>
+      <c r="O807" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P807" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q807" t="s">
+        <v>25</v>
+      </c>
+      <c r="R807" t="b">
+        <v>1</v>
+      </c>
+      <c r="S807" t="s">
+        <v>24</v>
+      </c>
+      <c r="T807" t="n">
+        <v>706</v>
+      </c>
+      <c r="U807" t="n">
+        <v>722</v>
+      </c>
+      <c r="V807" t="n">
+        <v>705</v>
+      </c>
+      <c r="W807" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="808" spans="1:23">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="n">
+        <v>86406.54049299999</v>
+      </c>
+      <c r="C808" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D808" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E808" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G808" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H808" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I808" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J808" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K808" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L808" t="n">
+        <v>686</v>
+      </c>
+      <c r="M808" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N808" t="n">
+        <v>630</v>
+      </c>
+      <c r="O808" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P808" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q808" t="s">
+        <v>25</v>
+      </c>
+      <c r="R808" t="b">
+        <v>0</v>
+      </c>
+      <c r="S808" t="s">
+        <v>24</v>
+      </c>
+      <c r="T808" t="n">
+        <v>706</v>
+      </c>
+      <c r="U808" t="n">
+        <v>722</v>
+      </c>
+      <c r="V808" t="n">
+        <v>705</v>
+      </c>
+      <c r="W808" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="809" spans="1:23">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="n">
+        <v>86406.13489299999</v>
+      </c>
+      <c r="C809" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D809" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E809" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F809" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G809" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H809" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I809" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J809" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K809" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L809" t="n">
+        <v>686</v>
+      </c>
+      <c r="M809" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N809" t="n">
+        <v>630</v>
+      </c>
+      <c r="O809" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P809" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q809" t="s">
+        <v>25</v>
+      </c>
+      <c r="R809" t="b">
+        <v>0</v>
+      </c>
+      <c r="S809" t="s">
+        <v>24</v>
+      </c>
+      <c r="T809" t="n">
+        <v>706</v>
+      </c>
+      <c r="U809" t="n">
+        <v>722</v>
+      </c>
+      <c r="V809" t="n">
+        <v>705</v>
+      </c>
+      <c r="W809" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="810" spans="1:23">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="n">
+        <v>6506.675045</v>
+      </c>
+      <c r="C810" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D810" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E810" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F810" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G810" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H810" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I810" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J810" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K810" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L810" t="n">
+        <v>686</v>
+      </c>
+      <c r="M810" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N810" t="n">
+        <v>630</v>
+      </c>
+      <c r="O810" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P810" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q810" t="s">
+        <v>25</v>
+      </c>
+      <c r="R810" t="b">
+        <v>0</v>
+      </c>
+      <c r="S810" t="s">
+        <v>24</v>
+      </c>
+      <c r="T810" t="n">
+        <v>706</v>
+      </c>
+      <c r="U810" t="n">
+        <v>722</v>
+      </c>
+      <c r="V810" t="n">
+        <v>705</v>
+      </c>
+      <c r="W810" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="811" spans="1:23">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="n">
+        <v>86406.33769299999</v>
+      </c>
+      <c r="C811" t="n">
+        <v>2.400390625</v>
+      </c>
+      <c r="D811" t="n">
+        <v>9.062499999999999e-09</v>
+      </c>
+      <c r="E811" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G811" t="n">
+        <v>7.79296875</v>
+      </c>
+      <c r="H811" t="n">
+        <v>4.09375e-09</v>
+      </c>
+      <c r="I811" t="n">
+        <v>0.087890625</v>
+      </c>
+      <c r="J811" t="n">
+        <v>260.859375</v>
+      </c>
+      <c r="K811" t="n">
+        <v>0.5593750000000001</v>
+      </c>
+      <c r="L811" t="n">
+        <v>686</v>
+      </c>
+      <c r="M811" t="n">
+        <v>0.0187109375</v>
+      </c>
+      <c r="N811" t="n">
+        <v>630</v>
+      </c>
+      <c r="O811" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P811" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q811" t="s">
+        <v>25</v>
+      </c>
+      <c r="R811" t="b">
+        <v>0</v>
+      </c>
+      <c r="S811" t="s">
+        <v>24</v>
+      </c>
+      <c r="T811" t="n">
+        <v>706</v>
+      </c>
+      <c r="U811" t="n">
+        <v>722</v>
+      </c>
+      <c r="V811" t="n">
+        <v>705</v>
+      </c>
+      <c r="W811" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="812" spans="1:23">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="n">
+        <v>11155.412645</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1.046875</v>
+      </c>
+      <c r="D812" t="n">
+        <v>8.5703125e-09</v>
+      </c>
+      <c r="E812" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="F812" t="n">
+        <v>1.265625</v>
+      </c>
+      <c r="G812" t="n">
+        <v>8.369140625</v>
+      </c>
+      <c r="H812" t="n">
+        <v>5.5e-09</v>
+      </c>
+      <c r="I812" t="n">
+        <v>0.134765625</v>
+      </c>
+      <c r="J812" t="n">
+        <v>220.78125</v>
+      </c>
+      <c r="K812" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L812" t="n">
+        <v>566</v>
+      </c>
+      <c r="M812" t="n">
+        <v>0.0159375</v>
+      </c>
+      <c r="N812" t="n">
+        <v>628</v>
+      </c>
+      <c r="O812" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P812" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q812" t="s">
+        <v>25</v>
+      </c>
+      <c r="R812" t="b">
+        <v>1</v>
+      </c>
+      <c r="S812" t="s"/>
+      <c r="T812" t="s"/>
+      <c r="U812" t="s"/>
+      <c r="V812" t="s"/>
+      <c r="W812" t="s"/>
+    </row>
+    <row r="813" spans="1:23">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="n">
+        <v>86406.18169300001</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1.046875</v>
+      </c>
+      <c r="D813" t="n">
+        <v>8.5703125e-09</v>
+      </c>
+      <c r="E813" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="F813" t="n">
+        <v>1.265625</v>
+      </c>
+      <c r="G813" t="n">
+        <v>8.369140625</v>
+      </c>
+      <c r="H813" t="n">
+        <v>5.5e-09</v>
+      </c>
+      <c r="I813" t="n">
+        <v>0.134765625</v>
+      </c>
+      <c r="J813" t="n">
+        <v>220.78125</v>
+      </c>
+      <c r="K813" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L813" t="n">
+        <v>566</v>
+      </c>
+      <c r="M813" t="n">
+        <v>0.0159375</v>
+      </c>
+      <c r="N813" t="n">
+        <v>628</v>
+      </c>
+      <c r="O813" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P813" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q813" t="s">
+        <v>25</v>
+      </c>
+      <c r="R813" t="b">
+        <v>0</v>
+      </c>
+      <c r="S813" t="s"/>
+      <c r="T813" t="s"/>
+      <c r="U813" t="s"/>
+      <c r="V813" t="s"/>
+      <c r="W813" t="s"/>
+    </row>
+    <row r="814" spans="1:23">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="n">
+        <v>38108.968289</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1.046875</v>
+      </c>
+      <c r="D814" t="n">
+        <v>8.5703125e-09</v>
+      </c>
+      <c r="E814" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="F814" t="n">
+        <v>1.265625</v>
+      </c>
+      <c r="G814" t="n">
+        <v>8.369140625</v>
+      </c>
+      <c r="H814" t="n">
+        <v>5.5e-09</v>
+      </c>
+      <c r="I814" t="n">
+        <v>0.134765625</v>
+      </c>
+      <c r="J814" t="n">
+        <v>220.78125</v>
+      </c>
+      <c r="K814" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L814" t="n">
+        <v>566</v>
+      </c>
+      <c r="M814" t="n">
+        <v>0.0159375</v>
+      </c>
+      <c r="N814" t="n">
+        <v>628</v>
+      </c>
+      <c r="O814" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P814" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q814" t="s">
+        <v>25</v>
+      </c>
+      <c r="R814" t="b">
+        <v>1</v>
+      </c>
+      <c r="S814" t="s">
+        <v>24</v>
+      </c>
+      <c r="T814" t="n">
+        <v>707</v>
+      </c>
+      <c r="U814" t="n">
+        <v>722</v>
+      </c>
+      <c r="V814" t="n">
+        <v>705</v>
+      </c>
+      <c r="W814" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="815" spans="1:23">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="n">
+        <v>42846.430044</v>
+      </c>
+      <c r="C815" t="n">
+        <v>1.046875</v>
+      </c>
+      <c r="D815" t="n">
+        <v>8.5703125e-09</v>
+      </c>
+      <c r="E815" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="F815" t="n">
+        <v>1.265625</v>
+      </c>
+      <c r="G815" t="n">
+        <v>8.369140625</v>
+      </c>
+      <c r="H815" t="n">
+        <v>5.5e-09</v>
+      </c>
+      <c r="I815" t="n">
+        <v>0.134765625</v>
+      </c>
+      <c r="J815" t="n">
+        <v>220.78125</v>
+      </c>
+      <c r="K815" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L815" t="n">
+        <v>566</v>
+      </c>
+      <c r="M815" t="n">
+        <v>0.0159375</v>
+      </c>
+      <c r="N815" t="n">
+        <v>628</v>
+      </c>
+      <c r="O815" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P815" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q815" t="s">
+        <v>25</v>
+      </c>
+      <c r="R815" t="b">
+        <v>1</v>
+      </c>
+      <c r="S815" t="s">
+        <v>24</v>
+      </c>
+      <c r="T815" t="n">
+        <v>707</v>
+      </c>
+      <c r="U815" t="n">
+        <v>722</v>
+      </c>
+      <c r="V815" t="n">
+        <v>705</v>
+      </c>
+      <c r="W815" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="816" spans="1:23">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="n">
+        <v>58232.916248</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1.046875</v>
+      </c>
+      <c r="D816" t="n">
+        <v>8.5703125e-09</v>
+      </c>
+      <c r="E816" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="F816" t="n">
+        <v>1.265625</v>
+      </c>
+      <c r="G816" t="n">
+        <v>8.369140625</v>
+      </c>
+      <c r="H816" t="n">
+        <v>5.5e-09</v>
+      </c>
+      <c r="I816" t="n">
+        <v>0.134765625</v>
+      </c>
+      <c r="J816" t="n">
+        <v>220.78125</v>
+      </c>
+      <c r="K816" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L816" t="n">
+        <v>566</v>
+      </c>
+      <c r="M816" t="n">
+        <v>0.0159375</v>
+      </c>
+      <c r="N816" t="n">
+        <v>628</v>
+      </c>
+      <c r="O816" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P816" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q816" t="s">
+        <v>25</v>
+      </c>
+      <c r="R816" t="b">
+        <v>1</v>
+      </c>
+      <c r="S816" t="s">
+        <v>24</v>
+      </c>
+      <c r="T816" t="n">
+        <v>707</v>
+      </c>
+      <c r="U816" t="n">
+        <v>722</v>
+      </c>
+      <c r="V816" t="n">
+        <v>705</v>
+      </c>
+      <c r="W816" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="817" spans="1:23">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="n">
+        <v>18702.403644</v>
+      </c>
+      <c r="C817" t="n">
+        <v>1.046875</v>
+      </c>
+      <c r="D817" t="n">
+        <v>8.5703125e-09</v>
+      </c>
+      <c r="E817" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="F817" t="n">
+        <v>1.265625</v>
+      </c>
+      <c r="G817" t="n">
+        <v>8.369140625</v>
+      </c>
+      <c r="H817" t="n">
+        <v>5.5e-09</v>
+      </c>
+      <c r="I817" t="n">
+        <v>0.134765625</v>
+      </c>
+      <c r="J817" t="n">
+        <v>220.78125</v>
+      </c>
+      <c r="K817" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L817" t="n">
+        <v>566</v>
+      </c>
+      <c r="M817" t="n">
+        <v>0.0159375</v>
+      </c>
+      <c r="N817" t="n">
+        <v>628</v>
+      </c>
+      <c r="O817" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P817" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q817" t="s">
+        <v>25</v>
+      </c>
+      <c r="R817" t="b">
+        <v>1</v>
+      </c>
+      <c r="S817" t="s">
+        <v>24</v>
+      </c>
+      <c r="T817" t="n">
+        <v>707</v>
+      </c>
+      <c r="U817" t="n">
+        <v>722</v>
+      </c>
+      <c r="V817" t="n">
+        <v>705</v>
+      </c>
+      <c r="W817" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="818" spans="1:23">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="n">
+        <v>37179.031004</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1.046875</v>
+      </c>
+      <c r="D818" t="n">
+        <v>8.5703125e-09</v>
+      </c>
+      <c r="E818" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="F818" t="n">
+        <v>1.265625</v>
+      </c>
+      <c r="G818" t="n">
+        <v>8.369140625</v>
+      </c>
+      <c r="H818" t="n">
+        <v>5.5e-09</v>
+      </c>
+      <c r="I818" t="n">
+        <v>0.134765625</v>
+      </c>
+      <c r="J818" t="n">
+        <v>220.78125</v>
+      </c>
+      <c r="K818" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L818" t="n">
+        <v>566</v>
+      </c>
+      <c r="M818" t="n">
+        <v>0.0159375</v>
+      </c>
+      <c r="N818" t="n">
+        <v>628</v>
+      </c>
+      <c r="O818" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P818" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q818" t="s">
+        <v>25</v>
+      </c>
+      <c r="R818" t="b">
+        <v>1</v>
+      </c>
+      <c r="S818" t="s">
+        <v>24</v>
+      </c>
+      <c r="T818" t="n">
+        <v>706</v>
+      </c>
+      <c r="U818" t="n">
+        <v>722</v>
+      </c>
+      <c r="V818" t="n">
+        <v>705</v>
+      </c>
+      <c r="W818" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="819" spans="1:23">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="n">
+        <v>6250.4052</v>
+      </c>
+      <c r="C819" t="n">
+        <v>3.103515625</v>
+      </c>
+      <c r="D819" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="E819" t="n">
+        <v>0.6765625</v>
+      </c>
+      <c r="F819" t="n">
+        <v>1.65625</v>
+      </c>
+      <c r="G819" t="n">
+        <v>5.9375</v>
+      </c>
+      <c r="H819" t="n">
+        <v>9.015624999999999e-09</v>
+      </c>
+      <c r="I819" t="n">
+        <v>0.40546875</v>
+      </c>
+      <c r="J819" t="n">
+        <v>199.6875</v>
+      </c>
+      <c r="K819" t="n">
+        <v>0.821875</v>
+      </c>
+      <c r="L819" t="n">
+        <v>543</v>
+      </c>
+      <c r="M819" t="n">
+        <v>0.019453125</v>
+      </c>
+      <c r="N819" t="n">
+        <v>718</v>
+      </c>
+      <c r="O819" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P819" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q819" t="s">
+        <v>25</v>
+      </c>
+      <c r="R819" t="b">
+        <v>1</v>
+      </c>
+      <c r="S819" t="s"/>
+      <c r="T819" t="s"/>
+      <c r="U819" t="s"/>
+      <c r="V819" t="s"/>
+      <c r="W819" t="s"/>
+    </row>
+    <row r="820" spans="1:23">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="n">
+        <v>6834.0342</v>
+      </c>
+      <c r="C820" t="n">
+        <v>3.103515625</v>
+      </c>
+      <c r="D820" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="E820" t="n">
+        <v>0.6765625</v>
+      </c>
+      <c r="F820" t="n">
+        <v>1.65625</v>
+      </c>
+      <c r="G820" t="n">
+        <v>5.9375</v>
+      </c>
+      <c r="H820" t="n">
+        <v>9.015624999999999e-09</v>
+      </c>
+      <c r="I820" t="n">
+        <v>0.40546875</v>
+      </c>
+      <c r="J820" t="n">
+        <v>199.6875</v>
+      </c>
+      <c r="K820" t="n">
+        <v>0.821875</v>
+      </c>
+      <c r="L820" t="n">
+        <v>543</v>
+      </c>
+      <c r="M820" t="n">
+        <v>0.019453125</v>
+      </c>
+      <c r="N820" t="n">
+        <v>718</v>
+      </c>
+      <c r="O820" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P820" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q820" t="s">
+        <v>25</v>
+      </c>
+      <c r="R820" t="b">
+        <v>1</v>
+      </c>
+      <c r="S820" t="s">
+        <v>24</v>
+      </c>
+      <c r="T820" t="n">
+        <v>707</v>
+      </c>
+      <c r="U820" t="n">
+        <v>722</v>
+      </c>
+      <c r="V820" t="n">
+        <v>705</v>
+      </c>
+      <c r="W820" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="821" spans="1:23">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="n">
+        <v>7899.2632</v>
+      </c>
+      <c r="C821" t="n">
+        <v>3.103515625</v>
+      </c>
+      <c r="D821" t="n">
+        <v>9.578125e-09</v>
+      </c>
+      <c r="E821" t="n">
+        <v>0.6765625</v>
+      </c>
+      <c r="F821" t="n">
+        <v>1.65625</v>
+      </c>
+      <c r="G821" t="n">
+        <v>5.9375</v>
+      </c>
+      <c r="H821" t="n">
+        <v>9.015624999999999e-09</v>
+      </c>
+      <c r="I821" t="n">
+        <v>0.40546875</v>
+      </c>
+      <c r="J821" t="n">
+        <v>199.6875</v>
+      </c>
+      <c r="K821" t="n">
+        <v>0.821875</v>
+      </c>
+      <c r="L821" t="n">
+        <v>543</v>
+      </c>
+      <c r="M821" t="n">
+        <v>0.019453125</v>
+      </c>
+      <c r="N821" t="n">
+        <v>718</v>
+      </c>
+      <c r="O821" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P821" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q821" t="s">
+        <v>25</v>
+      </c>
+      <c r="R821" t="b">
+        <v>1</v>
+      </c>
+      <c r="S821" t="s">
+        <v>24</v>
+      </c>
+      <c r="T821" t="n">
+        <v>707</v>
+      </c>
+      <c r="U821" t="n">
+        <v>722</v>
+      </c>
+      <c r="V821" t="n">
+        <v>705</v>
+      </c>
+      <c r="W821" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
